--- a/letterboxd_scraping/reviews.xlsx
+++ b/letterboxd_scraping/reviews.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F167"/>
+  <dimension ref="A1:F161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,38 +466,38 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>gunshotglitter</t>
+          <t>russman</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2017/03/05</t>
+          <t>2016/05/06</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>o nome em inglês do filme é o testamento da cachorra.</t>
+          <t>My ranking of the frog's many names:  1. Doctor Cucumber 2. Benjamin Franklin 3. Ronald 4. Kitty 5. George Washington 6. Jason Funderburker  7. Mr. President 8. Skipper 9. Wirt Jr. 10. Greg Jr.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.75</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isabela</t>
+          <t>Karst</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2019/04/20</t>
+          <t>2021/09/26</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -505,25 +505,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>chicó ressuscitando top 10 maiores atos do cinema</t>
+          <t>the best shows are those where a charming character is named “Greg”</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>giovana :)</t>
+          <t>Karst</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2020/01/03</t>
+          <t>2021/10/26</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -531,77 +531,77 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>i genuinely feel sorry for every person who ever tries to watch this movie and yet does not speak portuguese because i am pretty sure that all jokes probably get lost when translated so therefore this movie loses all it's brilliant dialogue and becomes not funny. i am sorry you are all missing a masterpiece 🥺 anyway selton mello me namora por favor e me perdoa por demorar tanto pra assistir essa obra de arte 😔🤟🏻</t>
+          <t>frog names ranked:  10. Skipper 9. Ronald 8. Greg Jr. 7. Doctor Cucumber 6. Wirt 5. George Washington 4. Jason funderburker 3. Benjamin Franklin 2. Mr. President 1. kitty</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Maxton</t>
+          <t>Lucy</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2020/03/25</t>
+          <t>2020/10/29</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>- “I know I’m poor.” - “I don’t care about that, Chicó! But if you at least had a degree!” - “I’m a PhD in hidden sciences, dramatic philosophy, dogmatic biology, charlatanic perversion, electronic astrology.”  the first half of this film is a slapstick masterpiece, like an adult, live-action version of Looney Tunes or Emperor’s New Groove with religious undertones. the entire cast is colorful, magnetic, and impossible to hate, and familiar tropes are turned on their head brilliantly. and THEN the religious undertones…</t>
+          <t>SO WE CAME HERE TO BURGLE YOUR TURTS</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.25</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Darren Carver-Balsiger</t>
+          <t>𝐇𝐞𝐚𝐭𝐡𝐞𝐫 🌷</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2020/07/17</t>
+          <t>2020/09/15</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Humour is super subjective and varies a lot between cultures. Different points of reference inevitably make comedy hard to translate. So watching comedy films from other countries is very unpredictable. Sometimes things click and other times they don't. As a Brit, I even find American comedy quite different in emphasis and style than British comedy. So this then leads me to A Dog's Will, one of the most popular and beloved Brazilian films of all time. It has very little…</t>
+          <t>Oh, Potatoes 🥔 and Molasses! 🕺🏻💃🏻 If you want some, 🤲 oh just ask us 💬 There're 🔥warm and soft like puppies🐶 and socks🧦 Filled with cream🍨and candy rocks🍬 Oh, Potatoes🥔 and Molasses!🕺🏻💃🏻 They're so much 🍭sweeter than algebra 🔢 class If your stomach 😋 is 😋 grumbling 😋 And your mouth 👄 starts mumbling 🗣 There's only one thing 1️⃣to keep your brain 🧠 from crumbling Oh, Potatoes🥔 and Molasses!🕺🏻💃🏻 If you ❌ can't see 'em 👁👁 put on…</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>-0.75</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>amanda</t>
+          <t>cookie</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2022/05/25</t>
+          <t>2020/03/07</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -609,11 +609,11 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>— Fui logo dizendo "I love you" e ela se derreteu todinha... — I love you? — É. Quer dizer morena em francês.</t>
+          <t>jason funderburker you’re nothing</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="8">
@@ -622,12 +622,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Chris 🍉</t>
+          <t>demi adejuyigbe</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2018/04/12</t>
+          <t>2021/11/02</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -635,11 +635,11 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ok .... this was honestly one of the funniest things ive ever seen and then fernanda montenegro showed up and i started crying so... in short? a masterpiece</t>
+          <t>I always forget that Greg is the absolute platonic ideal of a character to me. Just perfect in every way. Can’t think of a show that wouldn’t be approved with his addition!   “You can hold my hand Jason Funderberker, I don’t care.”</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="9">
@@ -648,24 +648,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SilentDawn</t>
+          <t>Karst</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2020/08/03</t>
+          <t>2020/09/18</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>78  Gosh, this is just furiously fast-paced, isn't it? Especially in a few key moments, I had to rewind just to catch up, mostly because I was laughing at one joke for a little too long. It's quite funny - often to the point of becoming manic: exploding off the screen because it can't quite control the breakneck pacing of its epic canvas. It works in its favor, though, eventually coalescing into a mixture of sublime character moments and satirical,…</t>
+          <t>I want the opossum with the human-like shoulders in episode 3. He’s so good at guitar. Give him a spinoff already!!! Cmon!!</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="10">
@@ -674,24 +674,24 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Will</t>
+          <t>ele 🪷</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2020/04/24</t>
+          <t>2018/04/09</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Why on earth is this number 8 on the Official Top 250 Narrative Feature Films list!?!  It's not... good.</t>
+          <t>wirt just wanted to give his girl a mixtape of his poetry and him playing the clarinet and I want him to know that I support him</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>-1.75</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="11">
@@ -700,24 +700,24 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>😿Andrew Chrzanowski😿</t>
+          <t>˗ˏˋ suspirliam ˊˎ˗</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2019/05/19</t>
+          <t>2018/08/16</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>☆"If people died of stupidity, you'd be long gone."☆  Sometimes, things just don't translate well.  I don't mean literally, although that is also true I suppose. I mean in a cultural sense, in a sense that unless you are truly part of a heritage or a peoples, you may not understand references or nuances or even perhaps an entire story. Or, a much loved film, one that is in fact the highest-grossing movie in one country's cinematic history.   And thus…</t>
+          <t>can we get more dark and spooky yet emotional and beautiful animated masterpieces like this please !!!</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>-2.75</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="12">
@@ -726,24 +726,24 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>james💫</t>
+          <t>James (Schaffrillas)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2020/04/15</t>
+          <t>2023/08/28</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Brazilians stay winning</t>
+          <t>Reminds me of Infinity Train Season 1! You know, the nice, charming, good one that paved the way for the masterpieces that were Seasons 2 and 3  Though to be fair Infinity Train doesn't have Greg</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.75</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="13">
@@ -752,24 +752,24 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Zegan</t>
+          <t>feat. dante from the dmc series</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2021/04/11</t>
+          <t>2017/08/17</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Only Brazilian people will understand.</t>
+          <t>here, eat your dirt.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>-0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="14">
@@ -778,24 +778,24 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Drew</t>
+          <t>Karst</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2020/05/08</t>
+          <t>2023/10/01</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Coronavirus Quarantine Film #37   Every once in a while, a strange phenomenon occurs on Letterboxd. Maybe it was Into the Spider-verse subverting everyone’s expectations by taking over as the highest-rated animated film of all time out of nowhere. Or, more notably, Parasite edging out The Godfather as the highest-rated film on the whole entire site. However, maybe the longest-running anomaly on the website piqued my interest. Nearly every time I visited the Letterboxd Top 250, I noticed the steady rise…</t>
+          <t>CHILLS when the highway man shows up</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="15">
@@ -804,24 +804,24 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>cinemacl🎃wn</t>
+          <t>SilentDawn</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2020/06/15</t>
+          <t>2019/07/25</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>The only reason A Dog's Will (O Auto da Compadecida) even surfaced on my radar is coz of its inexplicably high position on Letterboxd Top 250 list. The film doesn't have much of an international presence yet it appears to be held in high regard by Brazil's local audience and is supposedly a staple amongst their most beloved feature films.  For an outsider like me however, this was a chore. Cheap production value, over-the-top characters, exaggerated acting &amp; an onslaught of…</t>
+          <t>83  For the autumn leaves and the candle-light, for the crescent moon and the creatures roaming storied paths in which they find solace; a new world is granted for two young boys, discovering that reality is merely a journey from one grove to another. As touching as it is expressive, this miniseries is carried by the wind towards the chill of a slowly setting sun; an experience lifted by levity and pummeled by adolescent awkwardness. At once a poisoned treat for the onset of Fall and a reminder of its clammy, eternal embrace. Such a cozy, wonderful thing.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>-1.75</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="16">
@@ -830,12 +830,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>talita</t>
+          <t>kj</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2020/11/01</t>
+          <t>2022/02/03</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -843,11 +843,11 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>CINEMA. pra sempre o maior e melhor, poderia assistir todo dia que seria como a primeira vez. nenhum está a cima deste!</t>
+          <t>why read dante’s inferno when you can watch this instead</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="17">
@@ -856,12 +856,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Zenzão</t>
+          <t>amaya</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2023/06/19</t>
+          <t>2020/02/28</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -869,51 +869,51 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>"A cachorra cumpriu sua sentença. Encontrou-se com o único mal irremediável, aquilo que é a marca de nosso estranho destino sobre a terra, aquele fato sem explicação, que iguala tudo o que é vivo num só rebanho de condenados. Porque tudo o que é vivo morre."</t>
+          <t>i mean it's fine! it's ok. it's not like i've heard the soundtrack more times than my father's voice. i definitively enjoy this a normal amount</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Shivam</t>
+          <t>demi adejuyigbe</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2020/05/19</t>
+          <t>2019/09/25</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Not a fan of this at all, didn't work for me in any way sadly</t>
+          <t>absolutely peak cuteness</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>-3.25</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>maria eduarda</t>
+          <t>maria</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2019/09/28</t>
+          <t>2021/10/03</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -921,115 +921,115 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>pra cachorra bife passado na manteiga e pra chicó fome</t>
+          <t>i'm just so happy</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Graham</t>
+          <t>♦️•Lily•💋</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2020/06/21</t>
+          <t>2020/10/31</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>I tried. I really did.  OK, so having done a bit of research to reconcile the almost universally high ratings for this Brazilian movie to the experience I just had, I think I now get it.  Basically, as a non-Portuguese speaker... all of the funny stuff is entirely lost in translation. The subtitles entirely removed all of the nuance from the language and therefore, the comedy.  It's equivalent to watching Monty Python's Life of Brian in Swahili I guess. "He…</t>
+          <t>Greg with his silly little frog and the silly little teapot on his head</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>-0.75</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Will Steele</t>
+          <t>noah</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2021/06/24</t>
+          <t>2017/01/26</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Once upon a time in California, I was privy to an invaluable lesson in cultural exchange. My friend and I presented the British satire Brass Eye to a group of American college students. The reception was one of deafening silence. Any notion of laughter was promptly replaced with quiet confusion. Our absolute favourite comedy show was void of comedic value to this particular audience.  Only now do I know just how those college students felt. A Dog’s Will plays like…</t>
+          <t>myyy name is wirt and his name is greg, we're related cause my mom remarried and then gave birth to him with my stepdad. we're not from here, can u all give us some directions todaayy so we can be on our.... WWWAAAAYYYYYYYYY  (but seriously go watch this mini-series, it's probably one of, if not, the best mini-series out there)</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>-0.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ZombAid</t>
+          <t>oppie</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2019/02/19</t>
+          <t>2020/10/09</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Avoiding Hell,  at all cost!  Okay, what happened here?  Sure, it has some funny moments.  But overall it's just a comedy with no surprises, 2 half decent Main Actors and not much else. The absurdity is played out to the max and the jokes are mostly juvenile humor I'm used to, from the 80s.  And the overall message I got here, was live a good life and give all the money to the church, being poor is better anyway... So…</t>
+          <t>GREG IS THE PUREST THING I HAVE EVER SEEN I WOULD DIE FOR GREG</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>-1.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>petestavsf</t>
+          <t>demi adejuyigbe</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2022/08/22</t>
+          <t>2019/09/10</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>uh......  ➡️Filmes Nacionais rankeados</t>
+          <t>honestly i was tired and in a post-IT fugue when i watched this so i dozed off for a lil bit but this is so sweet and funny and lovely and i’m actually excited to watch it again</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>-2.25</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="24">
@@ -1038,24 +1038,24 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Stephen Gillespie</t>
+          <t>amaya</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2021/02/07</t>
+          <t>2020/03/08</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>A delightful comedy full of sly details and endearing nonsense. A cultural sensation in Brazil, and seemingly very culturally specific in ways that are lost on me. However, there is a relentless charm and invention here that can appeal to all.  Matheus Nachtergaele‘s performance as Jack the Cricket is sublime. He’s a great physical comedian and uses creativity and quick with in increasingly imaginative scenarios. There is a decent amount of word play but it is the farcical set pieces…</t>
+          <t>"A" is for the apple that he gave to me :) but i found a worm inside :(</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="25">
@@ -1064,12 +1064,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Viren</t>
+          <t>CinemaJoe</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2023/12/16</t>
+          <t>2023/10/11</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1077,11 +1077,11 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Surprisingly Enjoyable!  A total gem that mixes humor, drama, and a bit of a reality check. Directed by Guel Arraes, it's based on Ariano Suassuna's play and brings Brazilian culture to life in the quirkiest way possible with its colorful characters and satirical narrative.  Beyond the laughs, 'O Auto da Compadecida' delves into social issues, offering a poignant critique of societal hypocrisy and injustice. The character dynamics, combined with the film's unique blend of folklore and satire, make it a…</t>
+          <t>A good example of an experience that’s enhanced tenfold when it’s watched surrounded by friends.  Someone play two old cats with me now.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.75</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="26">
@@ -1090,64 +1090,64 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>jean</t>
+          <t>aleph beth null</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2020/09/15</t>
+          <t>2015/10/31</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>"Encontrou-se com o único mal irremediável, aquilo que é a marca de nosso estranho destino sobre a terra, aquele fato sem explicação que iguala tudo o que é vivo num só rebanho de condenados, porque tudo o que é vivo, morre."</t>
+          <t>eighth or maybe ninth rewatch and i'm still discovering new little connections and kindnesses in this relentlessly melancholy (kierkegaardian?) work of love. bodies and the material world are affirmed all over the place:  — auntie whispers and adelaide are never ever mocked for their frames or non-passing voices — bells stubbornly remain stuck inside frogs even outside the unknown — resurrected pottsfielders require glorified/pumpkinified bodies (reclaiming the satires of seneca jr, zomg) — 'no, no, not a wish, i'm not…</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.25</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>{Todd}</t>
+          <t>Drew Clark</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2021/05/07</t>
+          <t>2021/10/12</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>"I do not know, I just know that was this way." -Chico,   Good for them.   Never in my life have I been more confused or felt more disconnected from a critically acclaimed comedy. I'm glad people really enjoy this but for me it was like a trip to the dentist. I have been told that it is a film where understanding Brazilian culture is essential so I assume that's the problem because I did have issues with the content, never feeling like I was completely in on the joke.   Sure it's just not for me.</t>
+          <t>This show had a strange familiarity about it. Like I’d seen it all before in a forgotten dream from when I was younger.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>-1.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>maiara</t>
+          <t>nathaxnne [hiatus &lt;3]</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2020/10/20</t>
+          <t>2016/10/31</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -1155,11 +1155,11 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>que tristeza que deve ser não nascer no brasil e não poder apreciar uma obra de arte dessas em sua totalidade</t>
+          <t>To find oneself in a dark wood, not in the middle of life, but somewhere closer to its start, would indeed be maybe better, a pilgrim without progress, where you were is where you were all along and you were there and you were there and you were there from the fall on into the winter and the waiting until spring. The stories that aren't true might be true anyway or at least illuminatory, as something to burn that gives…</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="29">
@@ -1168,24 +1168,24 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>jaystevens</t>
+          <t>🌻 lindsay 🌻</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2021/08/23</t>
+          <t>2020/01/08</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Ok its pretty good but it's also rated higher than -shawshank -spiderverse -inglourious basterds -empires strikes back -spirited away -godfather 3 -SHREK 2!!!!!! -a silent voice -h8ful 8 -se7en -tsn -la la land -interstellar -little miss sunshine -megamind -ratatouille -paddington 2 -back to the future -your name -fight club (haven't seen) -do the right thing -casablanca -every mission impossible movie -raiders of the lost ark -central station -goodfellas -shutter island -inception -the prestige  On a side note, now I've seen 6/10 of the letterboxd top 10! Yay!</t>
+          <t>Oh potatoes! And molasses! If you want some oh just ask us!</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>-0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="30">
@@ -1194,168 +1194,168 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Jack Moulton</t>
+          <t>adambolt</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2018/12/01</t>
+          <t>2020/08/10</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>This is on the Letterboxd top 250 but it's kind of unbearably amateur. Maybe some charm in Brazil, but not for me. I'm not one for overtly religious stories unless they're done very well anyway.  I think I'll wait on a new restoration because obviously the version I watched was fairly low quality and apparently the English subtitles aren't great. I'll give it another chance later on.</t>
+          <t>if i ever get lost in the forest i want Greg with me at all times</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>-1.25</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Rashid N.</t>
+          <t>Fam Squad Yeet</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2020/12/14</t>
+          <t>2020/05/23</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>One of the most hotly divided films in the film community has to be the Brazilian comedy A Dog's Will which is currently available on Vimeo for free and with English subtitles.  There seems to be two type of people when discussing this feature and these two are the Brazilians who adore this film because it means a lot to them and the others who are unable to enjoy this film since it gets lost in translation yet they still…</t>
+          <t>Over the Garden Wall is on of those rare shows that are masterfully crafted. Like Adventure Time it perfectly captures that sense of Child-like whimsicality for adventure and the underlying evils of the world. The show is dark and moody with it’s perfect animation, brown color palette, and mysterious score. Yet it’s so light with its message and star-eyed Gregory’s knack for looking at the best side of everything.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>-2.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Rory</t>
+          <t>celia</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2020/01/01</t>
+          <t>2019/09/10</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>You know I wanted to start 2020 with a good movie, so I thought I would pick a foreign movie I knew very little about with a 4.4 average rating on Letterboxd.com as a movie to start.                              I was wrong.</t>
+          <t>it’s just a wholesome lil show about 2 brothers in purgatory and i like it very much</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>-3.25</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>🌻 lindsay 🌻</t>
+          <t>feat. dante from the dmc series</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2020/06/04</t>
+          <t>2016/08/12</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>easily the weirdest installment in the dog’s purpose franchise but probably not the worst. I thought it was kinda funny</t>
+          <t>oh my god???</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>-0.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Rodrigo Homsi</t>
+          <t>reibureibu</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2023/06/25</t>
+          <t>2021/11/07</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Já visto anteriormente e não catalogado, não revisto porque esse é daqueles que grudam na memória, o erro foi não ter registrado antes. Uma minissérie televisiva que virou filme. O potencial era tão grande que mesmo editado se tornou um sucesso no cinema. Um casamento perfeito entre roteiro e atores, uma comédia brasileira única. Ariano Suassuna criou algo muito especial quando escreveu essa peça.</t>
+          <t>Takes me back to a place in my life where the world was simpler and I was happier. Both of which, to be fair, were mostly due ignorance, but I can't say I don't miss it.  The falls at my campus were some of the most beautiful I've ever seen. There's something real special about the golden-brown myriad of leaves pigmenting the streets, the gentle nippy drafts which coax out the coat-layering expert in us all, the encroaching time of…</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.25</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>evilbjork</t>
+          <t>cookie</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2020/06/03</t>
+          <t>2021/09/30</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>My deepest apologizes to Brazil. I'm from the US so that pretty much explains it all as to why I didn't like it. Although a huge amount of my favorite films come from a variety of cultures and time periods, this is nearly impossible to understand. It simply doesn't cross the cultural divide.</t>
+          <t>always leaves me wishing i had a little half brother 🍂</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>-2.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>gio</t>
+          <t>Caleb Johnson</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2020/06/21</t>
+          <t>2021/10/13</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1363,25 +1363,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>queria ter a perspicácia de joão grilo, esse com certeza passaria no enem</t>
+          <t>This was a weird experience. Not due to the content of this, but due to the circumstances in which I started to watch this. I was asleep for the night, but then had one of those nights where I kinda just randomly woke up at 3 a.m. and couldn't get back to sleep. So you better believe your boy popped on the TV to watch something. I don't know what made me think of it, but I suddenly remembered I…</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>IvanBatista</t>
+          <t>‮🐌‬</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2023/08/06</t>
+          <t>2021/09/25</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1389,25 +1389,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Dia desses, enquanto passeava pela tela inicial do YouTube, me deparo com 'O Auto da Compadecida'. Surpreso, por não ser do YouTube Filmes (pago), cliquei e fiquei estarrecido com a boa qualidade de imagem. Foi aí que resolvi reassistir o que, para mim, é um dos maiores atos do cinema brasileiro. Não canso de dizer que é meu favorito, principalmente por ter marcado minha infância.  Gostaria de saber o porquê a média se encontra em 3,9, no Letterboxd, sendo que…</t>
+          <t>*sees one brown leaf*   Į̷̡̛͉̳͖͚̞̜̖̮̋́̆̎̉́͝Ṭ̴̡̬̗̈́̀̅̊̌́ ̶̥̫͓͇̘̀̉͗I̷̧͖͆͗̔̽̿́͘͝͝S̶̡̹̠̰̗͎͈͖̑̋̓̒͊͠ ̸̠̟͙̃̍ͅT̸̡͚̦̥͕͕̖͔̣̅̃́͐̓̋͐̑̾̾͜Ĭ̵̧̢̥̱̠̦͉͚̗͚̾̇̎͊M̵̘̟̘̰̊̓E̴͚̰̖͉̙̣̩̅̀͑̐͂</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ké</t>
+          <t>single white femalien</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2022/11/04</t>
+          <t>2017/10/12</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -1415,103 +1415,103 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>alguem traduz? o idioma está em OBRA PRIMA</t>
+          <t>always a wonderful n sweet lil falloween treat</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Game Player</t>
+          <t>SARAH🦕</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2021/01/20</t>
+          <t>2021/10/14</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>I don't understand how this is on the 9th spot on the letterboxd "top 250 Narrative Features." If you go and read the reviews of people who rated this 5/5 they are mostly in Portugese, no shock there. Is this a cultural thing? This movie shows that if enough people rate a shit movie 5/5 it can somehow get on the letterboxd top 250 list. Please go and rate "Cool Cat Saves the Kids" because even that movie was more entertaining than this garbage.</t>
+          <t>Utterly fantastic but I have to come clean and admit that for a long time whenever I heard people talk about this I thought they were talking about over the hedge    Also more like jason funderFUCKER amirite</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>-3.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>louferrigno</t>
+          <t>cookie</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2019/07/15</t>
+          <t>2023/10/01</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Among the night terrors that go on in the comment section of Letterboxd's top 250 Narrative films of all time (such recent highlights include people not understanding how an average works and complaining they're favorite film isn't on it, people complaining that there are non-American films on that list, numerous debates over whether or not Into the Spider-Verse really is one the best films ever made, and incels. Someone best described it as a "hellish cesspool", and that's a pretty…</t>
+          <t>this movie is so good they have to play the credits ten times thru out</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>-1.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>DIREKTIONZ</t>
+          <t>🌻 lindsay 🌻</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2020/06/01</t>
+          <t>2023/10/07</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>“A Dog’s Will” or “O Auto da Compadecida” is a Brazilian film by Guel Arraes. It’s the 8th highest rated film on letterboxd so I was genuinely curious about this film and why it’s considered a masterpiece and after I watched it I can definitely say that I’m as curious as before. I’m actually even more confused what’s going on with this film. Why do people love this so much?  Trying to understand the appeal of this film I did…</t>
+          <t>ain’t that just the way</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>-2.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>𐙚.ᐟ Nick ᡣ𐭩.ᐟ🐧</t>
+          <t>jeaba</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2024/01/24</t>
+          <t>2023/09/05</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1519,37 +1519,37 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>filme que minha família inteira já assistiu,menos eu</t>
+          <t>the best movie to watch at the beginning of september. happy over the garden wall season everyone!!</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Prabhu</t>
+          <t>Jessica Wessica</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2023/06/07</t>
+          <t>2023/08/28</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4.6⭐ - "Oh, I love a tough man!"🤣  This is one of the Most Brilliant &amp; Hilarious Comedy Movies Ever!❤️😂  I was seriously sad that I didn't know Portuguese/Latin language, while watching this movie. Every actors/actresses had done a phenomenal job with their acting and with their body language while delivering the dialogues. Especially Grilo, Dora &amp; Chico are impeccable with their body language and their way of speaking the dialogues. Seriously I really wanted to know Portuguese language so that I…</t>
+          <t>Greg the Egg was my favorite character  "We're here to burgle your turts"</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.75</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="44">
@@ -1558,24 +1558,24 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Puffin</t>
+          <t>East Clintwood</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2019/10/24</t>
+          <t>2023/05/21</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Letterboxd Season Challenge: Week 6 — South American Cinema  When the year began, A Dog's Will was hovering around the #50 spot on the Letterboxd Top 250. Currently, it stands at #20 (Earlier this week, it stood at #19.) Of all the films I will review as a part of this season challenge, A Dog's Will is the highest rated on the whole website. Three Colors: Red, Raging Bull, An Autumn Afternoon, Nostalgia, Network, and more... all lesser in rating.…</t>
+          <t>Spirited Away but for lunatics</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>-0.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="45">
@@ -1584,24 +1584,24 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>gustavo</t>
+          <t>Mario 🟠🟢🔵</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2020/05/26</t>
+          <t>2023/10/07</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>dona dora uma mulher inteligente uma mulher evoluída uma mulher bandida ela eh quem eu quero ser quando crescer... não bastando aquele tesão do padeiro ainda ficou com chicó that’s my aesthetic that’s my goal that’s what i want to achieve! ps: a representação mais linda e carismática que ja vi de jesus e nossa senhora por um segundo considerei me converter ao catolicismo</t>
+          <t>Just Elijah Wood doing Frodo things again. Being a little guy, wandering around with this other little guy, having adventures, fighting darkness and stuff. Absolutely fucking loved it! Animated Movies Ranked 8.5/10</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.25</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="46">
@@ -1610,24 +1610,24 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>GlennGGM</t>
+          <t>jeaba</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2021/09/08</t>
+          <t>2023/11/28</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>so this film is such a joy! it is so much fun and so silly but I love it. I don't think it deserves to be one of the highest films on letterboxd but it was certainly a brilliant watch and one of the most entertaining I've ever seen. it's almost like a comedic The Seventh Seal. It's Week 6 for film club (still haven't watched week 5, In The Name Of The Father.)   Overall: 9.6/10</t>
+          <t>it makes so much sense that wirt is a child of divorce</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="47">
@@ -1636,24 +1636,24 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Stringer Bell</t>
+          <t>rudi</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2023/02/04</t>
+          <t>2021/10/18</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Well, today I learned Letterboxd's top 250 can't be trusted. (I knew this already but this is one of the more baffling entries to hit the top 5)  Over the top and silly. It gets points for being pretty original but I think this probably works better as a play or series. Too much is lost in translation and while I can appreciate the cultural appeal and significance, this has way too much of a low budget feel and hokey execution for me to enjoy it.  Not even in the top 150 films I've seen in 2023.</t>
+          <t>Potatoes and Molasses written like a fiona apple song</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>-1.25</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="48">
@@ -1662,24 +1662,24 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Christian Ryan</t>
+          <t>👽 Zara 👽</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2021/07/30</t>
+          <t>2020/11/01</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Remember that 2015 MLB All-Star vote, when 8 out of 9 starting positions were at one time slotted with players from the Kansas City Royals? People said it tarnished the system's credibility; they said it made baseball look dumb - and yeah, it probably did - but as a dyed-in-the-wool Royal's fan, I couldn't care less what they said. I had no problem with the ballots being stuffed with players I loved. We hadn't broken any rules, just exploited the…</t>
+          <t>frogs !!!!!!!!!!!!!!!!!!!!  that’s all :)</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>-0.25</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="49">
@@ -1688,64 +1688,64 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Maximilian Rønseth</t>
+          <t>Wesley R. Ball</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2020/08/05</t>
+          <t>2016/06/22</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>To be fair, you have to have a very high IQ to understand A Dog's Will. The humour is extremely subtle, and without a solid grasp of brazillian culture most of the jokes will go over a typical viewer's head. There's also Jack's nihilistic outlook, which is deftly woven into his characterisation- his personal philosophy draws heavily from Narodnaya Volya literature, for instance. Brazillians understand this stuff; they have the intellectual capacity to truly appreciate the depths of these jokes,…</t>
+          <t>I was unaware that Cartoon Network shows can also be cinema.  I've been in some kind of slump out of watching movies lately and I've gotten myself lost in the worlds of Adventure Time and Regular Show. I'm kind of trying to get some changes made in my current life situation that created some strange addiction to watching Adventure Time nearly nonstop, like it actually takes me to some safe, happy place that reminds me of a simpler time in…</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>-1.25</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Jason Huang (黃擎元)</t>
+          <t>Alice Stoehr</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2021/07/27</t>
+          <t>2016/06/30</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Honestly pretty hard to sit through. There's no dramatic core to the film, and I couldn't really resonate with the humor. That being said, I understand (from a lot of the reviews here) that it's mainly a cultural thing and that a lot was lost in translation. Just wasn't for me though.  It's weird that the film begins with people holding a The Passion of the Christ poster though. I thought that film came out like... four years later than this film.  Probably would have never heard of this film if it weren't for this website.</t>
+          <t>This musical fantasy evokes a range of influences—The Wizard of Oz, Spirited Away, Edward Gorey, the Fleischer Bros.—while sustaining a glissando across a whole spectrum of emotions, from goofy to wistful to heartbroken and back again. It's a world of its own, sparkling new but faintly familiar. (Here's Christopher Lloyd, and there's Tim Curry: the cartoon antagonists of decades past.) Jokes and myths, which I suspect may be interchangeable, accumulate into a compact edifice that you can ascend and gaze down from, at which point you may as well clamber back down and watch all ten episodes again.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>-2.25</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>tor</t>
+          <t>jeaba</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2023/11/28</t>
+          <t>2023/03/23</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -1753,155 +1753,155 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>"num sei, só sei que foi assim."  e bem aqui o cinema brasileiro foi criado, com joão grilo e chicó sendo os primeiros mentirosos do brasil</t>
+          <t>the perfect watch for a rainy day. so cozy!!</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>girlsonfilm</t>
+          <t>Mario 🟠🟢🔵</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2023/05/23</t>
+          <t>2024/03/16</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>O testamento da caxorra (com x não é pecado) enterrada em latim KKKKKKKKKKKKKKKKKMKKKKK</t>
+          <t>Wasn't planning on rewatching this until autumn, but I had a shitty day and needed a comfort watch. Animated Movies Ranked 9/10  Edit: 4000th review 🥳🥳</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.25</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Leighton Trent</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2020/01/09</t>
+          <t>2021/10/23</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Isso é hora de chegar numa casa de rexpeito? Aqui você num entra nem com a mulesta do cachorro doido, vai dormir é na rua pra todo mundo conhecer a qualidade de mulher traidora que você é.</t>
+          <t>As precious and as magical as anything Cartoon Network has produced.   Nothing else puts me in the spirit of Halloween, and Autumn in general, like this does 🎃 🍂       💀 All the Spooks 2021 💀</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.25</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Noah Thompson</t>
+          <t>maiapog</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2021/04/13</t>
+          <t>2023/10/09</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Bless the bitch?  Perhaps the most controversial film to be featured on Letterboxd's Top 250. I had little to no expectations going into this, because I had no clue what I would make of it. I can thankfully say I found this to be a fun film. One of the best ever made? Not remotely if you ask me, but I recognize that I'm not its target audience. A Dog's Will made me think of, to name a few artists…</t>
+          <t>"It's even growing inside him!" "No, I was just eating leaves."  Re-watched this morning while sipping on a pumpkin latte... IT'S FALL BABY! A perfect show. I love Greg with my whole heart. Peak example that being silly is of the utmost importance. Animation again being the best medium ever!!!!</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>-0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>fatpie42</t>
+          <t>Sally Darr</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2018/06/10</t>
+          <t>2021/04/10</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Best thing: There are so many great characters, but a farcical sequence where the baker's wife finds she has double-booked her lovers is absolutely hilarious.  Worst thing: While I think it works just fine this does go VERY Catholic towards the end. Even then, however, the jokes keep coming.  When I was looking through most popular movies on Letterboxd, this one came up. Most reviewers seem to be from Brazil and my one Letterboxd friend who had even seen it…</t>
+          <t>all of this because Wirt wanted to give a girl a mixtape of him reading poetry and playing clarinet playing he’s a keeper and Greg can burgle my turts with doctor cucumber any day</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.25</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Taylor Leverage</t>
+          <t>brynn helena</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2023/07/02</t>
+          <t>2021/10/04</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>You can always call on black Jesus.   Still not entirely sure why Letterboxd considers this film to be among the very best ever made (at least, before the algorithm stripped the film of its position in the Top 250), but despite the rough quality of the visual effects and the stage play origin, A Dog's Will still cleverly combines screwball comedy with heady concepts about faith. Most of it is very fast-paced, as cross-eyed, silver tongued peasant João (Matheus Nachtergaele)…</t>
+          <t>this is regular show but for queer, dark academia kids</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>sarinhaa</t>
+          <t>🌻 lindsay 🌻</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2021/08/27</t>
+          <t>2020/09/26</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -1909,155 +1909,155 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>um dos melhores de comédia que eu ja assisti disparado, queria tanto que o brasil voltasse a ter umas comédias assim que não fossem apelativas ao óbvio. e esse filme além de comédia tem uma fotografia e montagem de roteiro muito boa que te prende até o ultimo segundo assistido, e as cenas finais foram o que definitivamente fizeram o filme ficar ainda melhor.  e eu sou a filha perdida do casamento da rosinha com o chicó!</t>
+          <t>My love for this show comes from the same part of me that feels a swell of happiness when I feel the crisp air of fall.   Summer has never been a time of the year where I feel relaxed. It’s actually always been the most stressful times of the year for me. When I was younger, it was a break in my routine that went on for too long. When I have nothing that I have to do, I just…</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ClinTarantino</t>
+          <t>{Todd}</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2020/04/19</t>
+          <t>2019/10/03</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Puuh. Ex #1 western rated movie is anyhow a western but not really an one for me. The first 30 minutes aren’t that bad and nearly enjoyable but then as more religious the movie gets as more I was out and even more wondered why this is as high rated. Probably the most overrated movie I’ve ever seen. Glad it’s not anymore a western because The good the bad and the ugly is back at the top spot it deserves…</t>
+          <t>"That's vague, what does that mean?" - Wirt,   Beatrice the annoyed Blue Bird is LITERALLY my spirit animal... you hear that, LITERALLY?   Show this to your kids! They deserve to have this treasure as part of their memories of when they began to get fucked up. The creator of Adventure Time, one of my favorite shows, decided to do something more long-form and a bit more grounded and scary and it is fantastic. Two young child brothers, Wirt and Greg,…</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>-1.25</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Sean Burdett</t>
+          <t>cookie</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2021/04/05</t>
+          <t>2020/10/29</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>18/100  I really don't feel like talking about this. Every joke fails miserably for me, and I hate the constant objectification of women. There's probably commentary here, but none of it worked for me. If you like this, good for you, but I did not have a good time in the slightest. The set in heaven was kinda cool doe. Wouldn't recommend this to anyone who's not extremely familiar with Brazilian culture.</t>
+          <t>ive seen it a million times but watching it over facetime with lucy was the hardest ive ever laughed during it (:</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>-2.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>sinceblackwidow</t>
+          <t>Leighton Trent</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2023/01/05</t>
+          <t>2022/10/16</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>O maior ato do cinema brasileiro!!!</t>
+          <t>Oh, potatoes and molasses If you want some, oh, just ask us They're warm and soft like puppies in socks Filled with cream and candy rocks Oh, potatoes and molasses They're so much sweeter than algebra classes If your stomach is grumblin' and your mouth starts a-mumblin' There is only one thing to keep your brain from crumblin' Oh, potatoes and molasses If you can't see 'em, put on your glasses They're shiny and large like a fisherman's barge You…</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.25</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>LinusMxx</t>
+          <t>Justin Decloux</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2021/05/26</t>
+          <t>2021/08/30</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>B  Some of the humor gets lost in translation, but overall, this absurdist Brazilian comedy was still pretty funny. Idk but the comedy reminded me a lot of Monty Python. Now, I've only seen Holy Grail but I had more fun with this film and I thought it was a lot better than what Monty Python had to offer lol.</t>
+          <t>The perfect Fall Watch.   It's got dancing pumpkin skeletons, an amazing rock fact-centric sense of humour, and creepy concepts strained through 30s Fleischer cartoon imagery. Does this feature the last example of John Cleese giving a hilarious performance?   I know it's got a cult following, but I can only imagine how packed the shelves of Hot Topic would be with GARDEN WALL: merch if this had been released as a theatrical film.   And so the story is complete and everyone is satisfied with the ending. And so on and so forth...</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>-0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Balder</t>
+          <t>claira curtis</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2020/01/06</t>
+          <t>2023/09/26</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Awful, just god damn terrible. I know why this anomaly is rated so highly on the Letterboxd Top 250 Movies, and that is because there are only Brazilians who have watched it, and they inflate the score by giving it 5's when it should be getting 1's. This is such a boring and dumb film, but the worst part of it all is just how unfunny it is. Humor is not the easiest thing to translate across countries, but I…</t>
+          <t>“Where… are we?”  “In the woods.”  “I mean… what are we doing out here?”  “We’re walking home!”   Where a forest is not just a forest, a walk home is not just a simple home, an ask for help can bode more harm than aid, a lantern may cast a larger shadow rather than shine a light in the dark, and where the thing that matters most in this world, and the next, is your brother.   It’s time for fall. It’s time for the yearly Over the Garden Wall rewatch. It’s time to come home.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>-2.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Gabriel Soares</t>
+          <t>Lee ॐ मणि पद्मे हूँ</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2024/05/25</t>
+          <t>2021/09/17</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -2065,25 +2065,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Com 22 anos nas costas, estava deixando de apreciar essa jóia do cinema brasileiro. Antes tarde do que nunca, um clássico que marcou gerações. Hilário, comovente e divertido 💗</t>
+          <t>If dreams can't come true, then why not pretend?  Both a campfire horror about grief and the terror of the passing of time, and a whimsical fairy tale about responsibility and self determination. Note how many scenes involve a character telling a story. Cant help but well up over the Woodsman.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Lᥱvყ</t>
+          <t>Ash</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2024/01/27</t>
+          <t>2019/08/27</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -2091,77 +2091,77 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>"A cachorra cumpriu sua sentença. Encontrou-se com o único mal irremediável, aquilo que é a marca de nosso estranho destino sobre a terra, aquele fato sem explicação, que iguala tudo o que é vivo num só rebanho de condenados. Porque tudoo que é vivo morre."  Fernanda Montenegro simplesmente um orgulho para o cinema brasileiro!</t>
+          <t>🍁 • 🌲 • 🍂 • 💀 • 🐸 • 🐦 • 🎃 • 🍃 • 👻  {𝚆𝚒𝚛𝚝} 𝚆𝚎 𝚊𝚛𝚎 𝚋𝚞𝚝 𝚠𝚊𝚢𝚠𝚊𝚛𝚍 𝚕𝚎𝚊𝚟𝚎𝚜, 𝚜𝚌𝚊𝚝𝚝𝚎𝚛𝚎𝚍 𝚝𝚘 𝚝𝚑𝚎 𝚊𝚒𝚛 𝚋𝚢 𝚊𝚗 𝚒𝚗𝚍𝚒𝚏𝚏𝚎𝚛𝚎𝚗𝚝 𝚠𝚒𝚗𝚍.  𝕎𝕀𝕃𝕃 𝕐𝕆𝕌 𝕋𝔸𝕂𝔼 𝔸 ℙ𝔼𝔼𝕂?  𝐓𝐡𝐢𝐬 𝐢𝐬 𝐭𝐡𝐞 𝐬𝐰𝐞𝐞𝐭𝐞𝐬𝐭 𝐭𝐡𝐢𝐧𝐠, 𝐚𝐧𝐝 𝐈 𝐚𝐥𝐰𝐚𝐲𝐬 𝐜𝐨𝐦𝐞 𝐛𝐚𝐜𝐤 𝐭𝐨 𝐢𝐭 𝐰𝐡𝐞𝐧 𝐈 𝐰𝐚𝐧𝐭 𝐭𝐨 𝐰𝐚𝐭𝐜𝐡 𝐬𝐨𝐦𝐞𝐭𝐡𝐢𝐧𝐠 𝐰𝐡𝐨𝐥𝐞𝐬𝐨𝐦𝐞. 𝐈 𝐥𝐨𝐯𝐞 𝐭𝐡𝐞 𝐚𝐮𝐭𝐮𝐦𝐧𝐚𝐥/𝐬𝐩𝐨𝐨𝐤𝐲 𝐭𝐡𝐞𝐦𝐞, 𝐚𝐧𝐝 𝐭𝐡𝐞 𝐛𝐚𝐧𝐭𝐞𝐫 𝐛𝐞𝐭𝐰𝐞𝐞𝐧 𝐆𝐫𝐞𝐠 𝐚𝐧𝐝 𝐖𝐢𝐫𝐭 𝐢𝐬 𝐚𝐝𝐨𝐫𝐚𝐛𝐥𝐞. 𝐈 𝐰𝐢𝐬𝐡 𝐭𝐡𝐢𝐬 𝐬𝐡𝐨𝐰 𝐰𝐚𝐬 𝐨𝐧𝐠𝐨𝐢𝐧𝐠...  {𝚆𝚒𝚛𝚝} 𝚃𝚑𝚘𝚞𝚐𝚑 𝙸 𝚊𝚖 𝚕𝚘𝚜𝚝, 𝚖𝚢 𝚠𝚘𝚞𝚗𝚍𝚎𝚍 𝚑𝚎𝚊𝚛𝚝 𝚛𝚎𝚜𝚒𝚍𝚎𝚜 𝚋𝚊𝚌𝚔 𝚑𝚘𝚖𝚎 𝚒𝚗 𝚙𝚒𝚎𝚌𝚎𝚜, 𝚜𝚝𝚛𝚎𝚠𝚗 𝚊𝚌𝚛𝚘𝚜𝚜 𝚝𝚑𝚎 𝚐𝚛𝚊𝚟𝚎𝚢𝚊𝚛𝚍 𝚘𝚏 𝚖𝚢 𝚕𝚘𝚜𝚝 𝚕𝚘𝚟𝚎.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Corwyn 🇵🇸</t>
+          <t>Johnny2Cellos</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2022/06/20</t>
+          <t>2023/10/26</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>I don't know, but so it was.  So this movie has just managed to push its way onto the #5 spot of highest rated movies on here. A movie which, but for the Letterboxd Top 250 itself, probably wouldn't be known to most people outside of Brazil, whose population seems to be exclusively responsible for its staggering position on here.   Despite its ranking, I actually went in with very low expectations, and saw this more as a matter of checking…</t>
+          <t>Is the dove never to meet the sea, for want of the odious mountain?</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>-0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>pipeaks</t>
+          <t>{Todd}</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2021/10/28</t>
+          <t>2021/10/31</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>8.1/10 i understand why non-brazillians hate this movie, most of the comedy here is in the ways that the characters speak and how they use slang, so is really understandable me, as a brazillian, can appreciate this movie, it is fun and has some really clever jokes i don't think is the best brazillian movie, is not even close to be, but is a good movie to watch on some boring days the characters are really good too - eu…</t>
+          <t>"Holy moly, hot dog!" -Gregory,   Auntie Whispers is the scariest presence in anything that I've ever seen.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0.25</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>clarice🍷</t>
+          <t>final rosie 🔪</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2024/05/03</t>
+          <t>2020/05/23</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -2169,77 +2169,77 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>"I love you" Quer dizer morena em francês   Esse filme aqui tá marcado na vivência de muitos brasileiros, eu amava assistir quando passava na sessão da tarde</t>
+          <t>You know what's better than Over the Garden Wall? Watching it with a pretty lady -- the first lady you've ever dated -- and she holds your hand the whole time and laughs at all the same things you laugh at and she orders Mexican food and gives you wine and it's the best thing that's happened for you in this haze of alert levels and lockdowns and Unknown. Perfect, gorgeous, wonderful life. Ain't that just the way?</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>trix</t>
+          <t>jourdain searles</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2023/07/02</t>
+          <t>2015/01/11</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>imagina ser gringo e não entender a genialidade desse filme</t>
+          <t>Poetic. Understated. Lovely.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1.25</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Ollie</t>
+          <t>claira curtis</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2021/07/17</t>
+          <t>2020/10/01</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>4.5 average rating. 8th on Letterboxd’s Top 250 Narrative Features. That is a travesty. A Dog’s Will is beyond amateurish and might very well be the worst film I’ve ever seen. It genuinely feels like a parody shot on a £10 budget; the production values are non existent, the acting is crap at best, and it’s painfully stupid and unfunny. Shame on the Brazilian bots who tricked me into watching an hour of this utter horse shit.</t>
+          <t>🗣HAPPY HALLOWEEN FIRST 👻💀🎃  I only have ONE (1!!) president and their name is Kitty/Wirt/Greg/Ronald/Benjamin Franklin/George Washington/Skipper/Jason Funderburker/Mr. President/Doctor Cucumber!!!!!!!!!!   Starting Spooky Season off right with a delightfully wholesome and surprisingly creepy little mini series that I’ve been dying to see for quite some time. In the world of Trick Vs. Treat, Over the Garden Wall is an absolute treat.  1/31 of my October 2020 Halloween Watches :)</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>-3.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>sangui</t>
+          <t>jeaba</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2024/05/25</t>
+          <t>2022/08/25</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -2247,155 +2247,155 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>“- I love you quer dizer morena em francês.”  vaisifudeeee esse filme é bom dms</t>
+          <t>this is the closest i've come to finding something that fills the void that was created when i finished watching gravity falls. dipper pines and wirt could have been best friends in another life.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>vitor</t>
+          <t>Jesusmary</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2024/05/24</t>
+          <t>2024/01/29</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>INVENTOU o carisma cara que roteiro hábil e divertido que elenco apaixonanteee que timing cômico genial e que química perfeita dos atores em cena. um filme pra te deixar com um sorriso no rosto quase que o tempo todo acompanhando esses personagens maravilhosos. joão grilo, chicó e a compadecida QUERIDÍSSIMOSSS</t>
+          <t>Warning: Spoiler(s) ahead!   Man, I've never expected that I'd be bawling my eyes out over a cutesy CalArts-drawn animation. I know ominous twists were lying low out there but I genuinely did not see the last two episodes bushwhacking the heck out of my emotions coming. It was as though they were just biding their time hidden amongst the overcast amber of squash and autumn leaves, lulling me with a false sense of ease and assurance that the series will…</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>filmmovielovers</t>
+          <t>kat🕷</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2022/06/24</t>
+          <t>2023/10/12</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Being No.4 on Letterboxd’s Top 250 is something remarkable. The film must surely be one of the greatest of all time right?! Well let me tell you it’s not.   This felt like a C Movie made for some extremely casual watching on a sweaty Sunday afternoon in Brazil. It wasn’t even interesting or “funny” just extremely average.   I don’t like to really use the term “overrated” but I think considering this is No.4 on Letterboxd it sure is overrated.   I’m…</t>
+          <t>"Over the Garden Wall" may initially seem like a show for kids, but this mix of autumnal melancholy, surreal humor and American folklore (turkeys, pumpkins, village schools, etc.) it‘s not only far too dark in some places for younger kids, it‘s also contains numerous references, allusions to mythology and scope for interpretation, which will probably only be accessible to adults. In addition, the series has also very beautifully drawn visuals and old background music.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>-2.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Ruth</t>
+          <t>Cinema Strikes Back 🟣</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2023/09/12</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>um marco do cinema brasileiro né, ansiosa pro segundo!</t>
+          <t>Das ist wirklich eine DER schönsten animierten Serien da draußen! Gruselig und herbstlich, dabei wirklich witzig und originell. Mein Halloweenkostüm stehts auf jeden Fall 🐘 🎃!</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1.25</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>André Lucena</t>
+          <t>einslein</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2024/03/16</t>
+          <t>2024/04/29</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>“Jesus às vezes se disfarça de mendigo pra testar a bondade dos homens”.  O Auto da Compadecida (2000) é um filme baseado na peça teatral homônima de Ariano Suassuna. A obra é uma sátira que mistura elementos da cultura nordestina com críticas sociais e religiosas, apresentando uma visão cômica da vida no sertão.  A história gira em torno das aventuras de João Grilo (Matheus Nachtergaele) e Chicó (Selton Mello), dois amigos pobres que buscam sobreviver às dificuldades da vida em…</t>
+          <t>Wirt and Greg are the two voices constantly clashing for power in my head  (not beating the bipolar allegations today)  btw if my kids (if I have kids) don't fw OTGW one day, I have completely failed as a parent.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0.75</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>nora</t>
+          <t>ty</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2022/07/21</t>
+          <t>2019/02/06</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>BANGER!!! made me feel the way monty python makes everyone else feel. i love a film that's purely wacky especially when the main duo is a witty serial liar and a foolish silly coward (it's giving WHAT'S UP DOC, it's giving BRINGING UP BABY, it's giving THE LADY EVE).</t>
+          <t>I am crying on this rainy Wednesday morning. We need more animated stories like this 😩</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Thauanny Lima</t>
+          <t>han🐈</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2021/02/02</t>
+          <t>2021/10/03</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -2403,25 +2403,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Nota: 10/10  Inicialmente, os autos eram encenados em templos religiosos, depois nas portas de entrada das igrejas e pátios. Posteriormente, as apresentações passaram a acontecer em feiras, mercados e praças públicas, quando se torna um gênero dramático de feição popular. Foi nessa época também que, ao sair das igrejas, os autos passaram também a tratar de assuntos profanos. Não que havia autos religiosos e autos profanos, separadamente. O que ocorria era a coexistência dos dois elementos dentro da mesma peça.…</t>
+          <t>Rewatching this again😅The last episode always get me💔</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>brenda ✧.*</t>
+          <t>claira curtis</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2023/10/11</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -2429,25 +2429,25 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>eu quero um bichinho maior que minha solidão é muito grande  nós mulheres meio dora mãe de pet e cheia de amor pra dar 🤗</t>
+          <t>Thinking about how Wirt exclaims, “This is the end!” before dragging himself and Greg over the garden wall.   Thinking about how turtles are usually seen as good omens, but within the context of Over the Garden Wall, the black turtles that appear at some of the most crucial moments for the boys are tainted black with corruption and bring moments of terror instead of peace.   Thinking about how Beatrice’s dog, when transformed by the turtles, has the exact same glowing…</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Lyncoln</t>
+          <t>🌻 lindsay 🌻</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2020/08/26</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -2455,77 +2455,77 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>- Fui longo dizendo I LOVE YOU, e ela foi logo se derretendo.  - I Love You?  - Quer dizer morena em francês 🤣  Simplesmente uma obra prima do cinema brasileiro, simplesmente mágico e perfeito em todos os quesitos. O Auto da Compadecida é um filme místico e um marco na cultura brasileira, um filme que simplesmente da uma aula de carisma e construção carismática de personagens, simplesmente perfeito. O auto da compadecida conta a história de dois sujeitos que…</t>
+          <t>I love this show so much!! Rewatching it always makes me crave fall. I want chilly weather and sweaters and a hot coffee right now.   It’s just such a great little fantasy for kids and adults. It’s spooky but not scary. It’s deep but still full of humor. The dynamic between the siblings is so real - there’s so much annoyance but also love and fun and protectiveness.   The animation is gorgeous, the music is catchy and cute. It all…</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>guille</t>
+          <t>claira curtis</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2021/04/08</t>
+          <t>2021/08/29</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Sometimes my sick completionism leads me to the darkest of roads...  The fact that this sits 8th in all-time average rating above the likes of Ikiru, 2001, and There Will Be Blood has to be the most outrageous (and hilarious) case of collusion in letterboxd, props to the Brazilian community for such an admirable effort.</t>
+          <t>Last year I started my Halloween/Fall watch season by watching Over the Garden Wall, so naturally I had to do the same for 2021 as well.  Yes, I know it’s August 29th. I do not care. I have made the executive decision for all of us, the entire world, that Fall officially started today. Yes, even if you live in Australia where it is technically almost the start of Spring! It is now Fall across the globe, universe, and every…</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>-1.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>movienostalgia</t>
+          <t>cookie</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2020/01/13</t>
+          <t>2022/10/31</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>32  Dreadfully unfunny, full with terrible acting, dog abuse and off-brand Zucker Brothers humor, this film fails on all fronts. I don’t care if Brazil cherishes it; it shouldn’t be in Letterboxd’s top 10 films ever. Without even looking at a list of Brazilian films, I can already say that both Black Orpheus and City of God are vastly superior.</t>
+          <t>the entire series takes place during a quarter moon and it’s a quarter moon out tonight :o charlie made a mean spiced cider</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>-1.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Ana Lê</t>
+          <t>mikayla</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2020/01/08</t>
+          <t>2016/06/28</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -2533,25 +2533,25 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>"Não sei, só sei que foi assim!"  Eu assisti ontem o primeiro episódio na Globo, não consegui esperar os outros e tive que ver o filme, porque isso é uma OBRA PRIMA!! Mas se vocês não forem ansiosos, ao contrário de mim, recomendo assistir na Globo mesmo porque a imagem está bem melhor...  Acabei agora e estou morrendo de vontade de assistir de novo de tanto que esse filme me faz bem e de tantas risadas que ele me tira.…</t>
+          <t>curse you lady, curse you! you're going to die someday, and i'll laugh! laugh! ha ha ha!   - Beatrice's comebacks on point.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>lelefurtada</t>
+          <t>zuzupan</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2023/09/03</t>
+          <t>2017/07/04</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -2559,233 +2559,233 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>é que eu estava precisando d uma dose de seratonina no meu sangue</t>
+          <t>my faith in humanity has been restored</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Mathias Larsen</t>
+          <t>Jordan Horowitz</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2023/06/15</t>
+          <t>2015/01/24</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Lost in translation or insanely overrated? No idea what’s so great about this tbh..</t>
+          <t>Incredible, efficient storytelling. A visual style that is both fresh and classic. What a joy to watch. More like this, please.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>-1.25</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Ivan</t>
+          <t>Kyler</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2020/11/18</t>
+          <t>2023/10/01</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Everybody fears death, but that doesn't make them righteous.  First and foremost, I need to point out that I identify some of the contexts and themes of the film but, I don't understand some of them. I understand that we all have different contexts with regard to comedies so, if some of us will not laugh at their comedy then, there are no reasons to hate or to disregard the film. Currently seated #9 in the Letterboxd Official Top 250…</t>
+          <t>I really miss these type of shows that Cartoon Network used to make.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Catus</t>
+          <t>Victor Jugo</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2020/09/05</t>
+          <t>2021/10/27</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>This movie doesn’t give you a break. It’s frenzy, loud, absurd and crazy as hell. The plot doesn’t even go anywhere until half way through the film; before that, it’s mostly just the two protagonists messing around and doing weird shit (in that sense, you can tell this was based on a play).  To be honest, I was quite overwhelmed by this movie. You know I’m usually not a fan of over stylization, not because it’s necessarily a bad thing;…</t>
+          <t>Cada capítulo es como una fábula o uno de esos cuentos que uno solía escuchar cuando era pequeño. En serio me gustó mucho esta serie, sus personajes, las canciones, los lugares, las situaciones, todo tiene un montón de carisma y magia. Además de una ambientación increíble, que tan solo con la música nos da esa sensación de ser algo mágico. 2 hermanos perdidos en un bosque encantado donde se encontrarán desde aves que hablan, ranas que actúan como humanos, una escuela para animales, y hasta la temida bestia del bosque.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>-0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Rob J</t>
+          <t>ximenaribs</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2020/07/30</t>
+          <t>2020/09/08</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Letterboxd's most divisive movie. The popularity of A DOG'S WILL among Brazilian users lifted the film into the Top 10 Narrative Features, which led to a backlash of non-Brazilian users condescendingly accusing Brazilian users of being biased, which led to an apparent Brazilian vote brigading campaign in retaliation. Both sides keep insisting that A DOG'S WILL is a "cultural thing" and that you have to be Brazilian to really get it.  In my view, people are taking this whole affair…</t>
+          <t>One of the most original animated stories ever brought to a tv screen and a personal favorite, if I had to compare this to something in terms of originality and uniqueness it would be spirited away (yes, spirited away). Fantastic all the way through, every episode and every story is so well made not limiting its content just for kids through hints of horror, beautiful visuals, AMAZING original music and compelling story telling.  If you’re looking for the ultimate fall…</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>-0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Robert Crow</t>
+          <t>jasmine 🍂</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2020/04/13</t>
+          <t>2018/04/24</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>This is a thoroughly terrible film in every way I can imagine.  Two grifters run around a Brazilian town borrowing from Peter so they can give to Paul, until finally their luck catches up with them and a bandit kills everyone. Then Jesus, Satan, and Mary judge everyone who died. Cue pure Brazilian farcical insanity.  This was a flaming pile of dog shit, and how it is ranked in the top 10 films of all time is so far beyond…</t>
+          <t>thanks now i have depression</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>-2.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Saad_ali08</t>
+          <t>Jules 🌸</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2021/06/30</t>
+          <t>2020/03/22</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>A Dogs Will is catastrophically overrated. It has no right to even dream of being on the top 250 let alone the top ten. The film poorly executes its themes with shameful set design and performances, and in my eyes is an utter disappointment.</t>
+          <t>You two are lost brothers with no purpose in life, right?  Wirt and Greg, are two brothers that find themselves lost in a forest called ''The Unknown''. In order to return home, they must wander this forest, where they'll meet various creatures.  Over the Garden Wall is definitively a piece of adult animation, full of dark innocence, folklore and surrealism. It's cute and childish moments contrast themselves with the spooky ones. I also adored the style of the drawings and…</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>-1.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Violet</t>
+          <t>jeaba</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2019/04/26</t>
+          <t>2023/03/26</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>João and Chicó honestly deserve to be called one of the most charming duos in cinema. This film is so fun, it has a wonderful sense of comedy that pokes fun of the church while having great themes of sympathy and the fear of death. So glad I decided to watch it, it had me in joy the entire time. I can't wait to explore more Brazilian cinema</t>
+          <t>this isn't my second time watching this show over the last three days. mind your own business.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>bruna martins</t>
+          <t>Matthew LeCHARLTON</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2024/05/07</t>
+          <t>2022/10/29</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>chicó e rosinha  died in 2000  deniziane e matteus born in 2024  welcome back casal do bbb 24</t>
+          <t>A novel approach to telling traditional fairy tales with a contemporary quirkiness. A little funny and dark around it’s margins but essentially childish.  Its impressive list of voice actors aren’t enough to cover the cracks of weak writing and a repetitious villain of the week that adds little purpose.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1.25</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>marcella</t>
+          <t>Griffin</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>2023/07/08</t>
+          <t>2021/10/31</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -2793,51 +2793,51 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>“consigo comer não, joão. é tanto amor que chega me dar uma gastura aqui dentro”  quem me conhece sabe que pra eu avaliar um filme com 5 estrelas ele tem que mudar a minha vida e eu tava adiando pra assistir esse aqui com medo de não gostar tanto e acabar dando uma nota mais baixa. eu nunca estive tão feliz de estar errada. a dinâmica do joão grilo com o chicó é incrível e os diálogos são perfeitos. eu amei…</t>
+          <t>Doesn’t get much cuter than this shit.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>DrStrange110</t>
+          <t>celia</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>2022/06/05</t>
+          <t>2020/10/23</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>4.5??? Are you fucking kidding me?!</t>
+          <t>i’ve watched this with a new person every year for the past couple of years and i get nervous every time! this show is so unabashedly wholesome and kind, with a healthy dose of childlike wonder. it’s the kind of thing where if you don’t feel like buying in, you are going to bounce off HARD and it won’t be pretty  this year i got to share it with liz and mia and they both loved it and we smiled :) i spooned with a dog :) demi lit a fire in the fireplace :) had a cozy night like fall. ain’t that just the way</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>-1.75</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>barbiest</t>
+          <t>grace</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>2021/11/04</t>
+          <t>2023/09/15</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -2845,51 +2845,51 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>dizer que esse filme é perfeito é pouco</t>
+          <t>ITS CHILLY. ITS FRIDAY NIGHT. I MADE COOKIES. YIPPEE FALL!</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Mohammed 🕸</t>
+          <t>kateleth</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2020/07/08</t>
+          <t>2020/11/03</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>بدأ ك طاش مطاش النسخة البرازيليه و انتهى بتوم جيري الحلقه الممحذوفه</t>
+          <t>It’s a perfect show and I’ll hear nothing against it</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>-0.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Gustavo Menezes</t>
+          <t>claira curtis</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2018/01/01</t>
+          <t>2022/09/03</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -2897,51 +2897,51 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Revisto pela 1000000000ª vez.   Acho fenomenal como esse filme expande a peça original de Suassuna, incrementada com O Santo e a Porca, sem perder o fôlego e sem barrigas de roteiro. Não se sente o tempo passar em momento algum. Também é incrível como TODOS os atores estão bem, e desenvolvem maneirismos próprios muito bem concebidos.</t>
+          <t>“Sometimes, I feel like I’m just like a boat upon a winding river, twisting towards an endless black sea… further and further, drifting away from where I want to be, who I want to be.” “Oh. I didn’t know that. Did you know that if you soak a raisin in grape juice, it turns into a grape? It’s a  r o c k  f a c t!”   It’s September. It’s rewatch Over the Garden Wall season. It’s “declare fall starts…</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Aravind S Kannoth</t>
+          <t>ZombieTrex</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2023/02/02</t>
+          <t>2021/10/12</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Comedy movie that only Brazilians could understand and enjoy fully.  The third act of the film is something out of the normal cinema narrating methodologies.... . Purely experimental. It's so true that two friends having extremely opposite characters can make a great bond than like minded people.</t>
+          <t>Over the Garden Wall immerses the audience in the cruel, adult world of reality through the lens of children unable to fully grasp their situation. The world around them is equal parts intriguing and horrifying. There’s a tangible whimsicality to it all, drawing both the protagonists and the viewer into its old timely world while at the same time revealing more of its darker elements the further we plunge forward. The characters that inhabit the land are cartoonish in nature,…</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>-0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Agatha Fernandes</t>
+          <t>txdrmst</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2023/01/14</t>
+          <t>2019/09/14</t>
         </is>
       </c>
       <c r="D97" t="n">
@@ -2949,77 +2949,77 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Okay. Let's talk.  Obviously there are going to be cultural barriers when we're talking about a movie like this. A film so rooted and fine-tuned to Brazilian culture and humor is bound to put some people off and, honestly, that's okay. Maybe the jokes got a bit too lost in translation for you. Maybe their mannerisms felt weird to you. Maybe you didn't vibe with all the Catholic undertones, it being so formative to a lot of our culture (I'm…</t>
+          <t>Vegan Curried Pumpkin Soup   INGREDIENTS  - 1 large yellow onion, chopped - 2 garlic cloves, minced - 1 teaspoon olive oil - 2 (15oz) cans cannellini beans, drained and rinsed - 2 (15 oz) cans pumpkin (or 3 1/2 cups pumpkin puree) - 1 (15 oz) can coconut milk (regular or light) - 4 Cups low sodium vegetable broth - 1 Tablespoon curry powder - 1/2 Tablespoon garam masala - 1/2 Tablespoon sea salt - 1  teaspoon ground pepper - Toppings: extra salt and pepper, roasted pumpkin seeds, coconut milk…</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>maya |樂-STAR ★</t>
+          <t>🌻 lindsay 🌻</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2024/04/20</t>
+          <t>2023/10/28</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>deve ser triste não ser brasileiro e não ter a capacidade de entender o quão maravilhoso é esse filme</t>
+          <t>we’re here to burgle your turts</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>CrisRosas👻</t>
+          <t>Fred 🇵🇷</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>2023/09/16</t>
+          <t>2021/03/01</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>O Auto Da Compadecida (2000) [eng. A Dog’s Will] The Best Of The Best (On Plain Sight) Good grief! I Found Something Good Here Reviews In Both Languages (List)  * * * * * * * * * * * * * * Spanish * * * * * * * * * * * * * * “O Auto Da Compadecida” es una película a la cual le tenia muchas ganas desde hace mucho tiempo pero no podría encontrar…</t>
+          <t>Cozy, casually grim, and wonderfully realized, there is a lot to like about the adventures of Over the Garden Wall. The character and locale designs in this are reason enough to check it out. Story-wise, for the most part, this worked for me despite not packing the kind of punch that similar Cartoon Network fantasy fare has pulled off (Adventure Time comes to mind). Only in the borderline obnoxiously cutesy and oddly elementary school-appropriate singalongs, of which there are about…</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1.25</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Jack Denver</t>
+          <t>Big Rig</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>2023/06/26</t>
+          <t>2021/10/13</t>
         </is>
       </c>
       <c r="D100" t="n">
@@ -3027,129 +3027,129 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>🏆 HILARIOUS | SURPSINGLY ENJOYABLE   1st Watch | 2000 Ranked | Foreign Films    It took me forever to find a place where I could watch this film for free. However, in the end I was able to find a very low-quality YouTube video showing the entire movie. Obviously, I would've preferred to watch something with a smoother quality, but at least I was able to follow the story and with English subtitles, I wasn't going to pass up the opportunity…</t>
+          <t>Despite its wild creativity and fantastical elements, Over the Garden Wall is eerily familiar and surprisingly grounded. This series is very alike Studio Ghibli films in the sense that it understands that there is a certain magic that exists in the world; it may not be the mystical creatures pictured in this show, but the artistry (yes, this series is, first and foremost, a piece of art) and storytelling that suspends our disbelief, and invites us into a world that makes…</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0.75</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Suvranil Singha Chowdhury</t>
+          <t>margot</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>2023/01/30</t>
+          <t>2022/09/14</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>A jewel of Brazilian cinema. From the story, to the acting and the screenplay. Fun, light and at the same time deep and enlightening. Impossible not to remember the lines.  There are more than 60 types of cuckolds.</t>
+          <t>used my movie theater manager privileges to watch this in a theater i know you’re all jealous</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>-0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>WillDraugelis</t>
+          <t>Daddy0</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>2000/09/10</t>
+          <t>2021/10/01</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>If these two guys teamed up with Harry and Lloyd from Dumb and Dumber, they might just form the most unstoppable group of idiots ever. On top of that they would easily form the most annoying group of individuals ever and probably come up with some pretty unique sounds as well. I really did think of these two as similar to the Dumb and Dumber duo, but they lacked the same naive innocence that those two had, specifically the character…</t>
+          <t>It's a good habit to take the time once every fall for a pilgrimage into the autumnal looking glass wood of fables and rustic Americana distorted, Over the Garden Wall. Brother Wirt lives by impotence and anxiety, brother Greg lives by the strength of the absurd, and both have got to bear witness to those truths which the Unknown offers in order to make anything worthwhile of the Known. Well, existentialists will settle for their “loveliest lies” over truth, but…</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>-0.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Ted Smells</t>
+          <t>Siena 🌞</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>2020/07/24</t>
+          <t>2017/08/24</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>8TH HIGHEST RATED MOVIE ON LETTERBOXD?! 4.5 AVERAGE RATING?!? HOW?!?!?</t>
+          <t>This miniseries is so genuinely pure that I can't even think of a sassy one liner and honestly that's beautiful</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>-2.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ZICO</t>
+          <t>The Armchair Critic</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>2019/03/03</t>
+          <t>2021/11/24</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Não tem jeito, o formato televisivo sempre cai no gosto popular brasileiro; Vi isso acontecer com O Pagador de Promessas e Os Dez Mandamentos mas não que este estilo de filme reeditado anule a qualidade e o potencial da obra, pelo contrário, vejo isso como uma marca carimbada do país.</t>
+          <t>🎬 • 🍿 • 📀 • 🎞️ • 🎥   A piece that soared well, well over my expectations! Not only in quality, but also my understanding of what it was that I was actually about to watch. ‘Over The Garden Wall’ is a film (kind of) that is genius crafted-humour and storytelling at its absolute finest. The plot, whimsical and fluid, still fulfilling this perfect little story arc, trollops along to the humming to sound of Greg’s latest tune, a…</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>lari ✯</t>
+          <t>Danny</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>2024/06/09</t>
+          <t>2023/09/03</t>
         </is>
       </c>
       <c r="D105" t="n">
@@ -3157,25 +3157,25 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>ANSIOSA PARA O SEGUNDO!!</t>
+          <t>That feeling when you finally watch something for the first time and instantly you know you are adding this to your yearly fall required viewings. What a delight.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Carolina Zweig</t>
+          <t>elle ᯓᡣ𐭩</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>2021/05/29</t>
+          <t>2023/11/30</t>
         </is>
       </c>
       <c r="D106" t="n">
@@ -3183,77 +3183,77 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>eu era ateia e esse filme me salvou.</t>
+          <t>how do i rate a show higher than 5 stars</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Adam</t>
+          <t>han🐈</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>2020/12/14</t>
+          <t>2021/11/22</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>While the poster may make you think that this film is a piece of high art, it is not. It is a Brazilian Adam Sandler movie that turns into a religious piece that turns into The Merchant of Venice.</t>
+          <t>Me being sick gave me the perfect excuse to rewatch this for the 5th time!! I love this more every time I watch it!!!</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>-1.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Adriana Scarpin</t>
+          <t>Emma 🔆</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2024/01/05</t>
+          <t>2020/10/25</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Há 25 anos o primeiro episódio de O Auto da Compadecida ia ao ar na TV brasileira e eu estava lá pra assistir. Provavelmente essa é a melhor produção da TV aberta brasileira que acompanhei, mas isso não se deve ao Guel Arraes ou aos atores renomados, isso se deve ao texto impecável do gênio Ariano Suassuna. No ano seguinte eu entraria no curso de Letras da UEL e teríamos todo um semestre para destrinchar essa obra-prima do Suassuna num…</t>
+          <t>Just want to ride on a ferry with a bunch of frogs, is that too much to ask?</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1.25</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>saraiva</t>
+          <t>Johnny2Cellos</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>2023/06/20</t>
+          <t>2023/05/22</t>
         </is>
       </c>
       <c r="D109" t="n">
@@ -3261,129 +3261,129 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>LETTERBOXD EU EXIJO QUE DEVOLVAM O TOP 10 COM OS 4.6 NA PONTUAÇÃO</t>
+          <t>All that was lost is revealed</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Calvin Kemph 🤠</t>
+          <t>🌻 lindsay 🌻</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>2022/07/27</t>
+          <t>2019/11/08</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Big in Brazil, a four part religious series (an auto, if you will, and even if you won’t), is now a fixture of your favorite movie app. How you feel about that probably varies. The positive ratings came suddenly and all at once — scan through the five star reviews and see a staggering difference of users without profile pictures versus any other film — is it a ruse? Perhaps it’s a national campaign to bring attention to a specific…</t>
+          <t>Oh my god I loved this so much.   I can’t wait to show this to my niece and nephew I think kids should definitely see this show. The animation was beautiful and the story was so wholesome and sweet! It was also a little spooky and sad! But done in such a great way. I loved these characters and their dynamic with each other. Every stop in their journey was brilliant.   Also “hold your tongue or I’ll remove it from your mouth!” I was like DAMN</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>-0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Morgan</t>
+          <t>shay</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>2021/11/09</t>
+          <t>2017/02/04</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>A screwball comedy is exactly what I’ve needed today. This surpassed my expectations. The pace is fast and the acting over-the-top, and I understand why this has kept such a high spot in the LB top 250. I can see this becoming a comfort movie for me, and I’m glad that I tried it out despite the multiple negative reviews I’ve read of this by non-Brazilians.</t>
+          <t>"don't call me old lady" "YES SIR, YOUNG MAN!"</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Lochlan Ashton</t>
+          <t>emilyrugburn</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>2021/02/06</t>
+          <t>2022/10/02</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>This is 1 hour and 40 minutes I will never get back.   I did not find this funny one but and my god did it bore me to death. I was hoping for something great because I saw the rating it had on Letterboxd but no, it was a shit show.</t>
+          <t>Watched all of this on a date and it was delightful and so funny! The bluebird and the older kid are enemies to lovers        P.S. Sometimes I’m lazy and don’t wanna type in the thing I watched so I’ll play “how many degrees of Kevin Bacon (not actually Kevin Bacon) will it take me to find the thing I’m gonna review.” So this time, here’s how I got to this -   I started with somebody’s review of The Rundown, which…</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>-1.75</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>julyz</t>
+          <t>han🐈</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2021/10/01</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>⁠– Fui logo dizendo “I love you”, e ela se derreteu todinha. – “I love you”? – É. Quer dizer “morena” em francês.  Uma delícia de cinema nacional, Assisto esse filme desde quanto me entendo por gente e sempre me acabo de rir com ele,a comédia nordestina com aspecto religioso e cultural deixa esse filme com o sabor único do nordeste e acho tão icônico. A cinematografia não é a das melhores,na verdade acho bem merdinha mesmo mas para a…</t>
+          <t>HAPPY OCTOBER!!!!!!!!!!!🎃🎃🎃🎃  Honestly, this is my favourite show of all time, it’s my third time rewatching it and it was just as amazing as I remembered.  I highly encourage everyone to watch this as it is AMAZING and a short show which won’t take you long to finish! The music is perfect as well! It's perfect for watching during Autumn</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>clau</t>
+          <t>Juan Castillo</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>2023/04/11</t>
+          <t>2016/07/30</t>
         </is>
       </c>
       <c r="D114" t="n">
@@ -3391,51 +3391,51 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>imagina ser gringo e não compreender a genialidade deste aqui</t>
+          <t>Cuando aún no había acabado de asimilar todos los elementos que componen Stranger Things he sido golpeado rotundamente por esta maravilla, que ya avanzo que es de visión obligada para todo aquel que aspire a ocupar la mayor parte de su tiempo contemplando belleza y que, como la serie de Netflix, integra un sinfín de ilustrísimas influencias hiladas con un abrumador derroche de imaginación. Over the Garden Wall es, para empezar, el eslabón más brillante en la incipiente cadena de obras singulares…</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>1.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>marcelo_formiga</t>
+          <t>Jaxi</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>2023/02/05</t>
+          <t>2021/09/26</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>English: I watched the extended version of 2 hours and 40 minutes. I'm Brazilian, but I know that many "foreigners" hate this movie, for its very high rating on Letterboxd, but in my opinion A Dog's Will is not a bad movie, but the fact is that it works much better for Brazilians, and that already starts with the translation, in Brazil, the film is called "O Auto da Compadecida", which in a direct translation would be, The Compassionate Auto,…</t>
+          <t>ok leaves you are now allowed to change color. fall has begun now that I watched otgw</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>-0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>adrielli</t>
+          <t>áine</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>2022/11/03</t>
+          <t>2019/10/04</t>
         </is>
       </c>
       <c r="D116" t="n">
@@ -3443,77 +3443,77 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>joão grilo e chicó para presidente e vice 2023</t>
+          <t>i wanna steal</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>paulo</t>
+          <t>aleph beth null</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>2019/05/17</t>
+          <t>2015/02/10</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>o cinema brasileiro é uma joia incompreendida pelo próprio brasileiro...</t>
+          <t>‘i just wanted to have fun... change the world and make it a better place! ...but i just made everything worse.’  autumnal, wistful, bold and lavish with jungian archetypes and the collective unconscious, the sunset of americana, the death of innocence and childlike belief in white america’s self-mythology. death on a broader scale is inevitable—‘oh well, you’ll join us someday’—and yes, dressed in all the trappings of harvest, but, good news everyone!, everyone’s friends by then. dante found himself lost…</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1.25</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Jack</t>
+          <t>isabela.</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>2020/08/18</t>
+          <t>2023/02/06</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>So, this is the Brazil's answer to Dumb or Dumber because, it's dumb and has some insane moments. But, it's also very political and has a social statement on religion. I thought this was very funny for most of the time. I can't help myself but, laugh at the great slapstick moments  Unfortunately, the film loses steam around the 50 minute mark. I'm just baffaled by how this got into the top 100 of Letterboxd.  Is this a Brazilian classic or something?</t>
+          <t>Que historia tan hermosa. Tiene todo lo que se necesita para robarte la atención y el corazón. Es increíble como en tan solo 10 capítulos de 10 minutos lograron contar una travesía que me hizo llorar al final.  Aunque me quedé con varias dudas y teorías formadas por mi cabeza, me da la sensación que no importa cuantas veces llegue a ver esta serie en el futuro siempre encontraré pequeños detalles que alimenten a este mundo un poco más. Me gustaría ampliamente recomendar esta serie a todo aquel que disfrute de los viejos cuento de hadas. Es sensacional.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>-0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Jão</t>
+          <t>matthewcutchen</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>2024/05/12</t>
+          <t>2021/06/13</t>
         </is>
       </c>
       <c r="D119" t="n">
@@ -3521,25 +3521,25 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Legal</t>
+          <t>Such relaxed and wholesome creepiness and existentialism.   Legitimately felt like those animated characters were making the whole thing up on the spot.  Not a huge fan of super on-the-nose self-aware “genre savvy” jokes. Maybe if I had watched it when it came out back in 2014 I would have liked that aspect more, but at this point that’s feeling a little played out. Still overall really enjoyed it.   Something I did love was how they kept subverting villain tropes. And Greg. Greg was hilarious.  Definitely one of those “movies i can’t believe exist but i’m so glad they do”.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>0.25</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>lara</t>
+          <t>cookie</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>2024/02/20</t>
+          <t>2021/10/26</t>
         </is>
       </c>
       <c r="D120" t="n">
@@ -3547,25 +3547,25 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>fiquei sabendo que a SZA se formou em mentirologia com os professores joão grilo e chicó (isso não foi uma mentira)</t>
+          <t>finally got to show it to regina ! homemade cider + apple cider donuts + pumpkin oatmeal raisin cookies ! a fun one to watch with friends who both have + havent seen this one before</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>julia</t>
+          <t>🌻 lindsay 🌻</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>2024/02/01</t>
+          <t>2021/10/17</t>
         </is>
       </c>
       <c r="D121" t="n">
@@ -3573,51 +3573,51 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>ERA A PILULA DE FELICIDADE QUE EU ESTAVA PRECISANDO MDS É INCRIVEL A CENA DO JULGAMENTO É CINEMA !!! (não consigo elaborar uma review tô apaixonada pela rosinha o gay panic me pegou fortissimo</t>
+          <t>finally feels like fall babey!!!!! Let’s go burgle some turts!!!!!!!!!!</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>1.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>DaredevilZ</t>
+          <t>ZombieTrex</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>2021/03/01</t>
+          <t>2020/10/03</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>This movie has the word "bitch" in it a lot more than I expected, but I'm not complaining.</t>
+          <t>I remember, way back when, in my Lady Bird review, I talked about how the film really didn’t have as much of an impact on me as it did other people, because I was the exact opposite of the main character, and thus, I didn’t really relate with her struggles as much. Over the Garden Wall, on the other hand, feels like it took my life and made it into a miniseries set in a mystical, eerie world, and because…</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>-0.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>filmbroism</t>
+          <t>Abby</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>2020/04/07</t>
+          <t>2023/10/02</t>
         </is>
       </c>
       <c r="D123" t="n">
@@ -3625,25 +3625,25 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>As a child in Brazil, I watched “O Auto da Compadecida” for the first time: I don’t remember when, or how old I was at the time, I just remember watching it whenever it was on TV because I loved it so much. In middle school, teachers used to make us watch it in class and even act it at times. In high school, the script that originated the film, was a subject of lectures in literature class because its…</t>
+          <t>The reveal of Jason Funderberker, iconic.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>1.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Nando</t>
+          <t>gabriel guimarães?</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>2020/01/10</t>
+          <t>2015/11/26</t>
         </is>
       </c>
       <c r="D124" t="n">
@@ -3651,25 +3651,25 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Extremamente memorável um marco para cultura brasileira.</t>
+          <t>This ended. I'm broken, sad and lost... It was brilliant. Funny, stepped in folklore and mystery, memorable, melancholic, perfect. The characters were some of the most human and richly developed I've seen, even if one is a bluebird.   I do believe it's a perfect piece of entertainment and the best thing Cartoon Network has ever done.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>1.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Vitória Avendaño</t>
+          <t>Gino</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>2017/04/16</t>
+          <t>2020/10/31</t>
         </is>
       </c>
       <c r="D125" t="n">
@@ -3677,51 +3677,51 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>i can't find words to express how i love this movie and how much it's important for our country and our cinema. it's certainly a great movie to introduce foreign people to the brazilian cinema. i feel my heart warm after finishing it and i'm sure others would feel the same with this great piece of art.</t>
+          <t>Does October even exist if I go through it without watching Over the Garden Wall?  Short Answer:  No.  Long Answer:  Noooooooooooooooooooooooooooo.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Evasive</t>
+          <t>Lucy 🏳️‍⚧️ 🏳‍🌈</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>2021/12/13</t>
+          <t>2023/10/23</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>you'd think the title would have a deeper meaning but no, you literally see a dog write a will and sign it with her paw</t>
+          <t>Spooky Lucy Season 2023: "Over the Garden Wall"  Peak Autumn cinema right here.  Unending in its old-timey New England coziness and plays out like a half-remembered daydream.  Full of irreverence and hazy set pieces that seep into your bone marrow and last for a lifetime, imbued with a childlike fascination of folktales that's as wondrous as it is foreboding.  An absolute seasonal classic in every respect.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>-0.25</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>maria</t>
+          <t>michelle grondine</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>2023/06/01</t>
+          <t>2022/10/08</t>
         </is>
       </c>
       <c r="D127" t="n">
@@ -3729,51 +3729,51 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>“fui logo dizendo i love you e ela se derreteu todinha” “i love you?” “é, quer dizer morena em francês” o melhor diálogo do cinema brasileiro</t>
+          <t>fred the horse: the-bling-ring-emma-watson.gif   left sitting here in tears. what a masterpiece. so stunning from art to symbolism to humor to character growth to the overarching plot and little mini episodic tales being balanced to absolute bite-sized perfection. a new all-time favorite i can see myself rewatching every fall.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>1.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Brandon White</t>
+          <t>jaewon</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>2021/05/19</t>
+          <t>2022/04/19</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>A Dog’s Will, a film that probably has one of the most usages of the word “bitch” that I’ve heard in a long time. I will have never heard of this film at all if it wasn’t for this being on the top 250 list on Letterboxd. Since it was relatively short, I figured I should give it a watch to see what I’m getting myself into, and man, that was a film that I just watched.  I looked more…</t>
+          <t>“Kitty! Kitty? Now, where did that frog named ‘Kitty’ go?”  Something about these two brothers in this dusty autumn lost in the deep parts of some magical woods instills this wondrous sense of joy in me. Maybe its the random musical moments, the atmosphere that smells like thanksgiving, or the series of honest and empathetic glimpses of hope and fear from the lens of an awkward teenager and a bundle of optimism kid, but each short episode is about as…</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>-0.25</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Cole Turner</t>
+          <t>transfeminine frankenstein</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>2020/08/10</t>
+          <t>2021/10/21</t>
         </is>
       </c>
       <c r="D129" t="n">
@@ -3781,181 +3781,181 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>You already know the only reason I put this on is that it's in the top ten on Letterboxd's Top 250 Narrative Features list. I was expecting to find this to at least be decent if it's this high up on Letterboxd's list as Brazil has produced some pretty good films before, but this... isn't even good to me. I understand that outsiders won't understand it and that's perfectly fine. Although, I don't know if I would say that a…</t>
+          <t>At a certain point I got really, really tired of watching children's cartoons. There was definitely a good bit in Obama's second term where I got swept up by, like, Steven Universe like a lot of other people old enough to drink did, as around this time Cartoon Network entered a triumphant new era of novel and interesting animation. Over the Garden Wall, a much-beloved modern classic to a lot of people, was a product of this era, and an…</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>-0.75</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>MANAR</t>
+          <t>Jack Moulton</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>2020/07/08</t>
+          <t>2020/10/28</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>They Had Us In the First Half ngl …</t>
+          <t>Is there any film or show more appropriate for the last week of October? A rhetorical question.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>-0.75</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Parafernalia</t>
+          <t>Taylor Leverage</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>2020/06/23</t>
+          <t>2023/12/21</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>365 Películas en 2020 #300:  Hijole, sí me costó mucho agarrarle el gusto, los primeros Min. Del primer acto son muy difíciles de procesar, aunque esto no es culpa de la película realmente. Desde ahí, podemos darnos cuenta de la fluidez y experiencia actoral de todos los involucrados, es bastante impresionante.  O Auto Da Compadecida es una experiencia bíblica y épica que sirve como ejemplo perfecto sobre cómo una película religiosa debería ser. Su humor absurdo la hace verdaderamente especial,…</t>
+          <t>Greg is TV's #1 cinnamon roll. I would die for this kid wearing an upside-down teapot on his head.   Lifetime film #5,000, per Letterboxd, and it's appropriately not even actually a film. Over the Garden Wall is such a perfect balance of tone, playing the dangerous, dark unknown against the wholesome warmth of brotherhood and friendship. It's got high fantasy and modern-day components (it's kind of a whimsical version of M. Night Shyamalan's The Village; controversial take, I know), but…</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Justin</t>
+          <t>Brett Schutt</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>2023/01/28</t>
+          <t>2017/09/02</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Yikes man… it starts off awful and it really doesn’t get better whatsoever. Too cringe and tries so hard to be funny and it doesn’t land once. #3 in the top 250 😭😭</t>
+          <t>Cartoonnetwork has a long history with up and downs with their network. Right now, all they care to do is replay episodes of Teen Titians Go, but hopefully that phase will go away. Just only 3 years ago they decided to release this weird, beautiful and ambitious 10 episode short series to the air, showing they really truly still did care about animation as an artform, and how it could make kids think more about themselves (and possibly give them…</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>-3.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Gus</t>
+          <t>Chris</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>2019/09/12</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Remember that the Imdb is so influenced by the Bollywood sphere? This is the same thing but with Brazilians, this movie has some fun parts but is definitely not accessible for the international community.  Currently number 23 on Letterboxds top 250 :(</t>
+          <t>gregory is the real badass</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>-2.25</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>vinícius</t>
+          <t>lily</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>2024/05/12</t>
+          <t>2022/11/09</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Um clássico do cinema nacional superestimado. O Auto da Compadecida definitivamente não é pra mim, possivelmente o filme mais sem graça que eu já vi. Oque presta aqui é a Fernanda Montenegro entregando atuação.</t>
+          <t>"You'd be no good to your brother dead." "I was never any good to him alive either."  WIRT, MY MAN !! i love eternally stressed cartoon boys. this just reinforced my love for elijah wood, cartoon network and autumnal media</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>-1.75</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>bia 𖤐</t>
+          <t>Lizzy Deane</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>2024/05/11</t>
+          <t>2020/09/13</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>que filme bom, a cena do chicó revivendo enquanto o joão grilo toca a gaita é a mais icônica do filme. ansiosa demais pra volta dessa dupla apocalíptica nas telas de cinema!!</t>
+          <t>August is over And I’m breathing in  Everything  I don’t remember Last year But I remember I was alive  That lake was too calm Those woods were too quiet The unknown was nothing  August is over And I’m going back.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>1.25</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>thai</t>
+          <t>Griffin</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>2023/06/20</t>
+          <t>2022/12/30</t>
         </is>
       </c>
       <c r="D136" t="n">
@@ -3963,25 +3963,25 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>viva o cinema nacional</t>
+          <t>Feeling like a total schmuck for letting another year go by without trying molasses on my potatoes</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>1.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Mike</t>
+          <t>Nicole 🏳️‍🌈🏳️‍⚧️</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>2023/02/19</t>
+          <t>2020/10/11</t>
         </is>
       </c>
       <c r="D137" t="n">
@@ -3989,129 +3989,129 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Letterboxd’s Top 250 Narrative Feature Films   A vivacious, entertaining comedy with one of the best closing scenes I’ve ever seen. Impressed by how smart, enthralling and moving the story turned out to be. Great dialogue and unforgettable characters. In love with it.</t>
+          <t>How it took me like six years to watch this is beyond me, but hey, glad I finally watched it for spooky month. This was some gooood shit.  Elijah Wood, please narrate my life.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>0.75</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>micah</t>
+          <t>Freyr</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>2023/01/01</t>
+          <t>2018/03/19</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>"Não sei, só sei que foi assim!"  Eu não consigo acreditar que só hoje tive a oportunidade de ver a maior obra-prima de todos os tempos, e que obra viu meus amores. Deus sabe que todos os dias eu agradeço por ter nascido em solo nordestino, sou apaixonada pelo meu nordeste e sua cultura belíssima, mais um comfort movie p lista.  OBS: sou o chicó e emília o joão grilo, dyvos &lt;3</t>
+          <t>Eerie, funny, charming. A gorgeous piece of animation with a wonderful score. Took me too long to finally watch it honestly. Would love to see more like it.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>1.25</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>h6cinema</t>
+          <t>ZombieTrex</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>2022/08/31</t>
+          <t>2022/10/02</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>27/100   The only reason i watched this film was because of it's ridiculously mind-blowing high position at the "letterboxd Top 250 highest rated films" and also for the fact no joking this film is higher than both Godfather 1 and 2, Seven Samurai and even Shawshank Redemption. idk if it's because i haven't watched many films (probably i've watched 2 thousand) or payed attention to the importance of foreign films even that asde, I've literally never heard of this film…</t>
+          <t>Over the Garden Wall is often categorized as a story about death, and while the themes of mortality remain one of its most prominent aspects, I want to make the case that the show is also about life. It’s about being confronted with death and learning how to move on without regrets. It’s about realizing harsh realities, but remaining determined in spite of that. To put it simply, it’s about kids who come very close to death through the dangers…</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>-1.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Screenplayer</t>
+          <t>lisa</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>2021/03/07</t>
+          <t>2023/06/23</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>To me this film is like being a foreigner at a strange party in Brazil packed with almost only Brazilian people who are having a blast. They are dancing on the tables. You don't speak the language and you know nobody there. It's extremely loud, people are yelling at each other constantly and laugh hysterically about jokes you don't understand. Pretty much everyone there is ignoring you, except this one friendly guy who tries his best at translating what's going…</t>
+          <t>“i guess the world really is as sweet as potatoes and molasses."  i loved this! so sweet, spooky and beautiful. wonderfully animated, i adored this 🫶</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>-2.75</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Christopher Mansell</t>
+          <t>CinePhil</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>2020/08/04</t>
+          <t>2023/01/28</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Here we are then, the legendary O Auto da Compadecida, otherwise known as A Dog's Will. Possibly the most infamous film on the whole Letterboxd platform, mostly due to its very high placement in the top 250, and the arguments that provokes from both sides. I'm going to do my best to not wade too far into that argument, mostly because I find the idea of whether a film "deserves" any position in what is largely a democratic process to…</t>
+          <t>Son and I cannot wait to watch this again, had such a fun time  (Poor Elijah Wood being type casted as a partnered adventurer)</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>-1.75</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>𝔠𝔩𝔞𝔯𝔞</t>
+          <t>4ntun</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>2020/06/19</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D142" t="n">
@@ -4119,51 +4119,51 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>num sei, só sei que foi assim.  maratona nacionais</t>
+          <t>Wirt, you can do anything if you set your mind to it.  A fable of compassion and a triumph of imagination. Two lost boys wandering the Unknown, a talking bluebird accompanying them, an old woodsman guarding the light of life and the Beast singing their requiem, every day and every night. A must watch.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>1.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Sven Roth</t>
+          <t>EccyReviews</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>2022/01/16</t>
+          <t>2023/07/03</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>The low budget and the resulting limitations definitely didn't bother me. It has its charming moments here and there. But honestly, the humor and religious elements felt like pure torture to me.</t>
+          <t>Potato’s and Molasses.Best Song Ever!!!  I just Binged the Hell out of this and I loved every minute. Greg is 100% my favourite character was in hysterics ever second he was on the screen. The story is so deep talking about death,friendship and love and Cartoon Network are incredible with their animation. Each episode was important to the show and I loved how Wirt and Greg had effects on every character they interacted with. I highly recommend this if you get the chance as you will have a blast.  👏👏🌲🥔❤️😂🐸🐦🏮🎥🎥</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>-2.75</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>fabricio</t>
+          <t>Alex</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>2024/04/30</t>
+          <t>2022/03/30</t>
         </is>
       </c>
       <c r="D144" t="n">
@@ -4171,25 +4171,25 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>gentee esse filme eh mto bom sério morri de rir em cada cena</t>
+          <t>I can't quite articulate why this means so much to me. But I strongly urge you to give this a go if you haven't seen it, and it looks like your thing. Such a delight, with top-notch charm and atmosphere, and so many wonderful plotlines packed into the surprisingly short episodes. Each character is rendered with mounds of care, as is each fantastical place they find themselves on their journey. I'd like to rewatch this and think on the ending…</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>1.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>firefly</t>
+          <t>brynn helena</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>2023/09/27</t>
+          <t>2021/10/24</t>
         </is>
       </c>
       <c r="D145" t="n">
@@ -4197,25 +4197,25 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>emocionou muito</t>
+          <t>had to watch this one more time over before october ends ❤️ greg &amp; wirt ultimate comfort characters</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>1.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>issaczzq</t>
+          <t>aya</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>2022/11/12</t>
+          <t>2022/12/01</t>
         </is>
       </c>
       <c r="D146" t="n">
@@ -4223,51 +4223,51 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Sempre é difícil escolher por onde começar a falar sobre alguma grande obra. Conforme sua grandiosidade aumenta, mais difícil torna-se a tarefa, pois só uma das diversas abordagens possíveis será utilizada. Essa foi, sem dúvidas, a maior dificuldade que encontrei ao terminar O Auto da Compadecida, dirigido por Guel Arraes e inspirado na obra de Ariano Suassuna. Apesar de difícil, a tarefa está longe de ser um problema. Para quem gosta de futebol, remete àquela expressão tão usada no meio…</t>
+          <t>wirt and beatrice are canon !!!! (in my head)</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>1.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Ozybeastias</t>
+          <t>Jeff</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>2020/03/01</t>
+          <t>2020/01/14</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>D+  So after a little over a year now on Letterboxd, and after hearing about this movie for that same amount of time, I finally got around to watching it, and.......it was worse than I expected. It’s a real shame since so many people (largely Brazilians) love this one, but it honestly did nothing for me. When you have a comedy that doesn’t make you laugh, then that comedy has failed. If I was Brazilian I would probably find this funny, but I am not. Some movies just translate differently outside of their native country.</t>
+          <t>ABSOLUTELY DELIGHTFUL. Can every animated movie look like this please? 🥺</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>-2.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>angel</t>
+          <t>Dhai</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>2020/01/10</t>
+          <t>2023/05/30</t>
         </is>
       </c>
       <c r="D148" t="n">
@@ -4275,77 +4275,77 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>a maior obra brasileira e eu falo com total tranquilidade</t>
+          <t>Honestly if everyone was just like gregory war wouldn’t exist maybe just chaos</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>1.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>duda</t>
+          <t>Cinema Language</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>2020/01/10</t>
+          <t>2021/10/03</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>não sei..... só sei que foi assim</t>
+          <t>Well this was absolutely delightful 😍  Genuinely a film (or show) that has made the second half of my day infinitely better. I can’t even describe what part of this works this well, almost like magic. It’s genuinely hilarious, cute, exciting and even poignant. A show about not being enough, about being afraid of the world, about coming home. Endlessly displaying an effortless creativity through its beautiful scenarios and even more beautiful visuals that almost transcend the medium of animated kids’ shows. Perfect watch for the season.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>1.25</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Lucas Vasconcelos Silva</t>
+          <t>Nolio</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>2020/07/14</t>
+          <t>2021/01/03</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Tá todo mundo salvo menos o João Grilo com aquela linha capilar horrorosa.   For my friends from outside of Brazil, I wouldn’t recommend it. Unless you speak portuguese.</t>
+          <t>Adventurous and full of heart, Over the Garden Wall is a sweet miniseries created by Cartoon Network. The series is basically about two lost brothers trying to find their way home. Along the way, they encounter all kinds of strange people, things and locations. This series clocks in at about 110 minutes, making it an extremely short watch. The length of the series along with its brilliant little contents had me longing for even more episodes shortly after I finished…</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>1.25</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>lucas ⧗</t>
+          <t>Bethan 💀</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>2024/01/18</t>
+          <t>2019/10/03</t>
         </is>
       </c>
       <c r="D151" t="n">
@@ -4353,51 +4353,51 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>nossa gostei dmss!!! toda vez que o personagem do Diego Vilela falava eu só conseguia lembrar do Manny de A Era do Gelo KKKKKKKKKKKKKKKKKK agora fiquei com vontade de ver a série e já to ansioso para a continuação que sai no final do ano!!</t>
+          <t>scavenger hunt 55 | task 3  Ain't that just the way.  Watching this with a snuggly blanket and a pumpkin-vanilla scented candle has made me so autumnal, plus I relate to Greg in 98% of daily situations.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>1.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Alice 💜</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>2023/08/13</t>
+          <t>2015/04/27</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>"You should thank God the devil is a nice guy"  While the translation from the minisseries format into film form always bugged me a bit, as the first act always seemed a bit too rushed and over edited for me, can't deny it also makes for this to have literally 0 filler. Suassuna's text is some of the funniest things ever, ir has such wittiness in every line that makes even conventional conversations hilarious, and every member of the cast…</t>
+          <t>In the Aeroplane Over the Garden Wall</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>0.75</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>andrér</t>
+          <t>the sam</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>2023/06/20</t>
+          <t>2023/08/23</t>
         </is>
       </c>
       <c r="D153" t="n">
@@ -4405,25 +4405,25 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>um enorme SMT pra todo mundo que não gosta dessa obra prima</t>
+          <t>Grow, tiny seed You are called to the trees Rise till your leaves fill the sky Until your sighs fill the air in the night Lift your mighty limbs And give praise to the fire</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>1.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>bell</t>
+          <t>MattLovesMovies</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>2022/12/20</t>
+          <t>2022/10/29</t>
         </is>
       </c>
       <c r="D154" t="n">
@@ -4431,103 +4431,103 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Eu sei todas as falas de cor e salteado e mesmo assim dou umas boas gaitadas assistindo</t>
+          <t>This is 1/1. There is nothing like this. It’s like Spirited Away if it were more American, entirely more absurd and set in everyone’s agreed upon perfect idea of Autumn but even then it’s still so much more indescribable than that. It’s legitimately some of the most out-there, left field shit I’ve ever seen.   The horse likes to steal/10</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>1.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Apollo Anderson</t>
+          <t>karol</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>2022/06/26</t>
+          <t>2024/04/25</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Adorei a representação de Jesus e Maria. Um filme engraçado, lindo, e encantador.</t>
+          <t>comfort for4ver &lt;3  frog names ranked:  1. george washington 2. ronald 3. benjamin franklin 4. doctor cucumber 5. mr. president 6. jason funderburker 7. kitty 8. wirt jr. 9. skipper 10. greg jr.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>-0.25</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>thelistislife42</t>
+          <t>Ziyad</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>2019/10/03</t>
+          <t>2024/01/27</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>7/10 A strange experience to say the least. There are so many over-the-top, silly moments that I considered giving it a 6 some of the time. But it's also so sincere, charming, and clever that I sometimes considered giving it an 8. Along with some compelling and interesting themes about religion, poverty, and what it means to be good, it ultimately won me over. A good time for sure and, though far from perfect, it's just clever, interesting, and poignant enough for me to like it.  Added to: My List: Top 1000 Greatest Films of All Time Ranking: 2019, First Time Watches</t>
+          <t>so you’re telling me that this shit was supposed to be for kids!!</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>-0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Raul Marques</t>
+          <t>Santi Saw the TV Glow</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>2015/01/20</t>
+          <t>2023/10/11</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Uma obra prima do cinema nacional que passou desapercebida por mim. Atuação exagerada, edição exagerada, teatralidade exagerada e qualidade exagerada.</t>
+          <t>This was a lovely watch!   I only watched three episodes before and I got bored with it, but after watching it with the fellow patrons of House of Cinema, it’s one of the best animated shows I’ve ever watched from Cartoon Network. Now, Regular Show and Adventure Time are my all-time favs, but within the series’ 10 episodes that are a breezy 10 min. each, it’s carried by it’s creepy atmosphere, creative and compelling characters and original narrative with complex themes of brotherhood, growing up, and in search of determination.  I love Over the Garden Wall and that’s a ROCK FACT!</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Suco de Universo</t>
+          <t>Johnny2Cellos</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>2023/06/19</t>
+          <t>2022/09/20</t>
         </is>
       </c>
       <c r="D158" t="n">
@@ -4535,247 +4535,89 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Só queria dizer, Letterboxd, que vocês são uns covardes.  Que vergonha.  Pensando seriamente em deixar a plataforma de vez depois dessa.</t>
+          <t>I’ll probably end up watching this 2 or 3 more times this year</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>1.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Nerd2002</t>
+          <t>Kibriya⚡</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>2021/10/23</t>
+          <t>2021/05/29</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Dos poucos filmes nacionais que eu já vi, esse aqui é histórico</t>
+          <t>Kay, no offense but I mean it was good 10 episodes of 11 minutes mere dumb cute cartoon, but this is too overrated in letterboxd. Even in IMDb.  Please don't hate me.  PS Greg is just too cute</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>0.75</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Steven</t>
+          <t>Brody Brittain</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>2021/08/27</t>
+          <t>2021/11/30</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>apparently a bunch of trolls and bots got this bumped up to #8 on letterboxd top 250 list. honestly you have to respect it. we should try to do the same for the new addison rae movie</t>
+          <t>Ain't that just the way :)</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>-3.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Muscala</t>
+          <t>angie</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>2020/01/05</t>
+          <t>2021/08/17</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>This one has been on my radar for a while due to its top 20 spot in the official Letterboxd 250. Previously I thought it was more or less unavailable but turns out the whole thing is streaming on Vimeo in pretty good quality. I had no idea what it was about or what type of film it was, only that it doesn't always play that well to non-Brazilian audiences. Essentially it's a rapid fire Billy Wilder adjacent comedy with…</t>
+          <t xml:space="preserve"> kicking myself for not seeing this sooner, and in fact missing it when i was in foster care. what a fantastic story here, what a fantastic story  part of what made it so compelling to me was its pointed reliance on early modern and archaic themes despite its often modern-modern style of storytelling (and setting!). the way it's told is for the most part quite actually episodic, in a Moll Flanders sort of sense. the actual direction of the journey…</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>arthur 🎭</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>2024/03/15</t>
-        </is>
-      </c>
-      <c r="D162" t="n">
-        <v>5</v>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>é a maior obra do cinema brasileiro, não tem jeito!!!</t>
-        </is>
-      </c>
-      <c r="F162" t="n">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>vini</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>2022/10/29</t>
-        </is>
-      </c>
-      <c r="D163" t="n">
-        <v>5</v>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>fui logo dizendo "I love you" e ela se derreteu todinha... - I love you? - É. quer dizer morena em francês.</t>
-        </is>
-      </c>
-      <c r="F163" t="n">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>Caique Peixoto</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>2022/10/16</t>
-        </is>
-      </c>
-      <c r="D164" t="n">
-        <v>5</v>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>Filme #157 assistido em 2022.  Volto com as reviews logo menos, por enquanto, apenas logando.  Lista do guia "História do Cinema", aqui: boxd.it/5hOn0</t>
-        </is>
-      </c>
-      <c r="F164" t="n">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>teamgal</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>2022/04/30</t>
-        </is>
-      </c>
-      <c r="D165" t="n">
-        <v>1</v>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>A hodgepodge, whose tonal shifts border on incoherence: slob comedy one minute, religious allegory the next. Broadly acted, shot with all the finesse of daytime television, and brimming with heavy-handed symbolism. At least it moves quickly. Picture a more rascally Abbott &amp; Costello feature that somehow morphs into a Bible pageant constructed with cheap special effects. The humor is sophomoric, the messages muddled and pedestrian.</t>
-        </is>
-      </c>
-      <c r="F165" t="n">
-        <v>-2.75</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>mariel💫</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>2021/11/20</t>
-        </is>
-      </c>
-      <c r="D166" t="n">
-        <v>3</v>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>jesus, why don’t they just call the dog by their name?the priest has gotta be one of the most evilest person for not giving the dog a funeral</t>
-        </is>
-      </c>
-      <c r="F166" t="n">
-        <v>-0.75</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>millenedays</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>2021/10/09</t>
-        </is>
-      </c>
-      <c r="D167" t="n">
-        <v>5</v>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>minha meta de vida é um dia ser metade do que dorinha foi, uma verdadeira DIVA que inspira</t>
-        </is>
-      </c>
-      <c r="F167" t="n">
-        <v>1.25</v>
+        <v>-0.2</v>
       </c>
     </row>
   </sheetData>

--- a/letterboxd_scraping/reviews.xlsx
+++ b/letterboxd_scraping/reviews.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F161"/>
+  <dimension ref="A1:G161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Length</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Deviation from the Mean</t>
         </is>
       </c>
@@ -483,6 +488,9 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>193</v>
+      </c>
+      <c r="G2" t="n">
         <v>-0.7</v>
       </c>
     </row>
@@ -509,6 +517,9 @@
         </is>
       </c>
       <c r="F3" t="n">
+        <v>67</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -535,6 +546,9 @@
         </is>
       </c>
       <c r="F4" t="n">
+        <v>170</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -561,6 +575,9 @@
         </is>
       </c>
       <c r="F5" t="n">
+        <v>36</v>
+      </c>
+      <c r="G5" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -587,6 +604,9 @@
         </is>
       </c>
       <c r="F6" t="n">
+        <v>430</v>
+      </c>
+      <c r="G6" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -613,6 +633,9 @@
         </is>
       </c>
       <c r="F7" t="n">
+        <v>33</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -639,6 +662,9 @@
         </is>
       </c>
       <c r="F8" t="n">
+        <v>231</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -665,6 +691,9 @@
         </is>
       </c>
       <c r="F9" t="n">
+        <v>123</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -691,6 +720,9 @@
         </is>
       </c>
       <c r="F10" t="n">
+        <v>128</v>
+      </c>
+      <c r="G10" t="n">
         <v>-0.7</v>
       </c>
     </row>
@@ -717,6 +749,9 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>102</v>
+      </c>
+      <c r="G11" t="n">
         <v>-0.7</v>
       </c>
     </row>
@@ -743,6 +778,9 @@
         </is>
       </c>
       <c r="F12" t="n">
+        <v>195</v>
+      </c>
+      <c r="G12" t="n">
         <v>-1.2</v>
       </c>
     </row>
@@ -769,6 +807,9 @@
         </is>
       </c>
       <c r="F13" t="n">
+        <v>20</v>
+      </c>
+      <c r="G13" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -795,6 +836,9 @@
         </is>
       </c>
       <c r="F14" t="n">
+        <v>36</v>
+      </c>
+      <c r="G14" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -821,6 +865,9 @@
         </is>
       </c>
       <c r="F15" t="n">
+        <v>561</v>
+      </c>
+      <c r="G15" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -847,6 +894,9 @@
         </is>
       </c>
       <c r="F16" t="n">
+        <v>56</v>
+      </c>
+      <c r="G16" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -873,6 +923,9 @@
         </is>
       </c>
       <c r="F17" t="n">
+        <v>143</v>
+      </c>
+      <c r="G17" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -899,6 +952,9 @@
         </is>
       </c>
       <c r="F18" t="n">
+        <v>24</v>
+      </c>
+      <c r="G18" t="n">
         <v>-0.7</v>
       </c>
     </row>
@@ -925,6 +981,9 @@
         </is>
       </c>
       <c r="F19" t="n">
+        <v>17</v>
+      </c>
+      <c r="G19" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -951,6 +1010,9 @@
         </is>
       </c>
       <c r="F20" t="n">
+        <v>71</v>
+      </c>
+      <c r="G20" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -977,6 +1039,9 @@
         </is>
       </c>
       <c r="F21" t="n">
+        <v>329</v>
+      </c>
+      <c r="G21" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -1003,6 +1068,9 @@
         </is>
       </c>
       <c r="F22" t="n">
+        <v>62</v>
+      </c>
+      <c r="G22" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -1029,6 +1097,9 @@
         </is>
       </c>
       <c r="F23" t="n">
+        <v>177</v>
+      </c>
+      <c r="G23" t="n">
         <v>-0.7</v>
       </c>
     </row>
@@ -1055,6 +1126,9 @@
         </is>
       </c>
       <c r="F24" t="n">
+        <v>71</v>
+      </c>
+      <c r="G24" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -1081,6 +1155,9 @@
         </is>
       </c>
       <c r="F25" t="n">
+        <v>136</v>
+      </c>
+      <c r="G25" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -1107,6 +1184,9 @@
         </is>
       </c>
       <c r="F26" t="n">
+        <v>525</v>
+      </c>
+      <c r="G26" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -1133,6 +1213,9 @@
         </is>
       </c>
       <c r="F27" t="n">
+        <v>119</v>
+      </c>
+      <c r="G27" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -1159,6 +1242,9 @@
         </is>
       </c>
       <c r="F28" t="n">
+        <v>423</v>
+      </c>
+      <c r="G28" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -1185,6 +1271,9 @@
         </is>
       </c>
       <c r="F29" t="n">
+        <v>59</v>
+      </c>
+      <c r="G29" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -1211,6 +1300,9 @@
         </is>
       </c>
       <c r="F30" t="n">
+        <v>65</v>
+      </c>
+      <c r="G30" t="n">
         <v>-1.2</v>
       </c>
     </row>
@@ -1237,6 +1329,9 @@
         </is>
       </c>
       <c r="F31" t="n">
+        <v>417</v>
+      </c>
+      <c r="G31" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -1263,6 +1358,9 @@
         </is>
       </c>
       <c r="F32" t="n">
+        <v>84</v>
+      </c>
+      <c r="G32" t="n">
         <v>-0.7</v>
       </c>
     </row>
@@ -1289,6 +1387,9 @@
         </is>
       </c>
       <c r="F33" t="n">
+        <v>12</v>
+      </c>
+      <c r="G33" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -1315,6 +1416,9 @@
         </is>
       </c>
       <c r="F34" t="n">
+        <v>436</v>
+      </c>
+      <c r="G34" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -1341,6 +1445,9 @@
         </is>
       </c>
       <c r="F35" t="n">
+        <v>54</v>
+      </c>
+      <c r="G35" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -1367,6 +1474,9 @@
         </is>
       </c>
       <c r="F36" t="n">
+        <v>398</v>
+      </c>
+      <c r="G36" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -1393,6 +1503,9 @@
         </is>
       </c>
       <c r="F37" t="n">
+        <v>162</v>
+      </c>
+      <c r="G37" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -1419,6 +1532,9 @@
         </is>
       </c>
       <c r="F38" t="n">
+        <v>46</v>
+      </c>
+      <c r="G38" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -1445,6 +1561,9 @@
         </is>
       </c>
       <c r="F39" t="n">
+        <v>207</v>
+      </c>
+      <c r="G39" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -1471,6 +1590,9 @@
         </is>
       </c>
       <c r="F40" t="n">
+        <v>70</v>
+      </c>
+      <c r="G40" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -1497,6 +1619,9 @@
         </is>
       </c>
       <c r="F41" t="n">
+        <v>23</v>
+      </c>
+      <c r="G41" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -1523,6 +1648,9 @@
         </is>
       </c>
       <c r="F42" t="n">
+        <v>99</v>
+      </c>
+      <c r="G42" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -1549,6 +1677,9 @@
         </is>
       </c>
       <c r="F43" t="n">
+        <v>73</v>
+      </c>
+      <c r="G43" t="n">
         <v>-1.2</v>
       </c>
     </row>
@@ -1575,6 +1706,9 @@
         </is>
       </c>
       <c r="F44" t="n">
+        <v>30</v>
+      </c>
+      <c r="G44" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -1601,6 +1735,9 @@
         </is>
       </c>
       <c r="F45" t="n">
+        <v>214</v>
+      </c>
+      <c r="G45" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -1627,6 +1764,9 @@
         </is>
       </c>
       <c r="F46" t="n">
+        <v>54</v>
+      </c>
+      <c r="G46" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -1653,6 +1793,9 @@
         </is>
       </c>
       <c r="F47" t="n">
+        <v>53</v>
+      </c>
+      <c r="G47" t="n">
         <v>-0.7</v>
       </c>
     </row>
@@ -1679,6 +1822,9 @@
         </is>
       </c>
       <c r="F48" t="n">
+        <v>41</v>
+      </c>
+      <c r="G48" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -1705,6 +1851,9 @@
         </is>
       </c>
       <c r="F49" t="n">
+        <v>443</v>
+      </c>
+      <c r="G49" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -1731,6 +1880,9 @@
         </is>
       </c>
       <c r="F50" t="n">
+        <v>602</v>
+      </c>
+      <c r="G50" t="n">
         <v>-1.2</v>
       </c>
     </row>
@@ -1757,6 +1909,9 @@
         </is>
       </c>
       <c r="F51" t="n">
+        <v>44</v>
+      </c>
+      <c r="G51" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -1783,6 +1938,9 @@
         </is>
       </c>
       <c r="F52" t="n">
+        <v>151</v>
+      </c>
+      <c r="G52" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -1809,6 +1967,9 @@
         </is>
       </c>
       <c r="F53" t="n">
+        <v>191</v>
+      </c>
+      <c r="G53" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -1835,6 +1996,9 @@
         </is>
       </c>
       <c r="F54" t="n">
+        <v>295</v>
+      </c>
+      <c r="G54" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -1861,6 +2025,9 @@
         </is>
       </c>
       <c r="F55" t="n">
+        <v>179</v>
+      </c>
+      <c r="G55" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -1887,6 +2054,9 @@
         </is>
       </c>
       <c r="F56" t="n">
+        <v>54</v>
+      </c>
+      <c r="G56" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -1913,6 +2083,9 @@
         </is>
       </c>
       <c r="F57" t="n">
+        <v>378</v>
+      </c>
+      <c r="G57" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -1939,6 +2112,9 @@
         </is>
       </c>
       <c r="F58" t="n">
+        <v>453</v>
+      </c>
+      <c r="G58" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -1965,6 +2141,9 @@
         </is>
       </c>
       <c r="F59" t="n">
+        <v>113</v>
+      </c>
+      <c r="G59" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -1991,6 +2170,9 @@
         </is>
       </c>
       <c r="F60" t="n">
+        <v>450</v>
+      </c>
+      <c r="G60" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -2017,6 +2199,9 @@
         </is>
       </c>
       <c r="F61" t="n">
+        <v>533</v>
+      </c>
+      <c r="G61" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -2043,6 +2228,9 @@
         </is>
       </c>
       <c r="F62" t="n">
+        <v>477</v>
+      </c>
+      <c r="G62" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -2069,6 +2257,9 @@
         </is>
       </c>
       <c r="F63" t="n">
+        <v>294</v>
+      </c>
+      <c r="G63" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -2095,6 +2286,9 @@
         </is>
       </c>
       <c r="F64" t="n">
+        <v>469</v>
+      </c>
+      <c r="G64" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -2121,6 +2315,9 @@
         </is>
       </c>
       <c r="F65" t="n">
+        <v>67</v>
+      </c>
+      <c r="G65" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -2147,6 +2344,9 @@
         </is>
       </c>
       <c r="F66" t="n">
+        <v>107</v>
+      </c>
+      <c r="G66" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -2173,6 +2373,9 @@
         </is>
       </c>
       <c r="F67" t="n">
+        <v>416</v>
+      </c>
+      <c r="G67" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -2199,6 +2402,9 @@
         </is>
       </c>
       <c r="F68" t="n">
+        <v>28</v>
+      </c>
+      <c r="G68" t="n">
         <v>-0.7</v>
       </c>
     </row>
@@ -2225,6 +2431,9 @@
         </is>
       </c>
       <c r="F69" t="n">
+        <v>482</v>
+      </c>
+      <c r="G69" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -2251,6 +2460,9 @@
         </is>
       </c>
       <c r="F70" t="n">
+        <v>195</v>
+      </c>
+      <c r="G70" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -2277,6 +2489,9 @@
         </is>
       </c>
       <c r="F71" t="n">
+        <v>457</v>
+      </c>
+      <c r="G71" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -2303,6 +2518,9 @@
         </is>
       </c>
       <c r="F72" t="n">
+        <v>472</v>
+      </c>
+      <c r="G72" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -2329,6 +2547,9 @@
         </is>
       </c>
       <c r="F73" t="n">
+        <v>175</v>
+      </c>
+      <c r="G73" t="n">
         <v>-0.7</v>
       </c>
     </row>
@@ -2355,6 +2576,9 @@
         </is>
       </c>
       <c r="F74" t="n">
+        <v>212</v>
+      </c>
+      <c r="G74" t="n">
         <v>-0.7</v>
       </c>
     </row>
@@ -2381,6 +2605,9 @@
         </is>
       </c>
       <c r="F75" t="n">
+        <v>86</v>
+      </c>
+      <c r="G75" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -2407,6 +2634,9 @@
         </is>
       </c>
       <c r="F76" t="n">
+        <v>53</v>
+      </c>
+      <c r="G76" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -2433,6 +2663,9 @@
         </is>
       </c>
       <c r="F77" t="n">
+        <v>473</v>
+      </c>
+      <c r="G77" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -2459,6 +2692,9 @@
         </is>
       </c>
       <c r="F78" t="n">
+        <v>435</v>
+      </c>
+      <c r="G78" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -2485,6 +2721,9 @@
         </is>
       </c>
       <c r="F79" t="n">
+        <v>427</v>
+      </c>
+      <c r="G79" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -2511,6 +2750,9 @@
         </is>
       </c>
       <c r="F80" t="n">
+        <v>123</v>
+      </c>
+      <c r="G80" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -2537,6 +2779,9 @@
         </is>
       </c>
       <c r="F81" t="n">
+        <v>123</v>
+      </c>
+      <c r="G81" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -2563,6 +2808,9 @@
         </is>
       </c>
       <c r="F82" t="n">
+        <v>38</v>
+      </c>
+      <c r="G82" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -2589,6 +2837,9 @@
         </is>
       </c>
       <c r="F83" t="n">
+        <v>127</v>
+      </c>
+      <c r="G83" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -2615,6 +2866,9 @@
         </is>
       </c>
       <c r="F84" t="n">
+        <v>68</v>
+      </c>
+      <c r="G84" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -2641,6 +2895,9 @@
         </is>
       </c>
       <c r="F85" t="n">
+        <v>523</v>
+      </c>
+      <c r="G85" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -2667,6 +2924,9 @@
         </is>
       </c>
       <c r="F86" t="n">
+        <v>474</v>
+      </c>
+      <c r="G86" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -2693,6 +2953,9 @@
         </is>
       </c>
       <c r="F87" t="n">
+        <v>28</v>
+      </c>
+      <c r="G87" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -2719,6 +2982,9 @@
         </is>
       </c>
       <c r="F88" t="n">
+        <v>478</v>
+      </c>
+      <c r="G88" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -2745,6 +3011,9 @@
         </is>
       </c>
       <c r="F89" t="n">
+        <v>94</v>
+      </c>
+      <c r="G89" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -2771,6 +3040,9 @@
         </is>
       </c>
       <c r="F90" t="n">
+        <v>304</v>
+      </c>
+      <c r="G90" t="n">
         <v>-1.7</v>
       </c>
     </row>
@@ -2797,6 +3069,9 @@
         </is>
       </c>
       <c r="F91" t="n">
+        <v>38</v>
+      </c>
+      <c r="G91" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -2823,6 +3098,9 @@
         </is>
       </c>
       <c r="F92" t="n">
+        <v>511</v>
+      </c>
+      <c r="G92" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -2849,6 +3127,9 @@
         </is>
       </c>
       <c r="F93" t="n">
+        <v>58</v>
+      </c>
+      <c r="G93" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -2875,6 +3156,9 @@
         </is>
       </c>
       <c r="F94" t="n">
+        <v>52</v>
+      </c>
+      <c r="G94" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -2901,6 +3185,9 @@
         </is>
       </c>
       <c r="F95" t="n">
+        <v>401</v>
+      </c>
+      <c r="G95" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -2927,6 +3214,9 @@
         </is>
       </c>
       <c r="F96" t="n">
+        <v>481</v>
+      </c>
+      <c r="G96" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -2953,6 +3243,9 @@
         </is>
       </c>
       <c r="F97" t="n">
+        <v>498</v>
+      </c>
+      <c r="G97" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -2979,6 +3272,9 @@
         </is>
       </c>
       <c r="F98" t="n">
+        <v>31</v>
+      </c>
+      <c r="G98" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -3005,6 +3301,9 @@
         </is>
       </c>
       <c r="F99" t="n">
+        <v>488</v>
+      </c>
+      <c r="G99" t="n">
         <v>-1.2</v>
       </c>
     </row>
@@ -3031,6 +3330,9 @@
         </is>
       </c>
       <c r="F100" t="n">
+        <v>476</v>
+      </c>
+      <c r="G100" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -3057,6 +3359,9 @@
         </is>
       </c>
       <c r="F101" t="n">
+        <v>93</v>
+      </c>
+      <c r="G101" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -3083,6 +3388,9 @@
         </is>
       </c>
       <c r="F102" t="n">
+        <v>467</v>
+      </c>
+      <c r="G102" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -3109,6 +3417,9 @@
         </is>
       </c>
       <c r="F103" t="n">
+        <v>111</v>
+      </c>
+      <c r="G103" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -3135,6 +3446,9 @@
         </is>
       </c>
       <c r="F104" t="n">
+        <v>429</v>
+      </c>
+      <c r="G104" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -3161,6 +3475,9 @@
         </is>
       </c>
       <c r="F105" t="n">
+        <v>162</v>
+      </c>
+      <c r="G105" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -3187,6 +3504,9 @@
         </is>
       </c>
       <c r="F106" t="n">
+        <v>40</v>
+      </c>
+      <c r="G106" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -3213,6 +3533,9 @@
         </is>
       </c>
       <c r="F107" t="n">
+        <v>117</v>
+      </c>
+      <c r="G107" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -3239,6 +3562,9 @@
         </is>
       </c>
       <c r="F108" t="n">
+        <v>76</v>
+      </c>
+      <c r="G108" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -3265,6 +3591,9 @@
         </is>
       </c>
       <c r="F109" t="n">
+        <v>29</v>
+      </c>
+      <c r="G109" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -3291,6 +3620,9 @@
         </is>
       </c>
       <c r="F110" t="n">
+        <v>445</v>
+      </c>
+      <c r="G110" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -3317,6 +3649,9 @@
         </is>
       </c>
       <c r="F111" t="n">
+        <v>46</v>
+      </c>
+      <c r="G111" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -3343,6 +3678,9 @@
         </is>
       </c>
       <c r="F112" t="n">
+        <v>418</v>
+      </c>
+      <c r="G112" t="n">
         <v>-0.7</v>
       </c>
     </row>
@@ -3369,6 +3707,9 @@
         </is>
       </c>
       <c r="F113" t="n">
+        <v>339</v>
+      </c>
+      <c r="G113" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -3395,6 +3736,9 @@
         </is>
       </c>
       <c r="F114" t="n">
+        <v>501</v>
+      </c>
+      <c r="G114" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -3421,6 +3765,9 @@
         </is>
       </c>
       <c r="F115" t="n">
+        <v>85</v>
+      </c>
+      <c r="G115" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -3447,6 +3794,9 @@
         </is>
       </c>
       <c r="F116" t="n">
+        <v>13</v>
+      </c>
+      <c r="G116" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -3473,6 +3823,9 @@
         </is>
       </c>
       <c r="F117" t="n">
+        <v>511</v>
+      </c>
+      <c r="G117" t="n">
         <v>-0.7</v>
       </c>
     </row>
@@ -3499,6 +3852,9 @@
         </is>
       </c>
       <c r="F118" t="n">
+        <v>558</v>
+      </c>
+      <c r="G118" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -3525,6 +3881,9 @@
         </is>
       </c>
       <c r="F119" t="n">
+        <v>580</v>
+      </c>
+      <c r="G119" t="n">
         <v>-0.7</v>
       </c>
     </row>
@@ -3551,6 +3910,9 @@
         </is>
       </c>
       <c r="F120" t="n">
+        <v>181</v>
+      </c>
+      <c r="G120" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -3577,6 +3939,9 @@
         </is>
       </c>
       <c r="F121" t="n">
+        <v>71</v>
+      </c>
+      <c r="G121" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -3603,6 +3968,9 @@
         </is>
       </c>
       <c r="F122" t="n">
+        <v>408</v>
+      </c>
+      <c r="G122" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -3629,6 +3997,9 @@
         </is>
       </c>
       <c r="F123" t="n">
+        <v>41</v>
+      </c>
+      <c r="G123" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -3655,6 +4026,9 @@
         </is>
       </c>
       <c r="F124" t="n">
+        <v>335</v>
+      </c>
+      <c r="G124" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -3681,6 +4055,9 @@
         </is>
       </c>
       <c r="F125" t="n">
+        <v>147</v>
+      </c>
+      <c r="G125" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -3707,6 +4084,9 @@
         </is>
       </c>
       <c r="F126" t="n">
+        <v>409</v>
+      </c>
+      <c r="G126" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -3733,6 +4113,9 @@
         </is>
       </c>
       <c r="F127" t="n">
+        <v>328</v>
+      </c>
+      <c r="G127" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -3759,6 +4142,9 @@
         </is>
       </c>
       <c r="F128" t="n">
+        <v>455</v>
+      </c>
+      <c r="G128" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -3785,6 +4171,9 @@
         </is>
       </c>
       <c r="F129" t="n">
+        <v>440</v>
+      </c>
+      <c r="G129" t="n">
         <v>-1.7</v>
       </c>
     </row>
@@ -3811,6 +4200,9 @@
         </is>
       </c>
       <c r="F130" t="n">
+        <v>95</v>
+      </c>
+      <c r="G130" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -3837,6 +4229,9 @@
         </is>
       </c>
       <c r="F131" t="n">
+        <v>492</v>
+      </c>
+      <c r="G131" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -3863,6 +4258,9 @@
         </is>
       </c>
       <c r="F132" t="n">
+        <v>450</v>
+      </c>
+      <c r="G132" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -3889,6 +4287,9 @@
         </is>
       </c>
       <c r="F133" t="n">
+        <v>26</v>
+      </c>
+      <c r="G133" t="n">
         <v>-1.2</v>
       </c>
     </row>
@@ -3915,6 +4316,9 @@
         </is>
       </c>
       <c r="F134" t="n">
+        <v>222</v>
+      </c>
+      <c r="G134" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -3941,6 +4345,9 @@
         </is>
       </c>
       <c r="F135" t="n">
+        <v>213</v>
+      </c>
+      <c r="G135" t="n">
         <v>-0.7</v>
       </c>
     </row>
@@ -3967,6 +4374,9 @@
         </is>
       </c>
       <c r="F136" t="n">
+        <v>98</v>
+      </c>
+      <c r="G136" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -3993,6 +4403,9 @@
         </is>
       </c>
       <c r="F137" t="n">
+        <v>175</v>
+      </c>
+      <c r="G137" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -4019,6 +4432,9 @@
         </is>
       </c>
       <c r="F138" t="n">
+        <v>156</v>
+      </c>
+      <c r="G138" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -4045,6 +4461,9 @@
         </is>
       </c>
       <c r="F139" t="n">
+        <v>448</v>
+      </c>
+      <c r="G139" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -4071,6 +4490,9 @@
         </is>
       </c>
       <c r="F140" t="n">
+        <v>149</v>
+      </c>
+      <c r="G140" t="n">
         <v>-0.7</v>
       </c>
     </row>
@@ -4097,6 +4519,9 @@
         </is>
       </c>
       <c r="F141" t="n">
+        <v>126</v>
+      </c>
+      <c r="G141" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -4123,6 +4548,9 @@
         </is>
       </c>
       <c r="F142" t="n">
+        <v>302</v>
+      </c>
+      <c r="G142" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -4149,6 +4577,9 @@
         </is>
       </c>
       <c r="F143" t="n">
+        <v>514</v>
+      </c>
+      <c r="G143" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -4175,6 +4606,9 @@
         </is>
       </c>
       <c r="F144" t="n">
+        <v>446</v>
+      </c>
+      <c r="G144" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -4201,6 +4635,9 @@
         </is>
       </c>
       <c r="F145" t="n">
+        <v>99</v>
+      </c>
+      <c r="G145" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -4227,6 +4664,9 @@
         </is>
       </c>
       <c r="F146" t="n">
+        <v>45</v>
+      </c>
+      <c r="G146" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -4253,6 +4693,9 @@
         </is>
       </c>
       <c r="F147" t="n">
+        <v>72</v>
+      </c>
+      <c r="G147" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -4279,6 +4722,9 @@
         </is>
       </c>
       <c r="F148" t="n">
+        <v>78</v>
+      </c>
+      <c r="G148" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -4305,6 +4751,9 @@
         </is>
       </c>
       <c r="F149" t="n">
+        <v>541</v>
+      </c>
+      <c r="G149" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -4331,6 +4780,9 @@
         </is>
       </c>
       <c r="F150" t="n">
+        <v>471</v>
+      </c>
+      <c r="G150" t="n">
         <v>-0.7</v>
       </c>
     </row>
@@ -4357,6 +4809,9 @@
         </is>
       </c>
       <c r="F151" t="n">
+        <v>202</v>
+      </c>
+      <c r="G151" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -4383,6 +4838,9 @@
         </is>
       </c>
       <c r="F152" t="n">
+        <v>37</v>
+      </c>
+      <c r="G152" t="n">
         <v>-1.2</v>
       </c>
     </row>
@@ -4409,6 +4867,9 @@
         </is>
       </c>
       <c r="F153" t="n">
+        <v>172</v>
+      </c>
+      <c r="G153" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -4435,6 +4896,9 @@
         </is>
       </c>
       <c r="F154" t="n">
+        <v>339</v>
+      </c>
+      <c r="G154" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -4461,6 +4925,9 @@
         </is>
       </c>
       <c r="F155" t="n">
+        <v>194</v>
+      </c>
+      <c r="G155" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -4487,6 +4954,9 @@
         </is>
       </c>
       <c r="F156" t="n">
+        <v>65</v>
+      </c>
+      <c r="G156" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -4513,6 +4983,9 @@
         </is>
       </c>
       <c r="F157" t="n">
+        <v>587</v>
+      </c>
+      <c r="G157" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -4539,6 +5012,9 @@
         </is>
       </c>
       <c r="F158" t="n">
+        <v>62</v>
+      </c>
+      <c r="G158" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -4565,6 +5041,9 @@
         </is>
       </c>
       <c r="F159" t="n">
+        <v>192</v>
+      </c>
+      <c r="G159" t="n">
         <v>-1.7</v>
       </c>
     </row>
@@ -4591,6 +5070,9 @@
         </is>
       </c>
       <c r="F160" t="n">
+        <v>26</v>
+      </c>
+      <c r="G160" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -4617,6 +5099,9 @@
         </is>
       </c>
       <c r="F161" t="n">
+        <v>452</v>
+      </c>
+      <c r="G161" t="n">
         <v>-0.2</v>
       </c>
     </row>

--- a/letterboxd_scraping/reviews.xlsx
+++ b/letterboxd_scraping/reviews.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G161"/>
+  <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,6 +461,11 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Filme</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Deviation from the Mean</t>
         </is>
       </c>
@@ -471,12 +476,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>russman</t>
+          <t>Karst</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2016/05/06</t>
+          <t>2022/04/01</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -484,14 +489,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>My ranking of the frog's many names:  1. Doctor Cucumber 2. Benjamin Franklin 3. Ronald 4. Kitty 5. George Washington 6. Jason Funderburker  7. Mr. President 8. Skipper 9. Wirt Jr. 10. Greg Jr.</t>
+          <t>easily one of the top 5 movies about taxes</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>193</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-0.7</v>
+        <v>42</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.58</v>
       </c>
     </row>
     <row r="3">
@@ -500,12 +510,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Karst</t>
+          <t>CosmonautMarkie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021/09/26</t>
+          <t>2022/04/08</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -513,14 +523,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>the best shows are those where a charming character is named “Greg”</t>
+          <t>Watch it and have fun before film Twitter tells you it’s overrated</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>67</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.3</v>
+        <v>66</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="4">
@@ -529,27 +544,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Karst</t>
+          <t>ian</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021/10/26</t>
+          <t>2022/03/30</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>frog names ranked:  10. Skipper 9. Ronald 8. Greg Jr. 7. Doctor Cucumber 6. Wirt 5. George Washington 4. Jason funderburker 3. Benjamin Franklin 2. Mr. President 1. kitty</t>
+          <t>rocks just made me cry</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>170</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.3</v>
+        <v>22</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="5">
@@ -558,12 +578,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lucy</t>
+          <t>wes10</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2020/10/29</t>
+          <t>2022/04/01</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -571,14 +591,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SO WE CAME HERE TO BURGLE YOUR TURTS</t>
+          <t>cutest husband in the world</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>36</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-0.2</v>
+        <v>27</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="6">
@@ -587,27 +612,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>𝐇𝐞𝐚𝐭𝐡𝐞𝐫 🌷</t>
+          <t>demi adejuyigbe</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2020/09/15</t>
+          <t>2022/03/23</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Oh, Potatoes 🥔 and Molasses! 🕺🏻💃🏻 If you want some, 🤲 oh just ask us 💬 There're 🔥warm and soft like puppies🐶 and socks🧦 Filled with cream🍨and candy rocks🍬 Oh, Potatoes🥔 and Molasses!🕺🏻💃🏻 They're so much 🍭sweeter than algebra 🔢 class If your stomach 😋 is 😋 grumbling 😋 And your mouth 👄 starts mumbling 🗣 There's only one thing 1️⃣to keep your brain 🧠 from crumbling Oh, Potatoes🥔 and Molasses!🕺🏻💃🏻 If you ❌ can't see 'em 👁👁 put on…</t>
+          <t>It’s hard to account for recency bias in saying something this definite, and surely someone will want to start a useless argument or hold resentment against the movie because they disagree, but I think this is one of my favorite movies I have ever seen. It’s been a while since I felt that way with something new. But my expectations were high going in and I still thought so 30 minutes in. Then an hour in. Then 2 hours in.…</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>430</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-0.2</v>
+        <v>425</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="7">
@@ -616,12 +646,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>cookie</t>
+          <t>the film drunk</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2020/03/07</t>
+          <t>2022/03/24</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -629,57 +659,67 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>jason funderburker you’re nothing</t>
+          <t>I swear I started levitating during the movie</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>33</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.3</v>
+        <v>45</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>demi adejuyigbe</t>
+          <t>James (Schaffrillas)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2021/11/02</t>
+          <t>2022/04/09</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>I always forget that Greg is the absolute platonic ideal of a character to me. Just perfect in every way. Can’t think of a show that wouldn’t be approved with his addition!   “You can hold my hand Jason Funderberker, I don’t care.”</t>
+          <t>Nothing matters. Everything matters.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>231</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.3</v>
+        <v>36</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Karst</t>
+          <t>ConnorEatsPants</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2020/09/18</t>
+          <t>2022/04/23</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -687,115 +727,135 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>I want the opossum with the human-like shoulders in episode 3. He’s so good at guitar. Give him a spinoff already!!! Cmon!!</t>
+          <t>Just found out Awkwafina was originally cast as the daughter and now I’m even more thankful to be in the universe where that didn’t happen.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>123</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.3</v>
+        <v>139</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ele 🪷</t>
+          <t>David Chen</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2018/04/09</t>
+          <t>2022/03/24</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>wirt just wanted to give his girl a mixtape of his poetry and him playing the clarinet and I want him to know that I support him</t>
+          <t>Once every few years, a film comes along that is so audacious, funny, original, technically dazzling, and thematically resonant, we feel blessed to have been alive to see it.   This is such a film. It spoke to me on such a core level that it felt genetically engineered to meet me at this point in my life.   It may be my new favorite movie of all time. No joke.  - Watch my video review on YouTube - Listen to my interview with the directors - Listen to my podcast review of the film</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>128</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-0.7</v>
+        <v>484</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>˗ˏˋ suspirliam ˊˎ˗</t>
+          <t>Megan Bitchell</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2018/08/16</t>
+          <t>2022/04/12</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>can we get more dark and spooky yet emotional and beautiful animated masterpieces like this please !!!</t>
+          <t>Not sure how to explain why I didn't love this, so I'll start with what I did like: I LOVED the costumes and how Joy looks like a Bjork album cover towards the end of the movie. The editing was good. The visuals were a lot of fun, I loved all the confetti and glitter throw up. The lighting was great!! Visually the movie was great!! Also having to do something statistically improbable to jump universes was very silly and…</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>102</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-0.7</v>
+        <v>424</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>-2.58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>James (Schaffrillas)</t>
+          <t>24framesofnick</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2023/08/28</t>
+          <t>2022/03/30</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Reminds me of Infinity Train Season 1! You know, the nice, charming, good one that paved the way for the masterpieces that were Seasons 2 and 3  Though to be fair Infinity Train doesn't have Greg</t>
+          <t>This is the greatest multiverse movie of all time if not the greatest movie of all time</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>195</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-1.2</v>
+        <v>87</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>feat. dante from the dmc series</t>
+          <t>demi adejuyigbe</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2017/08/17</t>
+          <t>2022/04/04</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -803,28 +863,33 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>here, eat your dirt.</t>
+          <t>the day i first saw this movie was what i call one of my "bad luck" days.  i have a long-held superstition of good and bad luck days that helps me deal with the latter, and the rule is simple: if something bad happens early in the day? gonna be a bad luck day. and that's okay, because a good luck day always follows. problem with a bad luck day is that it still makes me very irritable, as i…</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>20</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.3</v>
+        <v>393</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Karst</t>
+          <t>tyler</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2023/10/01</t>
+          <t>2022/04/09</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -832,57 +897,67 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>CHILLS when the highway man shows up</t>
+          <t>this movie should be required viewing for every man, woman, and child on earth.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>36</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.3</v>
+        <v>79</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SilentDawn</t>
+          <t>♦️•Lily•💋</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2019/07/25</t>
+          <t>2022/05/10</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>83  For the autumn leaves and the candle-light, for the crescent moon and the creatures roaming storied paths in which they find solace; a new world is granted for two young boys, discovering that reality is merely a journey from one grove to another. As touching as it is expressive, this miniseries is carried by the wind towards the chill of a slowly setting sun; an experience lifted by levity and pummeled by adolescent awkwardness. At once a poisoned treat for the onset of Fall and a reminder of its clammy, eternal embrace. Such a cozy, wonderful thing.</t>
+          <t>In every universe, there’s always something to love. No matter how insignificant, everything matters.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>561</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-0.2</v>
+        <v>101</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>kj</t>
+          <t>♦️•Lily•💋</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2022/02/03</t>
+          <t>2022/05/15</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -890,57 +965,67 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>why read dante’s inferno when you can watch this instead</t>
+          <t>End of evangelion but for people who go to therapy</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>56</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.3</v>
+        <v>50</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>amaya</t>
+          <t>gal pacino</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2020/02/28</t>
+          <t>2022/04/13</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>i mean it's fine! it's ok. it's not like i've heard the soundtrack more times than my father's voice. i definitively enjoy this a normal amount</t>
+          <t>“I saw my life branching out before me like the green fig tree in the story. From the tip of every branch, like a fat purple fig, a wonderful future beckoned and winked. One fig was a husband and a happy home and children, and another fig was a famous poet and another fig was a brilliant professor... and another fig was an Olympic lady crew champion, and beyond and above these figs were many more figs I couldn't quite…</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>143</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.3</v>
+        <v>422</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>demi adejuyigbe</t>
+          <t>Patrick Willems</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2019/09/25</t>
+          <t>2022/03/28</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -948,28 +1033,33 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>absolutely peak cuteness</t>
+          <t>It rules that Jamie Lee Curtis is in this movie and is totally game for so much bonkers stuff. She seems like she'd be fun to hang out with.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>24</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-0.7</v>
+        <v>140</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>maria</t>
+          <t>selomeee</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2021/10/03</t>
+          <t>2022/03/11</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -977,28 +1067,33 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>i'm just so happy</t>
+          <t>holyyyyyyyyy fucking hell.  haven’t felt this overwhelmed or in love in a long time. going to have to watch this like….. several more times. so many things to say and i have none of the words yet.   “i wanted to say, in another life, i would be happy just doing laundry and taxes with you.”</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>17</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.3</v>
+        <v>290</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>♦️•Lily•💋</t>
+          <t>Lucy</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2020/10/31</t>
+          <t>2022/04/20</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -1006,28 +1101,33 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Greg with his silly little frog and the silly little teapot on his head</t>
+          <t>a movie so good that a month after seeing it i saw it again 1,933 miles away just to show it to my dad. worth noting: he laughed so hard at the introduction of the hot dog fingers that i thought he was gonna hurt himself. he also had this to say, offhand: “that’s what movie-making is for… that’s what it’s all about… something like THAT!”, which kinda sums it up better than i ever could</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>71</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-0.2</v>
+        <v>388</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>noah</t>
+          <t>demi adejuyigbe</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2017/01/26</t>
+          <t>2022/04/07</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -1035,173 +1135,203 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>myyy name is wirt and his name is greg, we're related cause my mom remarried and then gave birth to him with my stepdad. we're not from here, can u all give us some directions todaayy so we can be on our.... WWWAAAAYYYYYYYYY  (but seriously go watch this mini-series, it's probably one of, if not, the best mini-series out there)</t>
+          <t>crying at the amc with 8 of my pals. movies have the power to change the world</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>329</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.3</v>
+        <v>78</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>oppie</t>
+          <t>siobhan</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2020/10/09</t>
+          <t>2022/04/15</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>GREG IS THE PUREST THING I HAVE EVER SEEN I WOULD DIE FOR GREG</t>
+          <t>you know a movie is genius when it pays homage to one of the greatest films of all time, ratatouille</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>62</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.3</v>
+        <v>100</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.58</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>demi adejuyigbe</t>
+          <t>gal pacino</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2019/09/10</t>
+          <t>2022/03/21</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>honestly i was tired and in a post-IT fugue when i watched this so i dozed off for a lil bit but this is so sweet and funny and lovely and i’m actually excited to watch it again</t>
+          <t>everything modern-day action blockbusters everywhere should be all at once: kinetic, daring, expertly choreographed, endlessly creative, laugh-out-loud funny, doesn't look like bland CGI shit, and anchored by a genuine emotional core.  finds balance in the chaos and chaos in the balance; a mess of contradictions that's actually not messy at all, because every detail in every sequence is discernibly crafted with zealous care. The Daniels also excel at proving that intelligent filmmaking and "lowbrow" humor are not mutually exclusive: butt-plug…</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>177</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-0.7</v>
+        <v>549</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>amaya</t>
+          <t>davidehrlich</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2020/03/08</t>
+          <t>2022/03/11</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>"A" is for the apple that he gave to me :) but i found a worm inside :(</t>
+          <t>Multiverses are so hot right now. And why shouldn’t they be? At a time when people can’t even look at their phones without being confronted by a seemingly infinite number of competing realities — a time which everything seems close enough to touch, but almost nothing feels possible to change, and even the happiest people you know are haunted by the endless possibilities of who else they might have been — telling a story that only takes place on a…</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>71</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.3</v>
+        <v>451</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CinemaJoe</t>
+          <t>♦️•Lily•💋</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2022/05/21</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>A good example of an experience that’s enhanced tenfold when it’s watched surrounded by friends.  Someone play two old cats with me now.</t>
+          <t>Mommy issues, nihilist lesbian representation, mitski song in the credits… pride month came early this year and it came in the form of this film</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>136</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-0.2</v>
+        <v>144</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>aleph beth null</t>
+          <t>Ralph</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2015/10/31</t>
+          <t>2018/12/15</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>eighth or maybe ninth rewatch and i'm still discovering new little connections and kindnesses in this relentlessly melancholy (kierkegaardian?) work of love. bodies and the material world are affirmed all over the place:  — auntie whispers and adelaide are never ever mocked for their frames or non-passing voices — bells stubbornly remain stuck inside frogs even outside the unknown — resurrected pottsfielders require glorified/pumpkinified bodies (reclaiming the satires of seneca jr, zomg) — 'no, no, not a wish, i'm not…</t>
+          <t>The best spider-man film. Beyond being funny, creative, and wonderfully animated, it truly has an understanding of the character of Spider-Man.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>525</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-0.2</v>
+        <v>143</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Drew Clark</t>
+          <t>siobhan</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2021/10/12</t>
+          <t>2018/12/14</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -1209,28 +1339,33 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>This show had a strange familiarity about it. Like I’d seen it all before in a forgotten dream from when I was younger.</t>
+          <t>not to be dramatic but the animation is SO fuckin nice i want to liquify it and inject it into my veins heroin-style</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>119</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.3</v>
+        <v>116</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>nathaxnne [hiatus &lt;3]</t>
+          <t>IHE</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2016/10/31</t>
+          <t>2019/03/17</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -1238,28 +1373,33 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>To find oneself in a dark wood, not in the middle of life, but somewhere closer to its start, would indeed be maybe better, a pilgrim without progress, where you were is where you were all along and you were there and you were there and you were there from the fall on into the winter and the waiting until spring. The stories that aren't true might be true anyway or at least illuminatory, as something to burn that gives…</t>
+          <t>Best Spider-man movie without question.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>423</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.3</v>
+        <v>39</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>🌻 lindsay 🌻</t>
+          <t>andrea🌹</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2020/01/08</t>
+          <t>2018/12/14</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -1267,86 +1407,101 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Oh potatoes! And molasses! If you want some oh just ask us!</t>
+          <t>the g in lgbt stands for gwen</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>59</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.3</v>
+        <v>29</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>adambolt</t>
+          <t>Taylor Williams</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2020/08/10</t>
+          <t>2019/01/02</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>if i ever get lost in the forest i want Greg with me at all times</t>
+          <t>See what happens when you just let talented people do their thing?</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>65</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-1.2</v>
+        <v>66</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Fam Squad Yeet</t>
+          <t>davidehrlich</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2020/05/23</t>
+          <t>2018/11/28</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Over the Garden Wall is on of those rare shows that are masterfully crafted. Like Adventure Time it perfectly captures that sense of Child-like whimsicality for adventure and the underlying evils of the world. The show is dark and moody with it’s perfect animation, brown color palette, and mysterious score. Yet it’s so light with its message and star-eyed Gregory’s knack for looking at the best side of everything.</t>
+          <t>Tragic news for anyone who’s sick of superhero movies: “Spider-Man: Into the Spider-Verse” completely reinvigorates the genre, reaffirms why it’s resonating with a diverse modern audience that’s desperate to fight the power, and reiterates to us how these hyper-popular spandex myths are able to reinvent themselves on the fly whenever things get stale. Just when it seemed like “Infinity War” might be the culmination of a cultural phenomenon, that Stan Lee’s death could symbolize the end of an era, and…</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>417</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.3</v>
+        <v>506</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.67</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>celia</t>
+          <t>David Sims</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2019/09/10</t>
+          <t>2018/11/27</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1354,28 +1509,33 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>it’s just a wholesome lil show about 2 brothers in purgatory and i like it very much</t>
+          <t>Spider-Man Noir for president</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>84</v>
-      </c>
-      <c r="G32" t="n">
-        <v>-0.7</v>
+        <v>29</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>-0.67</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>feat. dante from the dmc series</t>
+          <t>24framesofnick</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2016/08/12</t>
+          <t>2023/05/27</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1383,28 +1543,33 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>oh my god???</t>
+          <t>I can’t believe one of the best animated movies ever made will have a sequel that will also be one of the best animated movies ever made</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>12</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.3</v>
+        <v>136</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>reibureibu</t>
+          <t>Karst</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2021/11/07</t>
+          <t>2018/12/14</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -1412,57 +1577,67 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Takes me back to a place in my life where the world was simpler and I was happier. Both of which, to be fair, were mostly due ignorance, but I can't say I don't miss it.  The falls at my campus were some of the most beautiful I've ever seen. There's something real special about the golden-brown myriad of leaves pigmenting the streets, the gentle nippy drafts which coax out the coat-layering expert in us all, the encroaching time of…</t>
+          <t>I’m so overwhelmed. What do I even say that hasn’t already been said. Could go on about the colors, the animation, the action sequences, the everything really. But for now I’m just gonna process the fact that Nic Cage shows up twice in my top 10 list this year.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>436</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-0.2</v>
+        <v>261</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>cookie</t>
+          <t>sophie</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2021/09/30</t>
+          <t>2019/02/21</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>always leaves me wishing i had a little half brother 🍂</t>
+          <t>anyone: are you ok? me: I'm fine  my brain: in 'into the spider-verse", you can see a billboard for the play "hi, hello", a parody of the real play "oh, hello", with john mulaney's name above the title. as miles is a teenager living in a universe where john mulaney exists, especially as he lives in new york, he must be aware of new york-based comedian john mulaney. surely, he would have recognised mulaney's very distinctive voice coming from spider-ham. does john mulaney exist in spider-ham's universe too? what if spider-ham was actually john-</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>54</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.3</v>
+        <v>549</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Caleb Johnson</t>
+          <t>24framesofnick</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2021/10/13</t>
+          <t>2021/12/15</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1470,57 +1645,67 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>This was a weird experience. Not due to the content of this, but due to the circumstances in which I started to watch this. I was asleep for the night, but then had one of those nights where I kinda just randomly woke up at 3 a.m. and couldn't get back to sleep. So you better believe your boy popped on the TV to watch something. I don't know what made me think of it, but I suddenly remembered I…</t>
+          <t>How do you get better than this</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>398</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.3</v>
+        <v>31</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>‮🐌‬</t>
+          <t>demi adejuyigbe</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2021/09/25</t>
+          <t>2021/12/30</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>*sees one brown leaf*   Į̷̡̛͉̳͖͚̞̜̖̮̋́̆̎̉́͝Ṭ̴̡̬̗̈́̀̅̊̌́ ̶̥̫͓͇̘̀̉͗I̷̧͖͆͗̔̽̿́͘͝͝S̶̡̹̠̰̗͎͈͖̑̋̓̒͊͠ ̸̠̟͙̃̍ͅT̸̡͚̦̥͕͕̖͔̣̅̃́͐̓̋͐̑̾̾͜Ĭ̵̧̢̥̱̠̦͉͚̗͚̾̇̎͊M̵̘̟̘̰̊̓E̴͚̰̖͉̙̣̩̅̀͑̐͂</t>
+          <t>Just an absolute achievement in animation. Weird to look at something so current and know it’ll exist in the annals of history for its medium, but it’d be a struggle to find someone who would disagree. Going to watch it every year. Going to buy the art book and flip through it like a child.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>162</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.3</v>
+        <v>291</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>single white femalien</t>
+          <t>sree</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2017/10/12</t>
+          <t>2018/12/14</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -1528,115 +1713,135 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>always a wonderful n sweet lil falloween treat</t>
+          <t>spider-man noir in his stand-alone: I'M GOING TO STEAL THE DECLARATION OF INDEPENDENCE</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>46</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.3</v>
+        <v>86</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SARAH🦕</t>
+          <t>Josh Lewis</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2021/10/14</t>
+          <t>2019/02/23</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Utterly fantastic but I have to come clean and admit that for a long time whenever I heard people talk about this I thought they were talking about over the hedge    Also more like jason funderFUCKER amirite</t>
+          <t>Took them nearly twenty years but someone who actually likes comic books for their uniquely expressive textures, rhythms, and colors finally made one of these movies.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>207</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.3</v>
+        <v>166</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>-0.67</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>cookie</t>
+          <t>karen h.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2023/10/01</t>
+          <t>2018/12/09</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>this movie is so good they have to play the credits ten times thru out</t>
+          <t>need me a whole spider-noir movie</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>70</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.3</v>
+        <v>33</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>🌻 lindsay 🌻</t>
+          <t>pilot</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2023/10/07</t>
+          <t>2018/12/18</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ain’t that just the way</t>
+          <t>wow the only bad thing about this movie is that it didn’t exist when i was 10</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>23</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.3</v>
+        <v>77</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>jeaba</t>
+          <t>peter</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2023/09/05</t>
+          <t>2018/12/08</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1644,57 +1849,67 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>the best movie to watch at the beginning of september. happy over the garden wall season everyone!!</t>
+          <t>This is the only movie ever made</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>99</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.3</v>
+        <v>32</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Jessica Wessica</t>
+          <t>Jay</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2023/08/28</t>
+          <t>2021/12/26</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Greg the Egg was my favorite character  "We're here to burgle your turts"</t>
+          <t>woman dr octopus?!?! the feminists are taking over!</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>73</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-1.2</v>
+        <v>51</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>East Clintwood</t>
+          <t>demi adejuyigbe</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2023/05/21</t>
+          <t>2018/12/18</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -1702,57 +1917,67 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Spirited Away but for lunatics</t>
+          <t>my THE GET DOWN-stanning ass almost jumped up and clapped about 20 minutes in when i realized i was watching a Shameik Moore-led montage set to The Incredible Bongo Band’s “Apache”</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>30</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0.3</v>
+        <v>180</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Mario 🟠🟢🔵</t>
+          <t>ty</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2023/10/07</t>
+          <t>2018/12/02</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Just Elijah Wood doing Frodo things again. Being a little guy, wandering around with this other little guy, having adventures, fighting darkness and stuff. Absolutely fucking loved it! Animated Movies Ranked 8.5/10</t>
+          <t>"Are you ready to witness the greatest Spider-Man movie of all time?"  The Sam Raimi trilogy gulped... The Amazing Spider-Man 1&amp;2 nodded... Homecoming shuddered...  "Yes, Spider-Man: Into the Spider-Verse"  they said in unison</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>214</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-0.2</v>
+        <v>226</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>jeaba</t>
+          <t>ellie</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2023/11/28</t>
+          <t>2018/11/28</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -1760,28 +1985,33 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>it makes so much sense that wirt is a child of divorce</t>
+          <t>i don’t like spiders and i don’t like men yet this is one of my favourite films of 2018? curious</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>54</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0.3</v>
+        <v>96</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>rudi</t>
+          <t>Patrick Willems</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2021/10/18</t>
+          <t>2018/12/08</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -1789,28 +2019,33 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Potatoes and Molasses written like a fiona apple song</t>
+          <t>By the time this movie turned into animated Bill Sienkiewicz paintings I had to stop myself from screaming "HOLY SHIT I LOVE THIS SO MUCH" at the screen.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>53</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-0.7</v>
+        <v>153</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>-0.67</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>👽 Zara 👽</t>
+          <t>Karst</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2020/11/01</t>
+          <t>2018/12/27</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -1818,28 +2053,33 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>frogs !!!!!!!!!!!!!!!!!!!!  that’s all :)</t>
+          <t>Just can’t get over how bad that dog trailer is...</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>41</v>
-      </c>
-      <c r="G48" t="n">
-        <v>-0.2</v>
+        <v>50</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Wesley R. Ball</t>
+          <t>ksenija</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2016/06/22</t>
+          <t>2020/05/31</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -1847,144 +2087,169 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>I was unaware that Cartoon Network shows can also be cinema.  I've been in some kind of slump out of watching movies lately and I've gotten myself lost in the worlds of Adventure Time and Regular Show. I'm kind of trying to get some changes made in my current life situation that created some strange addiction to watching Adventure Time nearly nonstop, like it actually takes me to some safe, happy place that reminds me of a simpler time in…</t>
+          <t>christopher nolan spent years writing this movie's complex plot and really named the main character dom cobb</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>443</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-0.2</v>
+        <v>108</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/inception/</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Alice Stoehr</t>
+          <t>kirst</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2016/06/30</t>
+          <t>2018/02/18</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>This musical fantasy evokes a range of influences—The Wizard of Oz, Spirited Away, Edward Gorey, the Fleischer Bros.—while sustaining a glissando across a whole spectrum of emotions, from goofy to wistful to heartbroken and back again. It's a world of its own, sparkling new but faintly familiar. (Here's Christopher Lloyd, and there's Tim Curry: the cartoon antagonists of decades past.) Jokes and myths, which I suspect may be interchangeable, accumulate into a compact edifice that you can ascend and gaze down from, at which point you may as well clamber back down and watch all ten episodes again.</t>
+          <t>fellas, is it gay to go inside ur bros dreams?</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>602</v>
-      </c>
-      <c r="G50" t="n">
-        <v>-1.2</v>
+        <v>46</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/inception/</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>-0.64</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>jeaba</t>
+          <t>Patrick Willems</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2023/03/23</t>
+          <t>2020/07/17</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>the perfect watch for a rainy day. so cozy!!</t>
+          <t>Dom Cobb seems like he's never told a joke in his life and has zero friends</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>44</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0.3</v>
+        <v>75</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/inception/</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Mario 🟠🟢🔵</t>
+          <t>cathy</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2024/03/16</t>
+          <t>2017/04/30</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Wasn't planning on rewatching this until autumn, but I had a shitty day and needed a comfort watch. Animated Movies Ranked 9/10  Edit: 4000th review 🥳🥳</t>
+          <t>cillian murphy: no dad i'm giving up on YOUR dream!</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>151</v>
-      </c>
-      <c r="G52" t="n">
-        <v>-0.2</v>
+        <v>51</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/inception/</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Leighton Trent</t>
+          <t>dani✨</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2021/10/23</t>
+          <t>2017/05/09</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>As precious and as magical as anything Cartoon Network has produced.   Nothing else puts me in the spirit of Halloween, and Autumn in general, like this does 🎃 🍂       💀 All the Spooks 2021 💀</t>
+          <t>arthur and eames: interact  me: Gay</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>191</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-0.2</v>
+        <v>35</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/inception/</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>maiapog</t>
+          <t>ciara</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2023/10/09</t>
+          <t>2017/08/05</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -1992,28 +2257,33 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>"It's even growing inside him!" "No, I was just eating leaves."  Re-watched this morning while sipping on a pumpkin latte... IT'S FALL BABY! A perfect show. I love Greg with my whole heart. Peak example that being silly is of the utmost importance. Animation again being the best medium ever!!!!</t>
+          <t>hans zimmer: BWAAAAHHHH BWAAAAAAAAAHHHHHHHH  me: I LOVE THIS SONG!!!!!</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>295</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0.3</v>
+        <v>70</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/inception/</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Sally Darr</t>
+          <t>andrea🌹</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2021/04/10</t>
+          <t>2019/01/05</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -2021,57 +2291,67 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>all of this because Wirt wanted to give a girl a mixtape of him reading poetry and playing clarinet playing he’s a keeper and Greg can burgle my turts with doctor cucumber any day</t>
+          <t>ilysm (i love you scillian murphy)</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>179</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-0.2</v>
+        <v>34</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/inception/</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>brynn helena</t>
+          <t>shannon</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2021/10/04</t>
+          <t>2019/02/12</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>this is regular show but for queer, dark academia kids</t>
+          <t>how is joseph gordon-levitt? is he okay? where is he? is he being taken care of? is he safe? will he ever work again? what is he doing? is his career over? oh how I wish my husband would return from war</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>54</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0.3</v>
+        <v>202</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/inception/</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>🌻 lindsay 🌻</t>
+          <t>Travis Lytle</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2020/09/26</t>
+          <t>2012/07/08</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -2079,57 +2359,67 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>My love for this show comes from the same part of me that feels a swell of happiness when I feel the crisp air of fall.   Summer has never been a time of the year where I feel relaxed. It’s actually always been the most stressful times of the year for me. When I was younger, it was a break in my routine that went on for too long. When I have nothing that I have to do, I just…</t>
+          <t>"Inception," at its most basic, is two things. It is a heist film dressed in science fiction conventions; and it is a study of a man trying to free himself from a near-suffocating past. "Inception," at its more complex, is a cerebral pop-masterpiece. It is an enthralling combination of thought-provoking, layered story-telling and sumptuous aesthetics enhanced by near-flawless editing, sound design, effects, and musical score. Driven by a pitch-perfect cast and the confident directorial hand of Christopher Nolan, "Inception" is a brilliant and unrivaled piece of filmmaking.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>378</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0.3</v>
+        <v>579</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/inception/</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>{Todd}</t>
+          <t>Jay</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2019/10/03</t>
+          <t>2020/04/26</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>"That's vague, what does that mean?" - Wirt,   Beatrice the annoyed Blue Bird is LITERALLY my spirit animal... you hear that, LITERALLY?   Show this to your kids! They deserve to have this treasure as part of their memories of when they began to get fucked up. The creator of Adventure Time, one of my favorite shows, decided to do something more long-form and a bit more grounded and scary and it is fantastic. Two young child brothers, Wirt and Greg,…</t>
+          <t>living in your head rent free</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>453</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-0.2</v>
+        <v>29</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/inception/</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>-0.64</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>cookie</t>
+          <t>sofi✨</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2020/10/29</t>
+          <t>2018/09/22</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -2137,57 +2427,67 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ive seen it a million times but watching it over facetime with lucy was the hardest ive ever laughed during it (:</t>
+          <t>i love this movie but christopher nolan, sweetie, why on earth would you push joseph gordon-levitt’s and elliot page’s relationship when we all know since day one that the real chemistry™ was between joseph gordon-levitt and tom hardy????</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>113</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0.3</v>
+        <v>238</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/inception/</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Leighton Trent</t>
+          <t>Lucy</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2022/10/16</t>
+          <t>2019/04/14</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Oh, potatoes and molasses If you want some, oh, just ask us They're warm and soft like puppies in socks Filled with cream and candy rocks Oh, potatoes and molasses They're so much sweeter than algebra classes If your stomach is grumblin' and your mouth starts a-mumblin' There is only one thing to keep your brain from crumblin' Oh, potatoes and molasses If you can't see 'em, put on your glasses They're shiny and large like a fisherman's barge You…</t>
+          <t>“the dream has become their reality. who are you to say otherwise?”  just as i suspected, still a masterpiece 🥵</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>450</v>
-      </c>
-      <c r="G60" t="n">
-        <v>-0.2</v>
+        <v>111</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/inception/</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Justin Decloux</t>
+          <t>ellie ✨</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2021/08/30</t>
+          <t>2017/09/15</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -2195,28 +2495,33 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>The perfect Fall Watch.   It's got dancing pumpkin skeletons, an amazing rock fact-centric sense of humour, and creepy concepts strained through 30s Fleischer cartoon imagery. Does this feature the last example of John Cleese giving a hilarious performance?   I know it's got a cult following, but I can only imagine how packed the shelves of Hot Topic would be with GARDEN WALL: merch if this had been released as a theatrical film.   And so the story is complete and everyone is satisfied with the ending. And so on and so forth...</t>
+          <t>arthur &amp; ariadne: kiss me: i love this gay/lesbian solidarity !!!</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>533</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0.3</v>
+        <v>65</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/inception/</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>claira curtis</t>
+          <t>sophie</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2023/09/26</t>
+          <t>2018/04/21</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -2224,28 +2529,33 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>“Where… are we?”  “In the woods.”  “I mean… what are we doing out here?”  “We’re walking home!”   Where a forest is not just a forest, a walk home is not just a simple home, an ask for help can bode more harm than aid, a lantern may cast a larger shadow rather than shine a light in the dark, and where the thing that matters most in this world, and the next, is your brother.   It’s time for fall. It’s time for the yearly Over the Garden Wall rewatch. It’s time to come home.</t>
+          <t>if christopher nolan ever needs a script for the sequel, my arthur/eames fanfic is ready to go</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>477</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0.3</v>
+        <v>94</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/inception/</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Lee ॐ मणि पद्मे हूँ</t>
+          <t>dani✨</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2021/09/17</t>
+          <t>2017/09/17</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -2253,86 +2563,101 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>If dreams can't come true, then why not pretend?  Both a campfire horror about grief and the terror of the passing of time, and a whimsical fairy tale about responsibility and self determination. Note how many scenes involve a character telling a story. Cant help but well up over the Woodsman.</t>
+          <t>the totem: [is still spinning at the end] me: WHAT DOES THIS MEAN???? IS HE DREAMING???? DID HE NOT WAKE UP????? WHAT IS THE TRUTH?????? I NEED ANSWERS!!!!!!!!! I CAN'T LIVE LIKE THIS!!!!!!</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>294</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0.3</v>
+        <v>189</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/inception/</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Ash</t>
+          <t>Sam Meltzer</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2019/08/27</t>
+          <t>2020/09/13</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>🍁 • 🌲 • 🍂 • 💀 • 🐸 • 🐦 • 🎃 • 🍃 • 👻  {𝚆𝚒𝚛𝚝} 𝚆𝚎 𝚊𝚛𝚎 𝚋𝚞𝚝 𝚠𝚊𝚢𝚠𝚊𝚛𝚍 𝚕𝚎𝚊𝚟𝚎𝚜, 𝚜𝚌𝚊𝚝𝚝𝚎𝚛𝚎𝚍 𝚝𝚘 𝚝𝚑𝚎 𝚊𝚒𝚛 𝚋𝚢 𝚊𝚗 𝚒𝚗𝚍𝚒𝚏𝚏𝚎𝚛𝚎𝚗𝚝 𝚠𝚒𝚗𝚍.  𝕎𝕀𝕃𝕃 𝕐𝕆𝕌 𝕋𝔸𝕂𝔼 𝔸 ℙ𝔼𝔼𝕂?  𝐓𝐡𝐢𝐬 𝐢𝐬 𝐭𝐡𝐞 𝐬𝐰𝐞𝐞𝐭𝐞𝐬𝐭 𝐭𝐡𝐢𝐧𝐠, 𝐚𝐧𝐝 𝐈 𝐚𝐥𝐰𝐚𝐲𝐬 𝐜𝐨𝐦𝐞 𝐛𝐚𝐜𝐤 𝐭𝐨 𝐢𝐭 𝐰𝐡𝐞𝐧 𝐈 𝐰𝐚𝐧𝐭 𝐭𝐨 𝐰𝐚𝐭𝐜𝐡 𝐬𝐨𝐦𝐞𝐭𝐡𝐢𝐧𝐠 𝐰𝐡𝐨𝐥𝐞𝐬𝐨𝐦𝐞. 𝐈 𝐥𝐨𝐯𝐞 𝐭𝐡𝐞 𝐚𝐮𝐭𝐮𝐦𝐧𝐚𝐥/𝐬𝐩𝐨𝐨𝐤𝐲 𝐭𝐡𝐞𝐦𝐞, 𝐚𝐧𝐝 𝐭𝐡𝐞 𝐛𝐚𝐧𝐭𝐞𝐫 𝐛𝐞𝐭𝐰𝐞𝐞𝐧 𝐆𝐫𝐞𝐠 𝐚𝐧𝐝 𝐖𝐢𝐫𝐭 𝐢𝐬 𝐚𝐝𝐨𝐫𝐚𝐛𝐥𝐞. 𝐈 𝐰𝐢𝐬𝐡 𝐭𝐡𝐢𝐬 𝐬𝐡𝐨𝐰 𝐰𝐚𝐬 𝐨𝐧𝐠𝐨𝐢𝐧𝐠...  {𝚆𝚒𝚛𝚝} 𝚃𝚑𝚘𝚞𝚐𝚑 𝙸 𝚊𝚖 𝚕𝚘𝚜𝚝, 𝚖𝚢 𝚠𝚘𝚞𝚗𝚍𝚎𝚍 𝚑𝚎𝚊𝚛𝚝 𝚛𝚎𝚜𝚒𝚍𝚎𝚜 𝚋𝚊𝚌𝚔 𝚑𝚘𝚖𝚎 𝚒𝚗 𝚙𝚒𝚎𝚌𝚎𝚜, 𝚜𝚝𝚛𝚎𝚠𝚗 𝚊𝚌𝚛𝚘𝚜𝚜 𝚝𝚑𝚎 𝚐𝚛𝚊𝚟𝚎𝚢𝚊𝚛𝚍 𝚘𝚏 𝚖𝚢 𝚕𝚘𝚜𝚝 𝚕𝚘𝚟𝚎.</t>
+          <t>Def made for 14 year old boys but also makes you feel like a 14 year old when watching it and that’s kind of joyous.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>469</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0.3</v>
+        <v>116</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/inception/</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>-1.14</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Johnny2Cellos</t>
+          <t>👽 Zara 👽</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2023/10/26</t>
+          <t>2019/08/11</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Is the dove never to meet the sea, for want of the odious mountain?</t>
+          <t>bro what if ❓the only way to get out 🚷 of the dream 💤,, was to 😳 kiss 💋 but you were a projection 😱</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>67</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0.3</v>
+        <v>99</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/inception/</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>{Todd}</t>
+          <t>James (Schaffrillas)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2021/10/31</t>
+          <t>2024/01/25</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -2340,28 +2665,33 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>"Holy moly, hot dog!" -Gregory,   Auntie Whispers is the scariest presence in anything that I've ever seen.</t>
+          <t>persona 5</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>107</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-0.2</v>
+        <v>9</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/inception/</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>final rosie 🔪</t>
+          <t>trin</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2020/05/23</t>
+          <t>2021/01/06</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -2369,28 +2699,33 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>You know what's better than Over the Garden Wall? Watching it with a pretty lady -- the first lady you've ever dated -- and she holds your hand the whole time and laughs at all the same things you laugh at and she orders Mexican food and gives you wine and it's the best thing that's happened for you in this haze of alert levels and lockdowns and Unknown. Perfect, gorgeous, wonderful life. Ain't that just the way?</t>
+          <t>jgl sexy</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>416</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0.3</v>
+        <v>8</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/inception/</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>jourdain searles</t>
+          <t>JamieBeltman</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2015/01/11</t>
+          <t>2019/01/21</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -2398,28 +2733,33 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Poetic. Understated. Lovely.</t>
+          <t>It’s strange for such a good movie to have such bad dialogue</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>28</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-0.7</v>
+        <v>60</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/inception/</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>-0.64</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>claira curtis</t>
+          <t>adrie</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2020/10/01</t>
+          <t>2018/07/30</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -2427,28 +2767,33 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>🗣HAPPY HALLOWEEN FIRST 👻💀🎃  I only have ONE (1!!) president and their name is Kitty/Wirt/Greg/Ronald/Benjamin Franklin/George Washington/Skipper/Jason Funderburker/Mr. President/Doctor Cucumber!!!!!!!!!!   Starting Spooky Season off right with a delightfully wholesome and surprisingly creepy little mini series that I’ve been dying to see for quite some time. In the world of Trick Vs. Treat, Over the Garden Wall is an absolute treat.  1/31 of my October 2020 Halloween Watches :)</t>
+          <t>this is what dreams of dreams of dreams of dreams are made of, hey now!!</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>482</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0.3</v>
+        <v>72</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/inception/</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>jeaba</t>
+          <t>demi adejuyigbe</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2022/08/25</t>
+          <t>2023/05/24</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -2456,57 +2801,67 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>this is the closest i've come to finding something that fills the void that was created when i finished watching gravity falls. dipper pines and wirt could have been best friends in another life.</t>
+          <t>one of the most overwhelming viewing experiences of my life, compounded by my inability (refusal) to pee for about 100 minutes. outstanding. another banger for the canon of guys who love to loudly recognize something (e.g. “that’s spider-man, from spider-man”)  edit: whoops almost forgot to add a very important note: if u look like rio morales, dm me…….</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>195</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0.3</v>
+        <v>355</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Jesusmary</t>
+          <t>James (Schaffrillas)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2024/01/29</t>
+          <t>2023/06/04</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Warning: Spoiler(s) ahead!   Man, I've never expected that I'd be bawling my eyes out over a cutesy CalArts-drawn animation. I know ominous twists were lying low out there but I genuinely did not see the last two episodes bushwhacking the heck out of my emotions coming. It was as though they were just biding their time hidden amongst the overcast amber of squash and autumn leaves, lulling me with a false sense of ease and assurance that the series will…</t>
+          <t>This is gonna be so lit when I can watch it at 0.75x speed with subtitles</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>457</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0.3</v>
+        <v>73</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>kat🕷</t>
+          <t>cinemonika</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/05/25</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -2514,86 +2869,101 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>"Over the Garden Wall" may initially seem like a show for kids, but this mix of autumnal melancholy, surreal humor and American folklore (turkeys, pumpkins, village schools, etc.) it‘s not only far too dark in some places for younger kids, it‘s also contains numerous references, allusions to mythology and scope for interpretation, which will probably only be accessible to adults. In addition, the series has also very beautifully drawn visuals and old background music.</t>
+          <t>What an incredible treat this movie is. It’s been several hours and I’m still beaming with joy. The colors, the animation, the humor, the soundtrack; everything about it was damn near perfect and I enjoyed myself to the fullest from beginning to end. The only bad thing about it is that it ended.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>472</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0.3</v>
+        <v>296</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Cinema Strikes Back 🟣</t>
+          <t>Ayo Edebiri</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2023/09/12</t>
+          <t>2023/05/30</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Das ist wirklich eine DER schönsten animierten Serien da draußen! Gruselig und herbstlich, dabei wirklich witzig und originell. Mein Halloweenkostüm stehts auf jeden Fall 🐘 🎃!</t>
+          <t>Holy shit?? Lmao</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>175</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-0.7</v>
+        <v>16</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>einslein</t>
+          <t>24framesofnick</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2024/04/29</t>
+          <t>2023/06/04</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Wirt and Greg are the two voices constantly clashing for power in my head  (not beating the bipolar allegations today)  btw if my kids (if I have kids) don't fw OTGW one day, I have completely failed as a parent.</t>
+          <t>I rewatched with my friend and instantly started crying with the first frame and didn’t stop for 40 fucking minutes I’m not kidding. Also I was high. this shit is magical</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>212</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-0.7</v>
+        <v>170</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ty</t>
+          <t>Casey Malone</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2019/02/06</t>
+          <t>2023/05/24</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -2601,57 +2971,67 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>I am crying on this rainy Wednesday morning. We need more animated stories like this 😩</t>
+          <t>After the movie no one had any idea what to say, we all just stood around flabbergasted and overstimulated. Absolutely embarrasses almost every CGI movie that tried to bite Spider-Verse’s style over the last five years (Mitchells Vs the Machines innocent). Some of the minor action scenes in this would be the centerpiece of other movies. Just incredible to look at with a genuinely surprising plot.  Loses one star from me because I found a lot of the ham-fisted references…</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>86</v>
-      </c>
-      <c r="G75" t="n">
-        <v>0.3</v>
+        <v>475</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>han🐈</t>
+          <t>IHE</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2021/10/03</t>
+          <t>2023/06/01</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Rewatching this again😅The last episode always get me💔</t>
+          <t>Prepare to be Dune-d</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>53</v>
-      </c>
-      <c r="G76" t="n">
-        <v>0.3</v>
+        <v>20</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>-0.75</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>claira curtis</t>
+          <t>24framesofnick</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/06/01</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -2659,57 +3039,67 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Thinking about how Wirt exclaims, “This is the end!” before dragging himself and Greg over the garden wall.   Thinking about how turtles are usually seen as good omens, but within the context of Over the Garden Wall, the black turtles that appear at some of the most crucial moments for the boys are tainted black with corruption and bring moments of terror instead of peace.   Thinking about how Beatrice’s dog, when transformed by the turtles, has the exact same glowing…</t>
+          <t>No words can do this justice</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>473</v>
-      </c>
-      <c r="G77" t="n">
-        <v>0.3</v>
+        <v>28</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>🌻 lindsay 🌻</t>
+          <t>Patrick Willems</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2020/08/26</t>
+          <t>2023/06/01</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>I love this show so much!! Rewatching it always makes me crave fall. I want chilly weather and sweaters and a hot coffee right now.   It’s just such a great little fantasy for kids and adults. It’s spooky but not scary. It’s deep but still full of humor. The dynamic between the siblings is so real - there’s so much annoyance but also love and fun and protectiveness.   The animation is gorgeous, the music is catchy and cute. It all…</t>
+          <t>If the second half of this movie is as good as this half, it’s going to be a 5-star 5-hour movie</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>435</v>
-      </c>
-      <c r="G78" t="n">
-        <v>0.3</v>
+        <v>96</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>-0.75</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>claira curtis</t>
+          <t>jobwre1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2021/08/29</t>
+          <t>2023/05/25</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -2717,57 +3107,67 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Last year I started my Halloween/Fall watch season by watching Over the Garden Wall, so naturally I had to do the same for 2021 as well.  Yes, I know it’s August 29th. I do not care. I have made the executive decision for all of us, the entire world, that Fall officially started today. Yes, even if you live in Australia where it is technically almost the start of Spring! It is now Fall across the globe, universe, and every…</t>
+          <t>Pump this shit in my veins</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>427</v>
-      </c>
-      <c r="G79" t="n">
-        <v>0.3</v>
+        <v>26</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>cookie</t>
+          <t>davidehrlich</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2022/10/31</t>
+          <t>2023/06/04</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>the entire series takes place during a quarter moon and it’s a quarter moon out tonight :o charlie made a mean spiced cider</t>
+          <t>a mind-blowing combination of magical artistry, post-modern imagination, and dunking on Jeff Koons. I’m in awe.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>123</v>
-      </c>
-      <c r="G80" t="n">
-        <v>0.3</v>
+        <v>111</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>mikayla</t>
+          <t>corey👻</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2016/06/28</t>
+          <t>2023/05/26</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -2775,28 +3175,33 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>curse you lady, curse you! you're going to die someday, and i'll laugh! laugh! ha ha ha!   - Beatrice's comebacks on point.</t>
+          <t>look out here comes the spider-sweep</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>123</v>
-      </c>
-      <c r="G81" t="n">
-        <v>0.3</v>
+        <v>36</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>zuzupan</t>
+          <t>BenDavid Grabinski</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2017/07/04</t>
+          <t>2023/05/24</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -2804,57 +3209,67 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>my faith in humanity has been restored</t>
+          <t>SO FUCKING GOOD.   Better than the original. Easily my favorite movie based on a Marvel comic. My brain is fried.   I have no idea how they did any of that. The score is so good. I’m going to listen to it on a loop once it’s released. Don’t let anyone spoil anything!   Animation forever! I’ve literally considered quitting making live action stuff after seeing this.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>38</v>
-      </c>
-      <c r="G82" t="n">
-        <v>0.3</v>
+        <v>367</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Jordan Horowitz</t>
+          <t>Jacob</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2015/01/24</t>
+          <t>2023/05/24</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Incredible, efficient storytelling. A visual style that is both fresh and classic. What a joy to watch. More like this, please.</t>
+          <t>MOTHER FLIPPING DING DONG THAT WAS INCREDIBLE</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>127</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-0.2</v>
+        <v>45</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Kyler</t>
+          <t>em</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2023/10/01</t>
+          <t>2023/05/24</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -2862,28 +3277,33 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>I really miss these type of shows that Cartoon Network used to make.</t>
+          <t>i'm not joking when i say you need to see this asap, giant screen, full sound system, large slurpee and popcorn, as many people as you can to come with you. mandatory. viewing.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>68</v>
-      </c>
-      <c r="G84" t="n">
-        <v>0.3</v>
+        <v>176</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Victor Jugo</t>
+          <t>tyler</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2021/10/27</t>
+          <t>2023/06/02</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -2891,28 +3311,33 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Cada capítulo es como una fábula o uno de esos cuentos que uno solía escuchar cuando era pequeño. En serio me gustó mucho esta serie, sus personajes, las canciones, los lugares, las situaciones, todo tiene un montón de carisma y magia. Además de una ambientación increíble, que tan solo con la música nos da esa sensación de ser algo mágico. 2 hermanos perdidos en un bosque encantado donde se encontrarán desde aves que hablan, ranas que actúan como humanos, una escuela para animales, y hasta la temida bestia del bosque.</t>
+          <t>this masterpiece deserves 6 stars</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>523</v>
-      </c>
-      <c r="G85" t="n">
-        <v>0.3</v>
+        <v>33</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ximenaribs</t>
+          <t>adambolt</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2020/09/08</t>
+          <t>2023/06/05</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -2920,57 +3345,67 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>One of the most original animated stories ever brought to a tv screen and a personal favorite, if I had to compare this to something in terms of originality and uniqueness it would be spirited away (yes, spirited away). Fantastic all the way through, every episode and every story is so well made not limiting its content just for kids through hints of horror, beautiful visuals, AMAZING original music and compelling story telling.  If you’re looking for the ultimate fall…</t>
+          <t>Sony I solemnly swear to watch all of the Morbius and Venom sequels if you keep making these</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>474</v>
-      </c>
-      <c r="G86" t="n">
-        <v>0.3</v>
+        <v>92</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>jasmine 🍂</t>
+          <t>matt lynch</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2018/04/24</t>
+          <t>2023/06/06</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>thanks now i have depression</t>
+          <t>Honestly I feel like this is overstuffed, busy with so many stories but doesn't really ever settle down to actually tell any of them. That said it's very funny and completely visually dazzling front-to-back so ultimately that's not a huge concern.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>28</v>
-      </c>
-      <c r="G87" t="n">
-        <v>0.3</v>
+        <v>247</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>-1.25</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Jules 🌸</t>
+          <t>Jack</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2020/03/22</t>
+          <t>2023/05/24</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -2978,86 +3413,101 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>You two are lost brothers with no purpose in life, right?  Wirt and Greg, are two brothers that find themselves lost in a forest called ''The Unknown''. In order to return home, they must wander this forest, where they'll meet various creatures.  Over the Garden Wall is definitively a piece of adult animation, full of dark innocence, folklore and surrealism. It's cute and childish moments contrast themselves with the spooky ones. I also adored the style of the drawings and…</t>
+          <t>The most ambitious animated film of all time.  I will never forget seeing this in theater.   Bursting with beauty AND heart.  Full review coming soon…</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>478</v>
-      </c>
-      <c r="G88" t="n">
-        <v>0.3</v>
+        <v>150</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>jeaba</t>
+          <t>Jim Caddick</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2023/03/26</t>
+          <t>2023/06/05</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>this isn't my second time watching this show over the last three days. mind your own business.</t>
+          <t>What psychopath decided to end it there, I want to have a word with them</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>94</v>
-      </c>
-      <c r="G89" t="n">
-        <v>0.3</v>
+        <v>72</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Matthew LeCHARLTON</t>
+          <t>Sydney🚀</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2022/10/29</t>
+          <t>2023/06/01</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>A novel approach to telling traditional fairy tales with a contemporary quirkiness. A little funny and dark around it’s margins but essentially childish.  Its impressive list of voice actors aren’t enough to cover the cracks of weak writing and a repetitious villain of the week that adds little purpose.</t>
+          <t>ADIDAS (All Day I Dream About Spider-Punk)</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>304</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-1.7</v>
+        <v>42</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Griffin</t>
+          <t>elvisthealien</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>2021/10/31</t>
+          <t>2023/06/04</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -3065,57 +3515,67 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Doesn’t get much cuter than this shit.</t>
+          <t>There are some movies out there that can't possibly be disliked, and the moment someone says they didn't like it you know theres gotta be something wrong with them. This is one of those movies.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>38</v>
-      </c>
-      <c r="G91" t="n">
-        <v>0.3</v>
+        <v>193</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>celia</t>
+          <t>Patrick Willems</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>2020/10/23</t>
+          <t>2021/12/16</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>i’ve watched this with a new person every year for the past couple of years and i get nervous every time! this show is so unabashedly wholesome and kind, with a healthy dose of childlike wonder. it’s the kind of thing where if you don’t feel like buying in, you are going to bounce off HARD and it won’t be pretty  this year i got to share it with liz and mia and they both loved it and we smiled :) i spooned with a dog :) demi lit a fire in the fireplace :) had a cozy night like fall. ain’t that just the way</t>
+          <t>Kevin Feige finally realized they’re never going to do a villain as good as Willem Dafoe’s Green Goblin and just went “fuck it, bring him back”</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>511</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-0.2</v>
+        <v>143</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-no-way-home/</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>grace</t>
+          <t>liv🦢💌</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>2023/09/15</t>
+          <t>2021/12/15</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -3123,289 +3583,339 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>ITS CHILLY. ITS FRIDAY NIGHT. I MADE COOKIES. YIPPEE FALL!</t>
+          <t>the whole theatre ERUPTED, ya’ll know when. i cant breathe this was absolutely phenomenal best film of the year.  i WEPT when andrew saved MJ and was talking about gwen.  i swear to god i’m not okay.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>58</v>
-      </c>
-      <c r="G93" t="n">
-        <v>0.3</v>
+        <v>199</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-no-way-home/</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>kateleth</t>
+          <t>davidehrlich</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2020/11/03</t>
+          <t>2021/12/14</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>It’s a perfect show and I’ll hear nothing against it</t>
+          <t>Marvel is so good at getting people to do things for money in a way that reads like love.   there's some very cutesy stuff here (most of it an ominous, logical continuation of the content snake eating its own tail), CGI New York City is a really a Character Unto Itself lolol, and Jon Watts is now unquestionably the worst director to ever make a Spider-Man movie.   also, not a spoiler, lol at Pete and his friends for simply *assuming* they'd all get into MIT. a very cool premise for a $250 million movie.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>52</v>
-      </c>
-      <c r="G94" t="n">
-        <v>0.3</v>
+        <v>508</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-no-way-home/</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>-1.42</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>claira curtis</t>
+          <t>the film drunk</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2022/09/03</t>
+          <t>2021/12/14</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>“Sometimes, I feel like I’m just like a boat upon a winding river, twisting towards an endless black sea… further and further, drifting away from where I want to be, who I want to be.” “Oh. I didn’t know that. Did you know that if you soak a raisin in grape juice, it turns into a grape? It’s a  r o c k  f a c t!”   It’s September. It’s rewatch Over the Garden Wall season. It’s “declare fall starts…</t>
+          <t>Do you all remember that scene in Ratatouille where Anton Ego ate ratatouille and was transported back to his younger self?  That was me except replace ratatouille with Willem Dafoe tearing shit up</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>401</v>
-      </c>
-      <c r="G95" t="n">
-        <v>0.3</v>
+        <v>197</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-no-way-home/</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>1.08</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ZombieTrex</t>
+          <t>AmandaTheJedi</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2021/10/12</t>
+          <t>2021/12/16</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Over the Garden Wall immerses the audience in the cruel, adult world of reality through the lens of children unable to fully grasp their situation. The world around them is equal parts intriguing and horrifying. There’s a tangible whimsicality to it all, drawing both the protagonists and the viewer into its old timely world while at the same time revealing more of its darker elements the further we plunge forward. The characters that inhabit the land are cartoonish in nature,…</t>
+          <t>Imagine how cool this would have been if the internet wasn’t the way it is</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>481</v>
-      </c>
-      <c r="G96" t="n">
-        <v>0.3</v>
+        <v>74</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-no-way-home/</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>txdrmst</t>
+          <t>Lucy</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2019/09/14</t>
+          <t>2021/12/18</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Vegan Curried Pumpkin Soup   INGREDIENTS  - 1 large yellow onion, chopped - 2 garlic cloves, minced - 1 teaspoon olive oil - 2 (15oz) cans cannellini beans, drained and rinsed - 2 (15 oz) cans pumpkin (or 3 1/2 cups pumpkin puree) - 1 (15 oz) can coconut milk (regular or light) - 4 Cups low sodium vegetable broth - 1 Tablespoon curry powder - 1/2 Tablespoon garam masala - 1/2 Tablespoon sea salt - 1  teaspoon ground pepper - Toppings: extra salt and pepper, roasted pumpkin seeds, coconut milk…</t>
+          <t>my favorite part was when the whole theater suddenly cried out “WE WANT KIRSTEN DUNST! WE WANT KIRSTEN DUNST!” in complete unison</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>498</v>
-      </c>
-      <c r="G97" t="n">
-        <v>0.3</v>
+        <v>129</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-no-way-home/</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>-0.92</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>🌻 lindsay 🌻</t>
+          <t>24framesofnick</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2023/10/28</t>
+          <t>2021/12/16</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>we’re here to burgle your turts</t>
+          <t>I wanted a Spider-Man orgy and didn’t get it</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>31</v>
-      </c>
-      <c r="G98" t="n">
-        <v>0.3</v>
+        <v>44</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-no-way-home/</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Fred 🇵🇷</t>
+          <t>TocadorDeDamas</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>2021/03/01</t>
+          <t>2021/12/14</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Cozy, casually grim, and wonderfully realized, there is a lot to like about the adventures of Over the Garden Wall. The character and locale designs in this are reason enough to check it out. Story-wise, for the most part, this worked for me despite not packing the kind of punch that similar Cartoon Network fantasy fare has pulled off (Adventure Time comes to mind). Only in the borderline obnoxiously cutesy and oddly elementary school-appropriate singalongs, of which there are about…</t>
+          <t>This is what Tarkovsky meant by poetic cinema</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>488</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-1.2</v>
+        <v>45</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-no-way-home/</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Big Rig</t>
+          <t>♦️•Lily•💋</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>2021/10/13</t>
+          <t>2021/12/18</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Despite its wild creativity and fantastical elements, Over the Garden Wall is eerily familiar and surprisingly grounded. This series is very alike Studio Ghibli films in the sense that it understands that there is a certain magic that exists in the world; it may not be the mystical creatures pictured in this show, but the artistry (yes, this series is, first and foremost, a piece of art) and storytelling that suspends our disbelief, and invites us into a world that makes…</t>
+          <t>doctor strange: these villains must be stopped   peter parker: i could fix them</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>476</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-0.2</v>
+        <v>79</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-no-way-home/</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>-1.42</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>margot</t>
+          <t>Karst</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>2022/09/14</t>
+          <t>2022/05/17</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>used my movie theater manager privileges to watch this in a theater i know you’re all jealous</t>
+          <t>always a pleasure to look at willem dafoe’s face</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>93</v>
-      </c>
-      <c r="G101" t="n">
-        <v>0.3</v>
+        <v>48</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-no-way-home/</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>-1.42</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Daddy0</t>
+          <t>☆ sophie ☆</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>2021/10/01</t>
+          <t>2021/12/16</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>It's a good habit to take the time once every fall for a pilgrimage into the autumnal looking glass wood of fables and rustic Americana distorted, Over the Garden Wall. Brother Wirt lives by impotence and anxiety, brother Greg lives by the strength of the absurd, and both have got to bear witness to those truths which the Unknown offers in order to make anything worthwhile of the Known. Well, existentialists will settle for their “loveliest lies” over truth, but…</t>
+          <t>You know I’m something of a spider-man fan myself</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>467</v>
-      </c>
-      <c r="G102" t="n">
-        <v>0.3</v>
+        <v>49</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-no-way-home/</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1.08</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Siena 🌞</t>
+          <t>LUCADOR</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>2017/08/24</t>
+          <t>2021/12/13</t>
         </is>
       </c>
       <c r="D103" t="n">
@@ -3413,1696 +3923,291 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>This miniseries is so genuinely pure that I can't even think of a sassy one liner and honestly that's beautiful</t>
+          <t>Spoiler Alert:  This was maybe the greatest cinematic experience I have ever had. Not only were the shots surprisingly good for a marvel movie, but every line of comedy hit and the action was dope. When Tobey and Andrew showed up the whole theatre went absolutely insane.   This was an Endgame level movie.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>111</v>
-      </c>
-      <c r="G103" t="n">
-        <v>0.3</v>
+        <v>306</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-no-way-home/</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>The Armchair Critic</t>
+          <t>SilentDawn</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>2021/11/24</t>
+          <t>2021/12/16</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>🎬 • 🍿 • 📀 • 🎞️ • 🎥   A piece that soared well, well over my expectations! Not only in quality, but also my understanding of what it was that I was actually about to watch. ‘Over The Garden Wall’ is a film (kind of) that is genius crafted-humour and storytelling at its absolute finest. The plot, whimsical and fluid, still fulfilling this perfect little story arc, trollops along to the humming to sound of Greg’s latest tune, a…</t>
+          <t>45  The first thirty minutes or so of No Way Home really had me fearing for the worst. So sick and tired of their droning exposition and catch-up first act methods. You'd think after being the dominant visual cultural property in the world, the MCU would figure out how to start a movie like this, but gosh, this 2nd '3rd' Spider-Man movie wants to throw us right into the mix while still spending plenty of time running in place, and…</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>429</v>
-      </c>
-      <c r="G104" t="n">
-        <v>0.3</v>
+        <v>435</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-no-way-home/</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>-0.92</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Danny</t>
+          <t>♦️•Lily•💋</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>2023/09/03</t>
+          <t>2022/01/15</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>That feeling when you finally watch something for the first time and instantly you know you are adding this to your yearly fall required viewings. What a delight.</t>
+          <t>I love how everyone in this is giving a standard mcu performance while willem dafoe is acting like he’s still on set for the lighthouse</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>162</v>
-      </c>
-      <c r="G105" t="n">
-        <v>0.3</v>
+        <v>135</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-no-way-home/</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>-1.42</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>elle ᯓᡣ𐭩</t>
+          <t>Matt Neglia</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>2023/11/30</t>
+          <t>2021/12/13</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>how do i rate a show higher than 5 stars</t>
+          <t>SPIDER-MAN: NO WAY HOME swings for the fences with the most ambitious live-action Spider-Man film yet. The execution can be a bit messy due to the overabundance of villains &amp; CGI (most of which we’ve seen done in previous films before) but the stirring highs are worth it. Features Tom Holland’s most emotional &amp; best performance to date. Out of all the villains, Willem Dafoe once again steals the show as the sinister Green Goblin. What a treat it was getting to see him reprising this iconic adversary nearly twenty years later.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>40</v>
-      </c>
-      <c r="G106" t="n">
-        <v>0.3</v>
+        <v>531</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-no-way-home/</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>han🐈</t>
+          <t>ConnorEatsPants</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>2021/11/22</t>
+          <t>2021/12/16</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Me being sick gave me the perfect excuse to rewatch this for the 5th time!! I love this more every time I watch it!!!</t>
+          <t>Not to spoil but he actually found his way home multiple times throughout this thing. Real shit film.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>117</v>
-      </c>
-      <c r="G107" t="n">
-        <v>0.3</v>
+        <v>101</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-no-way-home/</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Emma 🔆</t>
+          <t>ash</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2020/10/25</t>
+          <t>2021/12/14</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Just want to ride on a ferry with a bunch of frogs, is that too much to ask?</t>
+          <t>For every moment I laughed or genuinely enjoyed myself, there were three where I sighed or rolled my eyes. No Way Home presents a real conflict of interest for me; as someone who grew up with Raimi’s trilogy and have been progressively more sick and tired of Marvel’s Peter Parker, to find so many moments in this film that tap into those raw, tender childhood memories amongst the Marvel of it all (I wanted to tear my hair out over…</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>76</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-0.2</v>
+        <v>434</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-no-way-home/</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>-0.92</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Johnny2Cellos</t>
+          <t>sophie</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>2023/05/22</t>
+          <t>2021/12/15</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>All that was lost is revealed</t>
+          <t>no spoilers but...  YESSSSSSSSSSS LET'S FUCKING GOOOOOOOOOOOOOO THIS IS THE HAPPIEST I'VE BEEN ALL YEAR</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>29</v>
-      </c>
-      <c r="G109" t="n">
-        <v>0.3</v>
+        <v>103</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-no-way-home/</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>1.08</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>🌻 lindsay 🌻</t>
+          <t>lauren</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>2019/11/08</t>
+          <t>2021/12/16</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Oh my god I loved this so much.   I can’t wait to show this to my niece and nephew I think kids should definitely see this show. The animation was beautiful and the story was so wholesome and sweet! It was also a little spooky and sad! But done in such a great way. I loved these characters and their dynamic with each other. Every stop in their journey was brilliant.   Also “hold your tongue or I’ll remove it from your mouth!” I was like DAMN</t>
+          <t>my theater starting hooting and hollering and going apeshit when tom holland showed up, absolutely no one was expecting him to cameo in this</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>445</v>
-      </c>
-      <c r="G110" t="n">
-        <v>0.3</v>
+        <v>140</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-no-way-home/</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>0.58</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>shay</t>
+          <t>Jay</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>2017/02/04</t>
+          <t>2021/12/30</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>"don't call me old lady" "YES SIR, YOUNG MAN!"</t>
+          <t>damn, now there’s no MAY home!</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>46</v>
-      </c>
-      <c r="G111" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>emilyrugburn</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>2022/10/02</t>
-        </is>
-      </c>
-      <c r="D112" t="n">
-        <v>4</v>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>Watched all of this on a date and it was delightful and so funny! The bluebird and the older kid are enemies to lovers        P.S. Sometimes I’m lazy and don’t wanna type in the thing I watched so I’ll play “how many degrees of Kevin Bacon (not actually Kevin Bacon) will it take me to find the thing I’m gonna review.” So this time, here’s how I got to this -   I started with somebody’s review of The Rundown, which…</t>
-        </is>
-      </c>
-      <c r="F112" t="n">
-        <v>418</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-0.7</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>han🐈</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>2021/10/01</t>
-        </is>
-      </c>
-      <c r="D113" t="n">
-        <v>5</v>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>HAPPY OCTOBER!!!!!!!!!!!🎃🎃🎃🎃  Honestly, this is my favourite show of all time, it’s my third time rewatching it and it was just as amazing as I remembered.  I highly encourage everyone to watch this as it is AMAZING and a short show which won’t take you long to finish! The music is perfect as well! It's perfect for watching during Autumn</t>
-        </is>
-      </c>
-      <c r="F113" t="n">
-        <v>339</v>
-      </c>
-      <c r="G113" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Juan Castillo</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>2016/07/30</t>
-        </is>
-      </c>
-      <c r="D114" t="n">
-        <v>5</v>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>Cuando aún no había acabado de asimilar todos los elementos que componen Stranger Things he sido golpeado rotundamente por esta maravilla, que ya avanzo que es de visión obligada para todo aquel que aspire a ocupar la mayor parte de su tiempo contemplando belleza y que, como la serie de Netflix, integra un sinfín de ilustrísimas influencias hiladas con un abrumador derroche de imaginación. Over the Garden Wall es, para empezar, el eslabón más brillante en la incipiente cadena de obras singulares…</t>
-        </is>
-      </c>
-      <c r="F114" t="n">
-        <v>501</v>
-      </c>
-      <c r="G114" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Jaxi</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>2021/09/26</t>
-        </is>
-      </c>
-      <c r="D115" t="n">
-        <v>5</v>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>ok leaves you are now allowed to change color. fall has begun now that I watched otgw</t>
-        </is>
-      </c>
-      <c r="F115" t="n">
-        <v>85</v>
-      </c>
-      <c r="G115" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>áine</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>2019/10/04</t>
-        </is>
-      </c>
-      <c r="D116" t="n">
-        <v>5</v>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>i wanna steal</t>
-        </is>
-      </c>
-      <c r="F116" t="n">
-        <v>13</v>
-      </c>
-      <c r="G116" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>aleph beth null</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>2015/02/10</t>
-        </is>
-      </c>
-      <c r="D117" t="n">
-        <v>4</v>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>‘i just wanted to have fun... change the world and make it a better place! ...but i just made everything worse.’  autumnal, wistful, bold and lavish with jungian archetypes and the collective unconscious, the sunset of americana, the death of innocence and childlike belief in white america’s self-mythology. death on a broader scale is inevitable—‘oh well, you’ll join us someday’—and yes, dressed in all the trappings of harvest, but, good news everyone!, everyone’s friends by then. dante found himself lost…</t>
-        </is>
-      </c>
-      <c r="F117" t="n">
-        <v>511</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-0.7</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>isabela.</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>2023/02/06</t>
-        </is>
-      </c>
-      <c r="D118" t="n">
-        <v>5</v>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>Que historia tan hermosa. Tiene todo lo que se necesita para robarte la atención y el corazón. Es increíble como en tan solo 10 capítulos de 10 minutos lograron contar una travesía que me hizo llorar al final.  Aunque me quedé con varias dudas y teorías formadas por mi cabeza, me da la sensación que no importa cuantas veces llegue a ver esta serie en el futuro siempre encontraré pequeños detalles que alimenten a este mundo un poco más. Me gustaría ampliamente recomendar esta serie a todo aquel que disfrute de los viejos cuento de hadas. Es sensacional.</t>
-        </is>
-      </c>
-      <c r="F118" t="n">
-        <v>558</v>
-      </c>
-      <c r="G118" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>matthewcutchen</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>2021/06/13</t>
-        </is>
-      </c>
-      <c r="D119" t="n">
-        <v>4</v>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>Such relaxed and wholesome creepiness and existentialism.   Legitimately felt like those animated characters were making the whole thing up on the spot.  Not a huge fan of super on-the-nose self-aware “genre savvy” jokes. Maybe if I had watched it when it came out back in 2014 I would have liked that aspect more, but at this point that’s feeling a little played out. Still overall really enjoyed it.   Something I did love was how they kept subverting villain tropes. And Greg. Greg was hilarious.  Definitely one of those “movies i can’t believe exist but i’m so glad they do”.</t>
-        </is>
-      </c>
-      <c r="F119" t="n">
-        <v>580</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-0.7</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>cookie</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>2021/10/26</t>
-        </is>
-      </c>
-      <c r="D120" t="n">
-        <v>5</v>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>finally got to show it to regina ! homemade cider + apple cider donuts + pumpkin oatmeal raisin cookies ! a fun one to watch with friends who both have + havent seen this one before</t>
-        </is>
-      </c>
-      <c r="F120" t="n">
-        <v>181</v>
-      </c>
-      <c r="G120" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>🌻 lindsay 🌻</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>2021/10/17</t>
-        </is>
-      </c>
-      <c r="D121" t="n">
-        <v>5</v>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>finally feels like fall babey!!!!! Let’s go burgle some turts!!!!!!!!!!</t>
-        </is>
-      </c>
-      <c r="F121" t="n">
-        <v>71</v>
-      </c>
-      <c r="G121" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>ZombieTrex</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>2020/10/03</t>
-        </is>
-      </c>
-      <c r="D122" t="n">
-        <v>5</v>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>I remember, way back when, in my Lady Bird review, I talked about how the film really didn’t have as much of an impact on me as it did other people, because I was the exact opposite of the main character, and thus, I didn’t really relate with her struggles as much. Over the Garden Wall, on the other hand, feels like it took my life and made it into a miniseries set in a mystical, eerie world, and because…</t>
-        </is>
-      </c>
-      <c r="F122" t="n">
-        <v>408</v>
-      </c>
-      <c r="G122" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Abby</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>2023/10/02</t>
-        </is>
-      </c>
-      <c r="D123" t="n">
-        <v>5</v>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>The reveal of Jason Funderberker, iconic.</t>
-        </is>
-      </c>
-      <c r="F123" t="n">
-        <v>41</v>
-      </c>
-      <c r="G123" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>gabriel guimarães?</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>2015/11/26</t>
-        </is>
-      </c>
-      <c r="D124" t="n">
-        <v>5</v>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>This ended. I'm broken, sad and lost... It was brilliant. Funny, stepped in folklore and mystery, memorable, melancholic, perfect. The characters were some of the most human and richly developed I've seen, even if one is a bluebird.   I do believe it's a perfect piece of entertainment and the best thing Cartoon Network has ever done.</t>
-        </is>
-      </c>
-      <c r="F124" t="n">
-        <v>335</v>
-      </c>
-      <c r="G124" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Gino</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>2020/10/31</t>
-        </is>
-      </c>
-      <c r="D125" t="n">
-        <v>5</v>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>Does October even exist if I go through it without watching Over the Garden Wall?  Short Answer:  No.  Long Answer:  Noooooooooooooooooooooooooooo.</t>
-        </is>
-      </c>
-      <c r="F125" t="n">
-        <v>147</v>
-      </c>
-      <c r="G125" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Lucy 🏳️‍⚧️ 🏳‍🌈</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>2023/10/23</t>
-        </is>
-      </c>
-      <c r="D126" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>Spooky Lucy Season 2023: "Over the Garden Wall"  Peak Autumn cinema right here.  Unending in its old-timey New England coziness and plays out like a half-remembered daydream.  Full of irreverence and hazy set pieces that seep into your bone marrow and last for a lifetime, imbued with a childlike fascination of folktales that's as wondrous as it is foreboding.  An absolute seasonal classic in every respect.</t>
-        </is>
-      </c>
-      <c r="F126" t="n">
-        <v>409</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>michelle grondine</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>2022/10/08</t>
-        </is>
-      </c>
-      <c r="D127" t="n">
-        <v>5</v>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>fred the horse: the-bling-ring-emma-watson.gif   left sitting here in tears. what a masterpiece. so stunning from art to symbolism to humor to character growth to the overarching plot and little mini episodic tales being balanced to absolute bite-sized perfection. a new all-time favorite i can see myself rewatching every fall.</t>
-        </is>
-      </c>
-      <c r="F127" t="n">
-        <v>328</v>
-      </c>
-      <c r="G127" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>jaewon</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>2022/04/19</t>
-        </is>
-      </c>
-      <c r="D128" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>“Kitty! Kitty? Now, where did that frog named ‘Kitty’ go?”  Something about these two brothers in this dusty autumn lost in the deep parts of some magical woods instills this wondrous sense of joy in me. Maybe its the random musical moments, the atmosphere that smells like thanksgiving, or the series of honest and empathetic glimpses of hope and fear from the lens of an awkward teenager and a bundle of optimism kid, but each short episode is about as…</t>
-        </is>
-      </c>
-      <c r="F128" t="n">
-        <v>455</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>transfeminine frankenstein</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>2021/10/21</t>
-        </is>
-      </c>
-      <c r="D129" t="n">
-        <v>3</v>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>At a certain point I got really, really tired of watching children's cartoons. There was definitely a good bit in Obama's second term where I got swept up by, like, Steven Universe like a lot of other people old enough to drink did, as around this time Cartoon Network entered a triumphant new era of novel and interesting animation. Over the Garden Wall, a much-beloved modern classic to a lot of people, was a product of this era, and an…</t>
-        </is>
-      </c>
-      <c r="F129" t="n">
-        <v>440</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-1.7</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Jack Moulton</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>2020/10/28</t>
-        </is>
-      </c>
-      <c r="D130" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>Is there any film or show more appropriate for the last week of October? A rhetorical question.</t>
-        </is>
-      </c>
-      <c r="F130" t="n">
-        <v>95</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Taylor Leverage</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>2023/12/21</t>
-        </is>
-      </c>
-      <c r="D131" t="n">
-        <v>5</v>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>Greg is TV's #1 cinnamon roll. I would die for this kid wearing an upside-down teapot on his head.   Lifetime film #5,000, per Letterboxd, and it's appropriately not even actually a film. Over the Garden Wall is such a perfect balance of tone, playing the dangerous, dark unknown against the wholesome warmth of brotherhood and friendship. It's got high fantasy and modern-day components (it's kind of a whimsical version of M. Night Shyamalan's The Village; controversial take, I know), but…</t>
-        </is>
-      </c>
-      <c r="F131" t="n">
-        <v>492</v>
-      </c>
-      <c r="G131" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Brett Schutt</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>2017/09/02</t>
-        </is>
-      </c>
-      <c r="D132" t="n">
-        <v>5</v>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>Cartoonnetwork has a long history with up and downs with their network. Right now, all they care to do is replay episodes of Teen Titians Go, but hopefully that phase will go away. Just only 3 years ago they decided to release this weird, beautiful and ambitious 10 episode short series to the air, showing they really truly still did care about animation as an artform, and how it could make kids think more about themselves (and possibly give them…</t>
-        </is>
-      </c>
-      <c r="F132" t="n">
-        <v>450</v>
-      </c>
-      <c r="G132" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Chris</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>2024/01/03</t>
-        </is>
-      </c>
-      <c r="D133" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>gregory is the real badass</t>
-        </is>
-      </c>
-      <c r="F133" t="n">
-        <v>26</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>lily</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>2022/11/09</t>
-        </is>
-      </c>
-      <c r="D134" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>"You'd be no good to your brother dead." "I was never any good to him alive either."  WIRT, MY MAN !! i love eternally stressed cartoon boys. this just reinforced my love for elijah wood, cartoon network and autumnal media</t>
-        </is>
-      </c>
-      <c r="F134" t="n">
-        <v>222</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Lizzy Deane</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>2020/09/13</t>
-        </is>
-      </c>
-      <c r="D135" t="n">
-        <v>4</v>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>August is over And I’m breathing in  Everything  I don’t remember Last year But I remember I was alive  That lake was too calm Those woods were too quiet The unknown was nothing  August is over And I’m going back.</t>
-        </is>
-      </c>
-      <c r="F135" t="n">
-        <v>213</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-0.7</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Griffin</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>2022/12/30</t>
-        </is>
-      </c>
-      <c r="D136" t="n">
-        <v>5</v>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>Feeling like a total schmuck for letting another year go by without trying molasses on my potatoes</t>
-        </is>
-      </c>
-      <c r="F136" t="n">
-        <v>98</v>
-      </c>
-      <c r="G136" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Nicole 🏳️‍🌈🏳️‍⚧️</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>2020/10/11</t>
-        </is>
-      </c>
-      <c r="D137" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>How it took me like six years to watch this is beyond me, but hey, glad I finally watched it for spooky month. This was some gooood shit.  Elijah Wood, please narrate my life.</t>
-        </is>
-      </c>
-      <c r="F137" t="n">
-        <v>175</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Freyr</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>2018/03/19</t>
-        </is>
-      </c>
-      <c r="D138" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>Eerie, funny, charming. A gorgeous piece of animation with a wonderful score. Took me too long to finally watch it honestly. Would love to see more like it.</t>
-        </is>
-      </c>
-      <c r="F138" t="n">
-        <v>156</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>ZombieTrex</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>2022/10/02</t>
-        </is>
-      </c>
-      <c r="D139" t="n">
-        <v>5</v>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>Over the Garden Wall is often categorized as a story about death, and while the themes of mortality remain one of its most prominent aspects, I want to make the case that the show is also about life. It’s about being confronted with death and learning how to move on without regrets. It’s about realizing harsh realities, but remaining determined in spite of that. To put it simply, it’s about kids who come very close to death through the dangers…</t>
-        </is>
-      </c>
-      <c r="F139" t="n">
-        <v>448</v>
-      </c>
-      <c r="G139" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>lisa</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>2023/06/23</t>
-        </is>
-      </c>
-      <c r="D140" t="n">
-        <v>4</v>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>“i guess the world really is as sweet as potatoes and molasses."  i loved this! so sweet, spooky and beautiful. wonderfully animated, i adored this 🫶</t>
-        </is>
-      </c>
-      <c r="F140" t="n">
-        <v>149</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-0.7</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>CinePhil</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>2023/01/28</t>
-        </is>
-      </c>
-      <c r="D141" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>Son and I cannot wait to watch this again, had such a fun time  (Poor Elijah Wood being type casted as a partnered adventurer)</t>
-        </is>
-      </c>
-      <c r="F141" t="n">
-        <v>126</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>4ntun</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>2024/02/02</t>
-        </is>
-      </c>
-      <c r="D142" t="n">
-        <v>5</v>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>Wirt, you can do anything if you set your mind to it.  A fable of compassion and a triumph of imagination. Two lost boys wandering the Unknown, a talking bluebird accompanying them, an old woodsman guarding the light of life and the Beast singing their requiem, every day and every night. A must watch.</t>
-        </is>
-      </c>
-      <c r="F142" t="n">
-        <v>302</v>
-      </c>
-      <c r="G142" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>EccyReviews</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>2023/07/03</t>
-        </is>
-      </c>
-      <c r="D143" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>Potato’s and Molasses.Best Song Ever!!!  I just Binged the Hell out of this and I loved every minute. Greg is 100% my favourite character was in hysterics ever second he was on the screen. The story is so deep talking about death,friendship and love and Cartoon Network are incredible with their animation. Each episode was important to the show and I loved how Wirt and Greg had effects on every character they interacted with. I highly recommend this if you get the chance as you will have a blast.  👏👏🌲🥔❤️😂🐸🐦🏮🎥🎥</t>
-        </is>
-      </c>
-      <c r="F143" t="n">
-        <v>514</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>Alex</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>2022/03/30</t>
-        </is>
-      </c>
-      <c r="D144" t="n">
-        <v>5</v>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>I can't quite articulate why this means so much to me. But I strongly urge you to give this a go if you haven't seen it, and it looks like your thing. Such a delight, with top-notch charm and atmosphere, and so many wonderful plotlines packed into the surprisingly short episodes. Each character is rendered with mounds of care, as is each fantastical place they find themselves on their journey. I'd like to rewatch this and think on the ending…</t>
-        </is>
-      </c>
-      <c r="F144" t="n">
-        <v>446</v>
-      </c>
-      <c r="G144" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>brynn helena</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>2021/10/24</t>
-        </is>
-      </c>
-      <c r="D145" t="n">
-        <v>5</v>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>had to watch this one more time over before october ends ❤️ greg &amp; wirt ultimate comfort characters</t>
-        </is>
-      </c>
-      <c r="F145" t="n">
-        <v>99</v>
-      </c>
-      <c r="G145" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>aya</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>2022/12/01</t>
-        </is>
-      </c>
-      <c r="D146" t="n">
-        <v>5</v>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>wirt and beatrice are canon !!!! (in my head)</t>
-        </is>
-      </c>
-      <c r="F146" t="n">
-        <v>45</v>
-      </c>
-      <c r="G146" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>Jeff</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>2020/01/14</t>
-        </is>
-      </c>
-      <c r="D147" t="n">
-        <v>5</v>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>ABSOLUTELY DELIGHTFUL. Can every animated movie look like this please? 🥺</t>
-        </is>
-      </c>
-      <c r="F147" t="n">
-        <v>72</v>
-      </c>
-      <c r="G147" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>Dhai</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>2023/05/30</t>
-        </is>
-      </c>
-      <c r="D148" t="n">
-        <v>5</v>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>Honestly if everyone was just like gregory war wouldn’t exist maybe just chaos</t>
-        </is>
-      </c>
-      <c r="F148" t="n">
-        <v>78</v>
-      </c>
-      <c r="G148" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>Cinema Language</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>2021/10/03</t>
-        </is>
-      </c>
-      <c r="D149" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>Well this was absolutely delightful 😍  Genuinely a film (or show) that has made the second half of my day infinitely better. I can’t even describe what part of this works this well, almost like magic. It’s genuinely hilarious, cute, exciting and even poignant. A show about not being enough, about being afraid of the world, about coming home. Endlessly displaying an effortless creativity through its beautiful scenarios and even more beautiful visuals that almost transcend the medium of animated kids’ shows. Perfect watch for the season.</t>
-        </is>
-      </c>
-      <c r="F149" t="n">
-        <v>541</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>Nolio</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>2021/01/03</t>
-        </is>
-      </c>
-      <c r="D150" t="n">
-        <v>4</v>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>Adventurous and full of heart, Over the Garden Wall is a sweet miniseries created by Cartoon Network. The series is basically about two lost brothers trying to find their way home. Along the way, they encounter all kinds of strange people, things and locations. This series clocks in at about 110 minutes, making it an extremely short watch. The length of the series along with its brilliant little contents had me longing for even more episodes shortly after I finished…</t>
-        </is>
-      </c>
-      <c r="F150" t="n">
-        <v>471</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-0.7</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>Bethan 💀</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>2019/10/03</t>
-        </is>
-      </c>
-      <c r="D151" t="n">
-        <v>5</v>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>scavenger hunt 55 | task 3  Ain't that just the way.  Watching this with a snuggly blanket and a pumpkin-vanilla scented candle has made me so autumnal, plus I relate to Greg in 98% of daily situations.</t>
-        </is>
-      </c>
-      <c r="F151" t="n">
-        <v>202</v>
-      </c>
-      <c r="G151" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>Robert</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>2015/04/27</t>
-        </is>
-      </c>
-      <c r="D152" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>In the Aeroplane Over the Garden Wall</t>
-        </is>
-      </c>
-      <c r="F152" t="n">
-        <v>37</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>the sam</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>2023/08/23</t>
-        </is>
-      </c>
-      <c r="D153" t="n">
-        <v>5</v>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>Grow, tiny seed You are called to the trees Rise till your leaves fill the sky Until your sighs fill the air in the night Lift your mighty limbs And give praise to the fire</t>
-        </is>
-      </c>
-      <c r="F153" t="n">
-        <v>172</v>
-      </c>
-      <c r="G153" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>MattLovesMovies</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>2022/10/29</t>
-        </is>
-      </c>
-      <c r="D154" t="n">
-        <v>5</v>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>This is 1/1. There is nothing like this. It’s like Spirited Away if it were more American, entirely more absurd and set in everyone’s agreed upon perfect idea of Autumn but even then it’s still so much more indescribable than that. It’s legitimately some of the most out-there, left field shit I’ve ever seen.   The horse likes to steal/10</t>
-        </is>
-      </c>
-      <c r="F154" t="n">
-        <v>339</v>
-      </c>
-      <c r="G154" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>karol</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>2024/04/25</t>
-        </is>
-      </c>
-      <c r="D155" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>comfort for4ver &lt;3  frog names ranked:  1. george washington 2. ronald 3. benjamin franklin 4. doctor cucumber 5. mr. president 6. jason funderburker 7. kitty 8. wirt jr. 9. skipper 10. greg jr.</t>
-        </is>
-      </c>
-      <c r="F155" t="n">
-        <v>194</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>Ziyad</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>2024/01/27</t>
-        </is>
-      </c>
-      <c r="D156" t="n">
-        <v>5</v>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>so you’re telling me that this shit was supposed to be for kids!!</t>
-        </is>
-      </c>
-      <c r="F156" t="n">
-        <v>65</v>
-      </c>
-      <c r="G156" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>Santi Saw the TV Glow</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>2023/10/11</t>
-        </is>
-      </c>
-      <c r="D157" t="n">
-        <v>5</v>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>This was a lovely watch!   I only watched three episodes before and I got bored with it, but after watching it with the fellow patrons of House of Cinema, it’s one of the best animated shows I’ve ever watched from Cartoon Network. Now, Regular Show and Adventure Time are my all-time favs, but within the series’ 10 episodes that are a breezy 10 min. each, it’s carried by it’s creepy atmosphere, creative and compelling characters and original narrative with complex themes of brotherhood, growing up, and in search of determination.  I love Over the Garden Wall and that’s a ROCK FACT!</t>
-        </is>
-      </c>
-      <c r="F157" t="n">
-        <v>587</v>
-      </c>
-      <c r="G157" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>Johnny2Cellos</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>2022/09/20</t>
-        </is>
-      </c>
-      <c r="D158" t="n">
-        <v>5</v>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>I’ll probably end up watching this 2 or 3 more times this year</t>
-        </is>
-      </c>
-      <c r="F158" t="n">
-        <v>62</v>
-      </c>
-      <c r="G158" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>Kibriya⚡</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>2021/05/29</t>
-        </is>
-      </c>
-      <c r="D159" t="n">
-        <v>3</v>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>Kay, no offense but I mean it was good 10 episodes of 11 minutes mere dumb cute cartoon, but this is too overrated in letterboxd. Even in IMDb.  Please don't hate me.  PS Greg is just too cute</t>
-        </is>
-      </c>
-      <c r="F159" t="n">
-        <v>192</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-1.7</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>Brody Brittain</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>2021/11/30</t>
-        </is>
-      </c>
-      <c r="D160" t="n">
-        <v>5</v>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>Ain't that just the way :)</t>
-        </is>
-      </c>
-      <c r="F160" t="n">
-        <v>26</v>
-      </c>
-      <c r="G160" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>angie</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>2021/08/17</t>
-        </is>
-      </c>
-      <c r="D161" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> kicking myself for not seeing this sooner, and in fact missing it when i was in foster care. what a fantastic story here, what a fantastic story  part of what made it so compelling to me was its pointed reliance on early modern and archaic themes despite its often modern-modern style of storytelling (and setting!). the way it's told is for the most part quite actually episodic, in a Moll Flanders sort of sense. the actual direction of the journey…</t>
-        </is>
-      </c>
-      <c r="F161" t="n">
-        <v>452</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-0.2</v>
+        <v>30</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-no-way-home/</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>-0.42</v>
       </c>
     </row>
   </sheetData>

--- a/letterboxd_scraping/reviews.xlsx
+++ b/letterboxd_scraping/reviews.xlsx
@@ -495,11 +495,7 @@
       <c r="F2" t="n">
         <v>42</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
-        </is>
-      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
         <v>-0.58</v>
       </c>
@@ -529,11 +525,7 @@
       <c r="F3" t="n">
         <v>66</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
-        </is>
-      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
         <v>0.42</v>
       </c>
@@ -563,11 +555,7 @@
       <c r="F4" t="n">
         <v>22</v>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
-        </is>
-      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
         <v>-0.08</v>
       </c>
@@ -597,11 +585,7 @@
       <c r="F5" t="n">
         <v>27</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
-        </is>
-      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
         <v>-0.08</v>
       </c>
@@ -631,11 +615,7 @@
       <c r="F6" t="n">
         <v>425</v>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
-        </is>
-      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
         <v>0.42</v>
       </c>
@@ -665,11 +645,7 @@
       <c r="F7" t="n">
         <v>45</v>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
-        </is>
-      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
         <v>0.42</v>
       </c>
@@ -699,11 +675,7 @@
       <c r="F8" t="n">
         <v>36</v>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
-        </is>
-      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
         <v>-0.58</v>
       </c>
@@ -733,11 +705,7 @@
       <c r="F9" t="n">
         <v>139</v>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
-        </is>
-      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
         <v>0.42</v>
       </c>
@@ -767,11 +735,7 @@
       <c r="F10" t="n">
         <v>484</v>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
-        </is>
-      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
         <v>0.42</v>
       </c>
@@ -801,11 +765,7 @@
       <c r="F11" t="n">
         <v>424</v>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
-        </is>
-      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
         <v>-2.58</v>
       </c>
@@ -835,11 +795,7 @@
       <c r="F12" t="n">
         <v>87</v>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
-        </is>
-      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
         <v>0.42</v>
       </c>
@@ -869,11 +825,7 @@
       <c r="F13" t="n">
         <v>393</v>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
-        </is>
-      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
         <v>0.42</v>
       </c>
@@ -903,11 +855,7 @@
       <c r="F14" t="n">
         <v>79</v>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
-        </is>
-      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
         <v>0.42</v>
       </c>
@@ -937,11 +885,7 @@
       <c r="F15" t="n">
         <v>101</v>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
-        </is>
-      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
         <v>0.42</v>
       </c>
@@ -971,11 +915,7 @@
       <c r="F16" t="n">
         <v>50</v>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
-        </is>
-      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
         <v>0.42</v>
       </c>
@@ -1005,11 +945,7 @@
       <c r="F17" t="n">
         <v>422</v>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
-        </is>
-      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
         <v>-0.08</v>
       </c>
@@ -1039,11 +975,7 @@
       <c r="F18" t="n">
         <v>140</v>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
-        </is>
-      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
         <v>-0.58</v>
       </c>
@@ -1073,11 +1005,7 @@
       <c r="F19" t="n">
         <v>290</v>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
-        </is>
-      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
         <v>0.42</v>
       </c>
@@ -1107,11 +1035,7 @@
       <c r="F20" t="n">
         <v>388</v>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
-        </is>
-      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
         <v>-0.08</v>
       </c>
@@ -1122,32 +1046,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>demi adejuyigbe</t>
+          <t>siobhan</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2022/04/07</t>
+          <t>2022/04/15</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>crying at the amc with 8 of my pals. movies have the power to change the world</t>
+          <t>you know a movie is genius when it pays homage to one of the greatest films of all time, ratatouille</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>78</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
-        </is>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>0.42</v>
+        <v>-0.58</v>
       </c>
     </row>
     <row r="22">
@@ -1156,32 +1076,28 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>siobhan</t>
+          <t>demi adejuyigbe</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2022/04/15</t>
+          <t>2022/04/07</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>you know a movie is genius when it pays homage to one of the greatest films of all time, ratatouille</t>
+          <t>crying at the amc with 8 of my pals. movies have the power to change the world</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>100</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
-        </is>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>-0.58</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="23">
@@ -1209,11 +1125,7 @@
       <c r="F23" t="n">
         <v>549</v>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
-        </is>
-      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
         <v>-0.08</v>
       </c>
@@ -1243,11 +1155,7 @@
       <c r="F24" t="n">
         <v>451</v>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
-        </is>
-      </c>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
         <v>-0.08</v>
       </c>
@@ -1277,11 +1185,7 @@
       <c r="F25" t="n">
         <v>144</v>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
-        </is>
-      </c>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
         <v>0.42</v>
       </c>
@@ -1311,11 +1215,7 @@
       <c r="F26" t="n">
         <v>143</v>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
-        </is>
-      </c>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
         <v>0.33</v>
       </c>
@@ -1345,11 +1245,7 @@
       <c r="F27" t="n">
         <v>116</v>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
-        </is>
-      </c>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
         <v>0.33</v>
       </c>
@@ -1379,11 +1275,7 @@
       <c r="F28" t="n">
         <v>39</v>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
-        </is>
-      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="n">
         <v>0.33</v>
       </c>
@@ -1413,11 +1305,7 @@
       <c r="F29" t="n">
         <v>29</v>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
-        </is>
-      </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
         <v>0.33</v>
       </c>
@@ -1447,11 +1335,7 @@
       <c r="F30" t="n">
         <v>66</v>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
-        </is>
-      </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
         <v>0.33</v>
       </c>
@@ -1481,11 +1365,7 @@
       <c r="F31" t="n">
         <v>506</v>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
-        </is>
-      </c>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
         <v>-0.67</v>
       </c>
@@ -1515,11 +1395,7 @@
       <c r="F32" t="n">
         <v>29</v>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
-        </is>
-      </c>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="n">
         <v>-0.67</v>
       </c>
@@ -1549,11 +1425,7 @@
       <c r="F33" t="n">
         <v>136</v>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
-        </is>
-      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="n">
         <v>0.33</v>
       </c>
@@ -1583,11 +1455,7 @@
       <c r="F34" t="n">
         <v>261</v>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
-        </is>
-      </c>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="n">
         <v>-0.17</v>
       </c>
@@ -1617,11 +1485,7 @@
       <c r="F35" t="n">
         <v>549</v>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
-        </is>
-      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="n">
         <v>-0.17</v>
       </c>
@@ -1651,11 +1515,7 @@
       <c r="F36" t="n">
         <v>31</v>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
-        </is>
-      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="n">
         <v>0.33</v>
       </c>
@@ -1685,11 +1545,7 @@
       <c r="F37" t="n">
         <v>291</v>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
-        </is>
-      </c>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="n">
         <v>-0.17</v>
       </c>
@@ -1719,11 +1575,7 @@
       <c r="F38" t="n">
         <v>86</v>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
-        </is>
-      </c>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="n">
         <v>0.33</v>
       </c>
@@ -1753,11 +1605,7 @@
       <c r="F39" t="n">
         <v>166</v>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
-        </is>
-      </c>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="n">
         <v>-0.67</v>
       </c>
@@ -1787,11 +1635,7 @@
       <c r="F40" t="n">
         <v>33</v>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
-        </is>
-      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="n">
         <v>-0.17</v>
       </c>
@@ -1821,11 +1665,7 @@
       <c r="F41" t="n">
         <v>77</v>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
-        </is>
-      </c>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="n">
         <v>-0.17</v>
       </c>
@@ -1855,11 +1695,7 @@
       <c r="F42" t="n">
         <v>32</v>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
-        </is>
-      </c>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="n">
         <v>0.33</v>
       </c>
@@ -1889,11 +1725,7 @@
       <c r="F43" t="n">
         <v>51</v>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
-        </is>
-      </c>
+      <c r="G43" t="inlineStr"/>
       <c r="H43" t="n">
         <v>-0.17</v>
       </c>
@@ -1923,11 +1755,7 @@
       <c r="F44" t="n">
         <v>180</v>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
-        </is>
-      </c>
+      <c r="G44" t="inlineStr"/>
       <c r="H44" t="n">
         <v>0.33</v>
       </c>
@@ -1957,11 +1785,7 @@
       <c r="F45" t="n">
         <v>226</v>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
-        </is>
-      </c>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="n">
         <v>0.33</v>
       </c>
@@ -1991,11 +1815,7 @@
       <c r="F46" t="n">
         <v>96</v>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
-        </is>
-      </c>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="n">
         <v>0.33</v>
       </c>
@@ -2025,11 +1845,7 @@
       <c r="F47" t="n">
         <v>153</v>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
-        </is>
-      </c>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" t="n">
         <v>-0.67</v>
       </c>
@@ -2059,11 +1875,7 @@
       <c r="F48" t="n">
         <v>50</v>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
-        </is>
-      </c>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="n">
         <v>-0.17</v>
       </c>
@@ -2093,11 +1905,7 @@
       <c r="F49" t="n">
         <v>108</v>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/inception/</t>
-        </is>
-      </c>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="n">
         <v>-0.14</v>
       </c>
@@ -2127,11 +1935,7 @@
       <c r="F50" t="n">
         <v>46</v>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/inception/</t>
-        </is>
-      </c>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="n">
         <v>-0.64</v>
       </c>
@@ -2161,11 +1965,7 @@
       <c r="F51" t="n">
         <v>75</v>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/inception/</t>
-        </is>
-      </c>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="n">
         <v>-0.14</v>
       </c>
@@ -2195,11 +1995,7 @@
       <c r="F52" t="n">
         <v>51</v>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/inception/</t>
-        </is>
-      </c>
+      <c r="G52" t="inlineStr"/>
       <c r="H52" t="n">
         <v>0.36</v>
       </c>
@@ -2229,11 +2025,7 @@
       <c r="F53" t="n">
         <v>35</v>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/inception/</t>
-        </is>
-      </c>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="n">
         <v>0.36</v>
       </c>
@@ -2263,11 +2055,7 @@
       <c r="F54" t="n">
         <v>70</v>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/inception/</t>
-        </is>
-      </c>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="n">
         <v>0.36</v>
       </c>
@@ -2297,11 +2085,7 @@
       <c r="F55" t="n">
         <v>34</v>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/inception/</t>
-        </is>
-      </c>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="n">
         <v>-0.14</v>
       </c>
@@ -2331,11 +2115,7 @@
       <c r="F56" t="n">
         <v>202</v>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/inception/</t>
-        </is>
-      </c>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="n">
         <v>-0.14</v>
       </c>
@@ -2365,11 +2145,7 @@
       <c r="F57" t="n">
         <v>579</v>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/inception/</t>
-        </is>
-      </c>
+      <c r="G57" t="inlineStr"/>
       <c r="H57" t="n">
         <v>0.36</v>
       </c>
@@ -2399,11 +2175,7 @@
       <c r="F58" t="n">
         <v>29</v>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/inception/</t>
-        </is>
-      </c>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="n">
         <v>-0.64</v>
       </c>
@@ -2433,11 +2205,7 @@
       <c r="F59" t="n">
         <v>238</v>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/inception/</t>
-        </is>
-      </c>
+      <c r="G59" t="inlineStr"/>
       <c r="H59" t="n">
         <v>0.36</v>
       </c>
@@ -2467,11 +2235,7 @@
       <c r="F60" t="n">
         <v>111</v>
       </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/inception/</t>
-        </is>
-      </c>
+      <c r="G60" t="inlineStr"/>
       <c r="H60" t="n">
         <v>0.36</v>
       </c>
@@ -2501,11 +2265,7 @@
       <c r="F61" t="n">
         <v>65</v>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/inception/</t>
-        </is>
-      </c>
+      <c r="G61" t="inlineStr"/>
       <c r="H61" t="n">
         <v>0.36</v>
       </c>
@@ -2535,11 +2295,7 @@
       <c r="F62" t="n">
         <v>94</v>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/inception/</t>
-        </is>
-      </c>
+      <c r="G62" t="inlineStr"/>
       <c r="H62" t="n">
         <v>0.36</v>
       </c>
@@ -2569,11 +2325,7 @@
       <c r="F63" t="n">
         <v>189</v>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/inception/</t>
-        </is>
-      </c>
+      <c r="G63" t="inlineStr"/>
       <c r="H63" t="n">
         <v>0.36</v>
       </c>
@@ -2603,11 +2355,7 @@
       <c r="F64" t="n">
         <v>116</v>
       </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/inception/</t>
-        </is>
-      </c>
+      <c r="G64" t="inlineStr"/>
       <c r="H64" t="n">
         <v>-1.14</v>
       </c>
@@ -2637,11 +2385,7 @@
       <c r="F65" t="n">
         <v>99</v>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/inception/</t>
-        </is>
-      </c>
+      <c r="G65" t="inlineStr"/>
       <c r="H65" t="n">
         <v>-0.14</v>
       </c>
@@ -2671,11 +2415,7 @@
       <c r="F66" t="n">
         <v>9</v>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/inception/</t>
-        </is>
-      </c>
+      <c r="G66" t="inlineStr"/>
       <c r="H66" t="n">
         <v>-0.14</v>
       </c>
@@ -2705,11 +2445,7 @@
       <c r="F67" t="n">
         <v>8</v>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/inception/</t>
-        </is>
-      </c>
+      <c r="G67" t="inlineStr"/>
       <c r="H67" t="n">
         <v>0.36</v>
       </c>
@@ -2739,11 +2475,7 @@
       <c r="F68" t="n">
         <v>60</v>
       </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/inception/</t>
-        </is>
-      </c>
+      <c r="G68" t="inlineStr"/>
       <c r="H68" t="n">
         <v>-0.64</v>
       </c>
@@ -2773,11 +2505,7 @@
       <c r="F69" t="n">
         <v>72</v>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/inception/</t>
-        </is>
-      </c>
+      <c r="G69" t="inlineStr"/>
       <c r="H69" t="n">
         <v>0.36</v>
       </c>
@@ -2807,11 +2535,7 @@
       <c r="F70" t="n">
         <v>355</v>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
-        </is>
-      </c>
+      <c r="G70" t="inlineStr"/>
       <c r="H70" t="n">
         <v>0.25</v>
       </c>
@@ -2841,11 +2565,7 @@
       <c r="F71" t="n">
         <v>73</v>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
-        </is>
-      </c>
+      <c r="G71" t="inlineStr"/>
       <c r="H71" t="n">
         <v>-0.25</v>
       </c>
@@ -2875,11 +2595,7 @@
       <c r="F72" t="n">
         <v>296</v>
       </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
-        </is>
-      </c>
+      <c r="G72" t="inlineStr"/>
       <c r="H72" t="n">
         <v>0.25</v>
       </c>
@@ -2909,11 +2625,7 @@
       <c r="F73" t="n">
         <v>16</v>
       </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
-        </is>
-      </c>
+      <c r="G73" t="inlineStr"/>
       <c r="H73" t="n">
         <v>0.25</v>
       </c>
@@ -2943,11 +2655,7 @@
       <c r="F74" t="n">
         <v>170</v>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
-        </is>
-      </c>
+      <c r="G74" t="inlineStr"/>
       <c r="H74" t="n">
         <v>0.25</v>
       </c>
@@ -2977,11 +2685,7 @@
       <c r="F75" t="n">
         <v>475</v>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
-        </is>
-      </c>
+      <c r="G75" t="inlineStr"/>
       <c r="H75" t="n">
         <v>0.25</v>
       </c>
@@ -3011,11 +2715,7 @@
       <c r="F76" t="n">
         <v>20</v>
       </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
-        </is>
-      </c>
+      <c r="G76" t="inlineStr"/>
       <c r="H76" t="n">
         <v>-0.75</v>
       </c>
@@ -3045,11 +2745,7 @@
       <c r="F77" t="n">
         <v>28</v>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
-        </is>
-      </c>
+      <c r="G77" t="inlineStr"/>
       <c r="H77" t="n">
         <v>0.25</v>
       </c>
@@ -3079,11 +2775,7 @@
       <c r="F78" t="n">
         <v>96</v>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
-        </is>
-      </c>
+      <c r="G78" t="inlineStr"/>
       <c r="H78" t="n">
         <v>-0.75</v>
       </c>
@@ -3113,11 +2805,7 @@
       <c r="F79" t="n">
         <v>26</v>
       </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
-        </is>
-      </c>
+      <c r="G79" t="inlineStr"/>
       <c r="H79" t="n">
         <v>0.25</v>
       </c>
@@ -3147,11 +2835,7 @@
       <c r="F80" t="n">
         <v>111</v>
       </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
-        </is>
-      </c>
+      <c r="G80" t="inlineStr"/>
       <c r="H80" t="n">
         <v>-0.25</v>
       </c>
@@ -3181,11 +2865,7 @@
       <c r="F81" t="n">
         <v>36</v>
       </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
-        </is>
-      </c>
+      <c r="G81" t="inlineStr"/>
       <c r="H81" t="n">
         <v>0.25</v>
       </c>
@@ -3215,11 +2895,7 @@
       <c r="F82" t="n">
         <v>367</v>
       </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
-        </is>
-      </c>
+      <c r="G82" t="inlineStr"/>
       <c r="H82" t="n">
         <v>0.25</v>
       </c>
@@ -3249,11 +2925,7 @@
       <c r="F83" t="n">
         <v>45</v>
       </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
-        </is>
-      </c>
+      <c r="G83" t="inlineStr"/>
       <c r="H83" t="n">
         <v>0.25</v>
       </c>
@@ -3283,11 +2955,7 @@
       <c r="F84" t="n">
         <v>176</v>
       </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
-        </is>
-      </c>
+      <c r="G84" t="inlineStr"/>
       <c r="H84" t="n">
         <v>0.25</v>
       </c>
@@ -3317,11 +2985,7 @@
       <c r="F85" t="n">
         <v>33</v>
       </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
-        </is>
-      </c>
+      <c r="G85" t="inlineStr"/>
       <c r="H85" t="n">
         <v>0.25</v>
       </c>
@@ -3351,11 +3015,7 @@
       <c r="F86" t="n">
         <v>92</v>
       </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
-        </is>
-      </c>
+      <c r="G86" t="inlineStr"/>
       <c r="H86" t="n">
         <v>0.25</v>
       </c>
@@ -3385,11 +3045,7 @@
       <c r="F87" t="n">
         <v>247</v>
       </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
-        </is>
-      </c>
+      <c r="G87" t="inlineStr"/>
       <c r="H87" t="n">
         <v>-1.25</v>
       </c>
@@ -3419,11 +3075,7 @@
       <c r="F88" t="n">
         <v>150</v>
       </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
-        </is>
-      </c>
+      <c r="G88" t="inlineStr"/>
       <c r="H88" t="n">
         <v>0.25</v>
       </c>
@@ -3453,11 +3105,7 @@
       <c r="F89" t="n">
         <v>72</v>
       </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
-        </is>
-      </c>
+      <c r="G89" t="inlineStr"/>
       <c r="H89" t="n">
         <v>-0.25</v>
       </c>
@@ -3487,11 +3135,7 @@
       <c r="F90" t="n">
         <v>42</v>
       </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
-        </is>
-      </c>
+      <c r="G90" t="inlineStr"/>
       <c r="H90" t="n">
         <v>-0.25</v>
       </c>
@@ -3521,11 +3165,7 @@
       <c r="F91" t="n">
         <v>193</v>
       </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
-        </is>
-      </c>
+      <c r="G91" t="inlineStr"/>
       <c r="H91" t="n">
         <v>0.25</v>
       </c>
@@ -3555,11 +3195,7 @@
       <c r="F92" t="n">
         <v>143</v>
       </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-no-way-home/</t>
-        </is>
-      </c>
+      <c r="G92" t="inlineStr"/>
       <c r="H92" t="n">
         <v>0.08</v>
       </c>
@@ -3589,11 +3225,7 @@
       <c r="F93" t="n">
         <v>199</v>
       </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-no-way-home/</t>
-        </is>
-      </c>
+      <c r="G93" t="inlineStr"/>
       <c r="H93" t="n">
         <v>1.58</v>
       </c>
@@ -3623,11 +3255,7 @@
       <c r="F94" t="n">
         <v>508</v>
       </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-no-way-home/</t>
-        </is>
-      </c>
+      <c r="G94" t="inlineStr"/>
       <c r="H94" t="n">
         <v>-1.42</v>
       </c>
@@ -3657,11 +3285,7 @@
       <c r="F95" t="n">
         <v>197</v>
       </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-no-way-home/</t>
-        </is>
-      </c>
+      <c r="G95" t="inlineStr"/>
       <c r="H95" t="n">
         <v>1.08</v>
       </c>
@@ -3691,11 +3315,7 @@
       <c r="F96" t="n">
         <v>74</v>
       </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-no-way-home/</t>
-        </is>
-      </c>
+      <c r="G96" t="inlineStr"/>
       <c r="H96" t="n">
         <v>0.08</v>
       </c>
@@ -3725,11 +3345,7 @@
       <c r="F97" t="n">
         <v>129</v>
       </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-no-way-home/</t>
-        </is>
-      </c>
+      <c r="G97" t="inlineStr"/>
       <c r="H97" t="n">
         <v>-0.92</v>
       </c>
@@ -3759,11 +3375,7 @@
       <c r="F98" t="n">
         <v>44</v>
       </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-no-way-home/</t>
-        </is>
-      </c>
+      <c r="G98" t="inlineStr"/>
       <c r="H98" t="n">
         <v>0.08</v>
       </c>
@@ -3793,11 +3405,7 @@
       <c r="F99" t="n">
         <v>45</v>
       </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-no-way-home/</t>
-        </is>
-      </c>
+      <c r="G99" t="inlineStr"/>
       <c r="H99" t="n">
         <v>1.58</v>
       </c>
@@ -3827,11 +3435,7 @@
       <c r="F100" t="n">
         <v>79</v>
       </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-no-way-home/</t>
-        </is>
-      </c>
+      <c r="G100" t="inlineStr"/>
       <c r="H100" t="n">
         <v>-1.42</v>
       </c>
@@ -3861,11 +3465,7 @@
       <c r="F101" t="n">
         <v>48</v>
       </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-no-way-home/</t>
-        </is>
-      </c>
+      <c r="G101" t="inlineStr"/>
       <c r="H101" t="n">
         <v>-1.42</v>
       </c>
@@ -3895,11 +3495,7 @@
       <c r="F102" t="n">
         <v>49</v>
       </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-no-way-home/</t>
-        </is>
-      </c>
+      <c r="G102" t="inlineStr"/>
       <c r="H102" t="n">
         <v>1.08</v>
       </c>
@@ -3929,11 +3525,7 @@
       <c r="F103" t="n">
         <v>306</v>
       </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-no-way-home/</t>
-        </is>
-      </c>
+      <c r="G103" t="inlineStr"/>
       <c r="H103" t="n">
         <v>1.58</v>
       </c>
@@ -3963,11 +3555,7 @@
       <c r="F104" t="n">
         <v>435</v>
       </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-no-way-home/</t>
-        </is>
-      </c>
+      <c r="G104" t="inlineStr"/>
       <c r="H104" t="n">
         <v>-0.92</v>
       </c>
@@ -3997,11 +3585,7 @@
       <c r="F105" t="n">
         <v>135</v>
       </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-no-way-home/</t>
-        </is>
-      </c>
+      <c r="G105" t="inlineStr"/>
       <c r="H105" t="n">
         <v>-1.42</v>
       </c>
@@ -4031,11 +3615,7 @@
       <c r="F106" t="n">
         <v>531</v>
       </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-no-way-home/</t>
-        </is>
-      </c>
+      <c r="G106" t="inlineStr"/>
       <c r="H106" t="n">
         <v>0.08</v>
       </c>
@@ -4065,11 +3645,7 @@
       <c r="F107" t="n">
         <v>101</v>
       </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-no-way-home/</t>
-        </is>
-      </c>
+      <c r="G107" t="inlineStr"/>
       <c r="H107" t="n">
         <v>0.08</v>
       </c>
@@ -4099,11 +3675,7 @@
       <c r="F108" t="n">
         <v>434</v>
       </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-no-way-home/</t>
-        </is>
-      </c>
+      <c r="G108" t="inlineStr"/>
       <c r="H108" t="n">
         <v>-0.92</v>
       </c>
@@ -4133,11 +3705,7 @@
       <c r="F109" t="n">
         <v>103</v>
       </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-no-way-home/</t>
-        </is>
-      </c>
+      <c r="G109" t="inlineStr"/>
       <c r="H109" t="n">
         <v>1.08</v>
       </c>
@@ -4167,11 +3735,7 @@
       <c r="F110" t="n">
         <v>140</v>
       </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-no-way-home/</t>
-        </is>
-      </c>
+      <c r="G110" t="inlineStr"/>
       <c r="H110" t="n">
         <v>0.58</v>
       </c>
@@ -4201,11 +3765,7 @@
       <c r="F111" t="n">
         <v>30</v>
       </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/spider-man-no-way-home/</t>
-        </is>
-      </c>
+      <c r="G111" t="inlineStr"/>
       <c r="H111" t="n">
         <v>-0.42</v>
       </c>

--- a/letterboxd_scraping/reviews.xlsx
+++ b/letterboxd_scraping/reviews.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Filme</t>
+          <t>Movie</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -495,7 +495,11 @@
       <c r="F2" t="n">
         <v>42</v>
       </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
+        </is>
+      </c>
       <c r="H2" t="n">
         <v>-0.58</v>
       </c>
@@ -525,7 +529,11 @@
       <c r="F3" t="n">
         <v>66</v>
       </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
+        </is>
+      </c>
       <c r="H3" t="n">
         <v>0.42</v>
       </c>
@@ -555,7 +563,11 @@
       <c r="F4" t="n">
         <v>22</v>
       </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
+        </is>
+      </c>
       <c r="H4" t="n">
         <v>-0.08</v>
       </c>
@@ -585,7 +597,11 @@
       <c r="F5" t="n">
         <v>27</v>
       </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
+        </is>
+      </c>
       <c r="H5" t="n">
         <v>-0.08</v>
       </c>
@@ -615,7 +631,11 @@
       <c r="F6" t="n">
         <v>425</v>
       </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
+        </is>
+      </c>
       <c r="H6" t="n">
         <v>0.42</v>
       </c>
@@ -645,7 +665,11 @@
       <c r="F7" t="n">
         <v>45</v>
       </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
+        </is>
+      </c>
       <c r="H7" t="n">
         <v>0.42</v>
       </c>
@@ -675,7 +699,11 @@
       <c r="F8" t="n">
         <v>36</v>
       </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
+        </is>
+      </c>
       <c r="H8" t="n">
         <v>-0.58</v>
       </c>
@@ -705,7 +733,11 @@
       <c r="F9" t="n">
         <v>139</v>
       </c>
-      <c r="G9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
+        </is>
+      </c>
       <c r="H9" t="n">
         <v>0.42</v>
       </c>
@@ -735,7 +767,11 @@
       <c r="F10" t="n">
         <v>484</v>
       </c>
-      <c r="G10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
+        </is>
+      </c>
       <c r="H10" t="n">
         <v>0.42</v>
       </c>
@@ -765,7 +801,11 @@
       <c r="F11" t="n">
         <v>424</v>
       </c>
-      <c r="G11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
+        </is>
+      </c>
       <c r="H11" t="n">
         <v>-2.58</v>
       </c>
@@ -795,7 +835,11 @@
       <c r="F12" t="n">
         <v>87</v>
       </c>
-      <c r="G12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
+        </is>
+      </c>
       <c r="H12" t="n">
         <v>0.42</v>
       </c>
@@ -825,7 +869,11 @@
       <c r="F13" t="n">
         <v>393</v>
       </c>
-      <c r="G13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
+        </is>
+      </c>
       <c r="H13" t="n">
         <v>0.42</v>
       </c>
@@ -855,7 +903,11 @@
       <c r="F14" t="n">
         <v>79</v>
       </c>
-      <c r="G14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
+        </is>
+      </c>
       <c r="H14" t="n">
         <v>0.42</v>
       </c>
@@ -885,7 +937,11 @@
       <c r="F15" t="n">
         <v>101</v>
       </c>
-      <c r="G15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
+        </is>
+      </c>
       <c r="H15" t="n">
         <v>0.42</v>
       </c>
@@ -915,7 +971,11 @@
       <c r="F16" t="n">
         <v>50</v>
       </c>
-      <c r="G16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
+        </is>
+      </c>
       <c r="H16" t="n">
         <v>0.42</v>
       </c>
@@ -945,7 +1005,11 @@
       <c r="F17" t="n">
         <v>422</v>
       </c>
-      <c r="G17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
+        </is>
+      </c>
       <c r="H17" t="n">
         <v>-0.08</v>
       </c>
@@ -975,7 +1039,11 @@
       <c r="F18" t="n">
         <v>140</v>
       </c>
-      <c r="G18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
+        </is>
+      </c>
       <c r="H18" t="n">
         <v>-0.58</v>
       </c>
@@ -1005,7 +1073,11 @@
       <c r="F19" t="n">
         <v>290</v>
       </c>
-      <c r="G19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
+        </is>
+      </c>
       <c r="H19" t="n">
         <v>0.42</v>
       </c>
@@ -1035,7 +1107,11 @@
       <c r="F20" t="n">
         <v>388</v>
       </c>
-      <c r="G20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
+        </is>
+      </c>
       <c r="H20" t="n">
         <v>-0.08</v>
       </c>
@@ -1065,7 +1141,11 @@
       <c r="F21" t="n">
         <v>100</v>
       </c>
-      <c r="G21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
+        </is>
+      </c>
       <c r="H21" t="n">
         <v>-0.58</v>
       </c>
@@ -1095,7 +1175,11 @@
       <c r="F22" t="n">
         <v>78</v>
       </c>
-      <c r="G22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
+        </is>
+      </c>
       <c r="H22" t="n">
         <v>0.42</v>
       </c>
@@ -1125,7 +1209,11 @@
       <c r="F23" t="n">
         <v>549</v>
       </c>
-      <c r="G23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
+        </is>
+      </c>
       <c r="H23" t="n">
         <v>-0.08</v>
       </c>
@@ -1155,7 +1243,11 @@
       <c r="F24" t="n">
         <v>451</v>
       </c>
-      <c r="G24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
+        </is>
+      </c>
       <c r="H24" t="n">
         <v>-0.08</v>
       </c>
@@ -1185,7 +1277,11 @@
       <c r="F25" t="n">
         <v>144</v>
       </c>
-      <c r="G25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/everything-everywhere-all-at-once/</t>
+        </is>
+      </c>
       <c r="H25" t="n">
         <v>0.42</v>
       </c>
@@ -1215,7 +1311,11 @@
       <c r="F26" t="n">
         <v>143</v>
       </c>
-      <c r="G26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
+        </is>
+      </c>
       <c r="H26" t="n">
         <v>0.33</v>
       </c>
@@ -1245,7 +1345,11 @@
       <c r="F27" t="n">
         <v>116</v>
       </c>
-      <c r="G27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
+        </is>
+      </c>
       <c r="H27" t="n">
         <v>0.33</v>
       </c>
@@ -1275,7 +1379,11 @@
       <c r="F28" t="n">
         <v>39</v>
       </c>
-      <c r="G28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
+        </is>
+      </c>
       <c r="H28" t="n">
         <v>0.33</v>
       </c>
@@ -1305,7 +1413,11 @@
       <c r="F29" t="n">
         <v>29</v>
       </c>
-      <c r="G29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
+        </is>
+      </c>
       <c r="H29" t="n">
         <v>0.33</v>
       </c>
@@ -1335,7 +1447,11 @@
       <c r="F30" t="n">
         <v>66</v>
       </c>
-      <c r="G30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
+        </is>
+      </c>
       <c r="H30" t="n">
         <v>0.33</v>
       </c>
@@ -1365,7 +1481,11 @@
       <c r="F31" t="n">
         <v>506</v>
       </c>
-      <c r="G31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
+        </is>
+      </c>
       <c r="H31" t="n">
         <v>-0.67</v>
       </c>
@@ -1395,7 +1515,11 @@
       <c r="F32" t="n">
         <v>29</v>
       </c>
-      <c r="G32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
+        </is>
+      </c>
       <c r="H32" t="n">
         <v>-0.67</v>
       </c>
@@ -1425,7 +1549,11 @@
       <c r="F33" t="n">
         <v>136</v>
       </c>
-      <c r="G33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
+        </is>
+      </c>
       <c r="H33" t="n">
         <v>0.33</v>
       </c>
@@ -1455,7 +1583,11 @@
       <c r="F34" t="n">
         <v>261</v>
       </c>
-      <c r="G34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
+        </is>
+      </c>
       <c r="H34" t="n">
         <v>-0.17</v>
       </c>
@@ -1485,7 +1617,11 @@
       <c r="F35" t="n">
         <v>549</v>
       </c>
-      <c r="G35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
+        </is>
+      </c>
       <c r="H35" t="n">
         <v>-0.17</v>
       </c>
@@ -1515,7 +1651,11 @@
       <c r="F36" t="n">
         <v>31</v>
       </c>
-      <c r="G36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
+        </is>
+      </c>
       <c r="H36" t="n">
         <v>0.33</v>
       </c>
@@ -1545,7 +1685,11 @@
       <c r="F37" t="n">
         <v>291</v>
       </c>
-      <c r="G37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
+        </is>
+      </c>
       <c r="H37" t="n">
         <v>-0.17</v>
       </c>
@@ -1575,7 +1719,11 @@
       <c r="F38" t="n">
         <v>86</v>
       </c>
-      <c r="G38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
+        </is>
+      </c>
       <c r="H38" t="n">
         <v>0.33</v>
       </c>
@@ -1605,7 +1753,11 @@
       <c r="F39" t="n">
         <v>166</v>
       </c>
-      <c r="G39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
+        </is>
+      </c>
       <c r="H39" t="n">
         <v>-0.67</v>
       </c>
@@ -1635,7 +1787,11 @@
       <c r="F40" t="n">
         <v>33</v>
       </c>
-      <c r="G40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
+        </is>
+      </c>
       <c r="H40" t="n">
         <v>-0.17</v>
       </c>
@@ -1665,7 +1821,11 @@
       <c r="F41" t="n">
         <v>77</v>
       </c>
-      <c r="G41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
+        </is>
+      </c>
       <c r="H41" t="n">
         <v>-0.17</v>
       </c>
@@ -1695,7 +1855,11 @@
       <c r="F42" t="n">
         <v>32</v>
       </c>
-      <c r="G42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
+        </is>
+      </c>
       <c r="H42" t="n">
         <v>0.33</v>
       </c>
@@ -1725,7 +1889,11 @@
       <c r="F43" t="n">
         <v>51</v>
       </c>
-      <c r="G43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
+        </is>
+      </c>
       <c r="H43" t="n">
         <v>-0.17</v>
       </c>
@@ -1755,7 +1923,11 @@
       <c r="F44" t="n">
         <v>180</v>
       </c>
-      <c r="G44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
+        </is>
+      </c>
       <c r="H44" t="n">
         <v>0.33</v>
       </c>
@@ -1785,7 +1957,11 @@
       <c r="F45" t="n">
         <v>226</v>
       </c>
-      <c r="G45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
+        </is>
+      </c>
       <c r="H45" t="n">
         <v>0.33</v>
       </c>
@@ -1815,7 +1991,11 @@
       <c r="F46" t="n">
         <v>96</v>
       </c>
-      <c r="G46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
+        </is>
+      </c>
       <c r="H46" t="n">
         <v>0.33</v>
       </c>
@@ -1845,7 +2025,11 @@
       <c r="F47" t="n">
         <v>153</v>
       </c>
-      <c r="G47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
+        </is>
+      </c>
       <c r="H47" t="n">
         <v>-0.67</v>
       </c>
@@ -1875,7 +2059,11 @@
       <c r="F48" t="n">
         <v>50</v>
       </c>
-      <c r="G48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-into-the-spider-verse/</t>
+        </is>
+      </c>
       <c r="H48" t="n">
         <v>-0.17</v>
       </c>
@@ -1905,7 +2093,11 @@
       <c r="F49" t="n">
         <v>108</v>
       </c>
-      <c r="G49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/inception/</t>
+        </is>
+      </c>
       <c r="H49" t="n">
         <v>-0.14</v>
       </c>
@@ -1935,7 +2127,11 @@
       <c r="F50" t="n">
         <v>46</v>
       </c>
-      <c r="G50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/inception/</t>
+        </is>
+      </c>
       <c r="H50" t="n">
         <v>-0.64</v>
       </c>
@@ -1965,7 +2161,11 @@
       <c r="F51" t="n">
         <v>75</v>
       </c>
-      <c r="G51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/inception/</t>
+        </is>
+      </c>
       <c r="H51" t="n">
         <v>-0.14</v>
       </c>
@@ -1995,7 +2195,11 @@
       <c r="F52" t="n">
         <v>51</v>
       </c>
-      <c r="G52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/inception/</t>
+        </is>
+      </c>
       <c r="H52" t="n">
         <v>0.36</v>
       </c>
@@ -2025,7 +2229,11 @@
       <c r="F53" t="n">
         <v>35</v>
       </c>
-      <c r="G53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/inception/</t>
+        </is>
+      </c>
       <c r="H53" t="n">
         <v>0.36</v>
       </c>
@@ -2055,7 +2263,11 @@
       <c r="F54" t="n">
         <v>70</v>
       </c>
-      <c r="G54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/inception/</t>
+        </is>
+      </c>
       <c r="H54" t="n">
         <v>0.36</v>
       </c>
@@ -2085,7 +2297,11 @@
       <c r="F55" t="n">
         <v>34</v>
       </c>
-      <c r="G55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/inception/</t>
+        </is>
+      </c>
       <c r="H55" t="n">
         <v>-0.14</v>
       </c>
@@ -2115,7 +2331,11 @@
       <c r="F56" t="n">
         <v>202</v>
       </c>
-      <c r="G56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/inception/</t>
+        </is>
+      </c>
       <c r="H56" t="n">
         <v>-0.14</v>
       </c>
@@ -2145,7 +2365,11 @@
       <c r="F57" t="n">
         <v>579</v>
       </c>
-      <c r="G57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/inception/</t>
+        </is>
+      </c>
       <c r="H57" t="n">
         <v>0.36</v>
       </c>
@@ -2175,7 +2399,11 @@
       <c r="F58" t="n">
         <v>29</v>
       </c>
-      <c r="G58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/inception/</t>
+        </is>
+      </c>
       <c r="H58" t="n">
         <v>-0.64</v>
       </c>
@@ -2205,7 +2433,11 @@
       <c r="F59" t="n">
         <v>238</v>
       </c>
-      <c r="G59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/inception/</t>
+        </is>
+      </c>
       <c r="H59" t="n">
         <v>0.36</v>
       </c>
@@ -2235,7 +2467,11 @@
       <c r="F60" t="n">
         <v>111</v>
       </c>
-      <c r="G60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/inception/</t>
+        </is>
+      </c>
       <c r="H60" t="n">
         <v>0.36</v>
       </c>
@@ -2265,7 +2501,11 @@
       <c r="F61" t="n">
         <v>65</v>
       </c>
-      <c r="G61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/inception/</t>
+        </is>
+      </c>
       <c r="H61" t="n">
         <v>0.36</v>
       </c>
@@ -2295,7 +2535,11 @@
       <c r="F62" t="n">
         <v>94</v>
       </c>
-      <c r="G62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/inception/</t>
+        </is>
+      </c>
       <c r="H62" t="n">
         <v>0.36</v>
       </c>
@@ -2325,7 +2569,11 @@
       <c r="F63" t="n">
         <v>189</v>
       </c>
-      <c r="G63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/inception/</t>
+        </is>
+      </c>
       <c r="H63" t="n">
         <v>0.36</v>
       </c>
@@ -2355,7 +2603,11 @@
       <c r="F64" t="n">
         <v>116</v>
       </c>
-      <c r="G64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/inception/</t>
+        </is>
+      </c>
       <c r="H64" t="n">
         <v>-1.14</v>
       </c>
@@ -2385,7 +2637,11 @@
       <c r="F65" t="n">
         <v>99</v>
       </c>
-      <c r="G65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/inception/</t>
+        </is>
+      </c>
       <c r="H65" t="n">
         <v>-0.14</v>
       </c>
@@ -2415,7 +2671,11 @@
       <c r="F66" t="n">
         <v>9</v>
       </c>
-      <c r="G66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/inception/</t>
+        </is>
+      </c>
       <c r="H66" t="n">
         <v>-0.14</v>
       </c>
@@ -2445,7 +2705,11 @@
       <c r="F67" t="n">
         <v>8</v>
       </c>
-      <c r="G67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/inception/</t>
+        </is>
+      </c>
       <c r="H67" t="n">
         <v>0.36</v>
       </c>
@@ -2475,7 +2739,11 @@
       <c r="F68" t="n">
         <v>60</v>
       </c>
-      <c r="G68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/inception/</t>
+        </is>
+      </c>
       <c r="H68" t="n">
         <v>-0.64</v>
       </c>
@@ -2505,7 +2773,11 @@
       <c r="F69" t="n">
         <v>72</v>
       </c>
-      <c r="G69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/inception/</t>
+        </is>
+      </c>
       <c r="H69" t="n">
         <v>0.36</v>
       </c>
@@ -2535,7 +2807,11 @@
       <c r="F70" t="n">
         <v>355</v>
       </c>
-      <c r="G70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
+        </is>
+      </c>
       <c r="H70" t="n">
         <v>0.25</v>
       </c>
@@ -2565,7 +2841,11 @@
       <c r="F71" t="n">
         <v>73</v>
       </c>
-      <c r="G71" t="inlineStr"/>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
+        </is>
+      </c>
       <c r="H71" t="n">
         <v>-0.25</v>
       </c>
@@ -2595,7 +2875,11 @@
       <c r="F72" t="n">
         <v>296</v>
       </c>
-      <c r="G72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
+        </is>
+      </c>
       <c r="H72" t="n">
         <v>0.25</v>
       </c>
@@ -2625,7 +2909,11 @@
       <c r="F73" t="n">
         <v>16</v>
       </c>
-      <c r="G73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
+        </is>
+      </c>
       <c r="H73" t="n">
         <v>0.25</v>
       </c>
@@ -2655,7 +2943,11 @@
       <c r="F74" t="n">
         <v>170</v>
       </c>
-      <c r="G74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
+        </is>
+      </c>
       <c r="H74" t="n">
         <v>0.25</v>
       </c>
@@ -2685,7 +2977,11 @@
       <c r="F75" t="n">
         <v>475</v>
       </c>
-      <c r="G75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
+        </is>
+      </c>
       <c r="H75" t="n">
         <v>0.25</v>
       </c>
@@ -2715,7 +3011,11 @@
       <c r="F76" t="n">
         <v>20</v>
       </c>
-      <c r="G76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
+        </is>
+      </c>
       <c r="H76" t="n">
         <v>-0.75</v>
       </c>
@@ -2745,7 +3045,11 @@
       <c r="F77" t="n">
         <v>28</v>
       </c>
-      <c r="G77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
+        </is>
+      </c>
       <c r="H77" t="n">
         <v>0.25</v>
       </c>
@@ -2775,7 +3079,11 @@
       <c r="F78" t="n">
         <v>96</v>
       </c>
-      <c r="G78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
+        </is>
+      </c>
       <c r="H78" t="n">
         <v>-0.75</v>
       </c>
@@ -2805,7 +3113,11 @@
       <c r="F79" t="n">
         <v>26</v>
       </c>
-      <c r="G79" t="inlineStr"/>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
+        </is>
+      </c>
       <c r="H79" t="n">
         <v>0.25</v>
       </c>
@@ -2835,7 +3147,11 @@
       <c r="F80" t="n">
         <v>111</v>
       </c>
-      <c r="G80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
+        </is>
+      </c>
       <c r="H80" t="n">
         <v>-0.25</v>
       </c>
@@ -2865,7 +3181,11 @@
       <c r="F81" t="n">
         <v>36</v>
       </c>
-      <c r="G81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
+        </is>
+      </c>
       <c r="H81" t="n">
         <v>0.25</v>
       </c>
@@ -2895,7 +3215,11 @@
       <c r="F82" t="n">
         <v>367</v>
       </c>
-      <c r="G82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
+        </is>
+      </c>
       <c r="H82" t="n">
         <v>0.25</v>
       </c>
@@ -2925,7 +3249,11 @@
       <c r="F83" t="n">
         <v>45</v>
       </c>
-      <c r="G83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
+        </is>
+      </c>
       <c r="H83" t="n">
         <v>0.25</v>
       </c>
@@ -2955,7 +3283,11 @@
       <c r="F84" t="n">
         <v>176</v>
       </c>
-      <c r="G84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
+        </is>
+      </c>
       <c r="H84" t="n">
         <v>0.25</v>
       </c>
@@ -2985,7 +3317,11 @@
       <c r="F85" t="n">
         <v>33</v>
       </c>
-      <c r="G85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
+        </is>
+      </c>
       <c r="H85" t="n">
         <v>0.25</v>
       </c>
@@ -3015,7 +3351,11 @@
       <c r="F86" t="n">
         <v>92</v>
       </c>
-      <c r="G86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
+        </is>
+      </c>
       <c r="H86" t="n">
         <v>0.25</v>
       </c>
@@ -3045,7 +3385,11 @@
       <c r="F87" t="n">
         <v>247</v>
       </c>
-      <c r="G87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
+        </is>
+      </c>
       <c r="H87" t="n">
         <v>-1.25</v>
       </c>
@@ -3075,7 +3419,11 @@
       <c r="F88" t="n">
         <v>150</v>
       </c>
-      <c r="G88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
+        </is>
+      </c>
       <c r="H88" t="n">
         <v>0.25</v>
       </c>
@@ -3105,7 +3453,11 @@
       <c r="F89" t="n">
         <v>72</v>
       </c>
-      <c r="G89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
+        </is>
+      </c>
       <c r="H89" t="n">
         <v>-0.25</v>
       </c>
@@ -3135,7 +3487,11 @@
       <c r="F90" t="n">
         <v>42</v>
       </c>
-      <c r="G90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
+        </is>
+      </c>
       <c r="H90" t="n">
         <v>-0.25</v>
       </c>
@@ -3165,7 +3521,11 @@
       <c r="F91" t="n">
         <v>193</v>
       </c>
-      <c r="G91" t="inlineStr"/>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-across-the-spider-verse/</t>
+        </is>
+      </c>
       <c r="H91" t="n">
         <v>0.25</v>
       </c>
@@ -3195,7 +3555,11 @@
       <c r="F92" t="n">
         <v>143</v>
       </c>
-      <c r="G92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-no-way-home/</t>
+        </is>
+      </c>
       <c r="H92" t="n">
         <v>0.08</v>
       </c>
@@ -3225,7 +3589,11 @@
       <c r="F93" t="n">
         <v>199</v>
       </c>
-      <c r="G93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-no-way-home/</t>
+        </is>
+      </c>
       <c r="H93" t="n">
         <v>1.58</v>
       </c>
@@ -3255,7 +3623,11 @@
       <c r="F94" t="n">
         <v>508</v>
       </c>
-      <c r="G94" t="inlineStr"/>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-no-way-home/</t>
+        </is>
+      </c>
       <c r="H94" t="n">
         <v>-1.42</v>
       </c>
@@ -3285,7 +3657,11 @@
       <c r="F95" t="n">
         <v>197</v>
       </c>
-      <c r="G95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-no-way-home/</t>
+        </is>
+      </c>
       <c r="H95" t="n">
         <v>1.08</v>
       </c>
@@ -3315,7 +3691,11 @@
       <c r="F96" t="n">
         <v>74</v>
       </c>
-      <c r="G96" t="inlineStr"/>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-no-way-home/</t>
+        </is>
+      </c>
       <c r="H96" t="n">
         <v>0.08</v>
       </c>
@@ -3345,7 +3725,11 @@
       <c r="F97" t="n">
         <v>129</v>
       </c>
-      <c r="G97" t="inlineStr"/>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-no-way-home/</t>
+        </is>
+      </c>
       <c r="H97" t="n">
         <v>-0.92</v>
       </c>
@@ -3375,7 +3759,11 @@
       <c r="F98" t="n">
         <v>44</v>
       </c>
-      <c r="G98" t="inlineStr"/>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-no-way-home/</t>
+        </is>
+      </c>
       <c r="H98" t="n">
         <v>0.08</v>
       </c>
@@ -3405,7 +3793,11 @@
       <c r="F99" t="n">
         <v>45</v>
       </c>
-      <c r="G99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-no-way-home/</t>
+        </is>
+      </c>
       <c r="H99" t="n">
         <v>1.58</v>
       </c>
@@ -3435,7 +3827,11 @@
       <c r="F100" t="n">
         <v>79</v>
       </c>
-      <c r="G100" t="inlineStr"/>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-no-way-home/</t>
+        </is>
+      </c>
       <c r="H100" t="n">
         <v>-1.42</v>
       </c>
@@ -3465,7 +3861,11 @@
       <c r="F101" t="n">
         <v>48</v>
       </c>
-      <c r="G101" t="inlineStr"/>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-no-way-home/</t>
+        </is>
+      </c>
       <c r="H101" t="n">
         <v>-1.42</v>
       </c>
@@ -3495,7 +3895,11 @@
       <c r="F102" t="n">
         <v>49</v>
       </c>
-      <c r="G102" t="inlineStr"/>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-no-way-home/</t>
+        </is>
+      </c>
       <c r="H102" t="n">
         <v>1.08</v>
       </c>
@@ -3525,7 +3929,11 @@
       <c r="F103" t="n">
         <v>306</v>
       </c>
-      <c r="G103" t="inlineStr"/>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-no-way-home/</t>
+        </is>
+      </c>
       <c r="H103" t="n">
         <v>1.58</v>
       </c>
@@ -3555,7 +3963,11 @@
       <c r="F104" t="n">
         <v>435</v>
       </c>
-      <c r="G104" t="inlineStr"/>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-no-way-home/</t>
+        </is>
+      </c>
       <c r="H104" t="n">
         <v>-0.92</v>
       </c>
@@ -3585,7 +3997,11 @@
       <c r="F105" t="n">
         <v>135</v>
       </c>
-      <c r="G105" t="inlineStr"/>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-no-way-home/</t>
+        </is>
+      </c>
       <c r="H105" t="n">
         <v>-1.42</v>
       </c>
@@ -3615,7 +4031,11 @@
       <c r="F106" t="n">
         <v>531</v>
       </c>
-      <c r="G106" t="inlineStr"/>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-no-way-home/</t>
+        </is>
+      </c>
       <c r="H106" t="n">
         <v>0.08</v>
       </c>
@@ -3645,7 +4065,11 @@
       <c r="F107" t="n">
         <v>101</v>
       </c>
-      <c r="G107" t="inlineStr"/>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-no-way-home/</t>
+        </is>
+      </c>
       <c r="H107" t="n">
         <v>0.08</v>
       </c>
@@ -3675,7 +4099,11 @@
       <c r="F108" t="n">
         <v>434</v>
       </c>
-      <c r="G108" t="inlineStr"/>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-no-way-home/</t>
+        </is>
+      </c>
       <c r="H108" t="n">
         <v>-0.92</v>
       </c>
@@ -3705,7 +4133,11 @@
       <c r="F109" t="n">
         <v>103</v>
       </c>
-      <c r="G109" t="inlineStr"/>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-no-way-home/</t>
+        </is>
+      </c>
       <c r="H109" t="n">
         <v>1.08</v>
       </c>
@@ -3735,7 +4167,11 @@
       <c r="F110" t="n">
         <v>140</v>
       </c>
-      <c r="G110" t="inlineStr"/>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-no-way-home/</t>
+        </is>
+      </c>
       <c r="H110" t="n">
         <v>0.58</v>
       </c>
@@ -3765,7 +4201,11 @@
       <c r="F111" t="n">
         <v>30</v>
       </c>
-      <c r="G111" t="inlineStr"/>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/spider-man-no-way-home/</t>
+        </is>
+      </c>
       <c r="H111" t="n">
         <v>-0.42</v>
       </c>
